--- a/data/hotels_by_city/Dallas/Dallas_shard_677.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_677.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="850">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2478 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r580727870-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>56260</t>
+  </si>
+  <si>
+    <t>7263060</t>
+  </si>
+  <si>
+    <t>580727870</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Medical Stay</t>
+  </si>
+  <si>
+    <t>Need a place last minute without spending a lot of money. I chose this hotel because of ratings and cost. My only complaint was I could not get a upgrade. Which is minor. My room had a king bed with plenty of room. I was granted access to the club lounge.  I was over all please with the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Need a place last minute without spending a lot of money. I chose this hotel because of ratings and cost. My only complaint was I could not get a upgrade. Which is minor. My room had a king bed with plenty of room. I was granted access to the club lounge.  I was over all please with the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r570754052-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>570754052</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No refrigerator or microwave </t>
+  </si>
+  <si>
+    <t>The hotel is nice but I’ve stayed in much cheaper places and always had a refrigerator and microwave in the room. This luxury hotel did not which ended up being a pain. I went out and bought a few food items and assumed the room had a refrigerator to put the items in. I was very disappointed to see that it did not. I noticed in the information packet inside the room you can have one rolled into your room for an extra fee. I’ve never heard of such a thing. The pillows are terrible so you should probably bring your own if you like them more on the firm side. I did not have any complaints on the cleanliness. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded April 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is nice but I’ve stayed in much cheaper places and always had a refrigerator and microwave in the room. This luxury hotel did not which ended up being a pain. I went out and bought a few food items and assumed the room had a refrigerator to put the items in. I was very disappointed to see that it did not. I noticed in the information packet inside the room you can have one rolled into your room for an extra fee. I’ve never heard of such a thing. The pillows are terrible so you should probably bring your own if you like them more on the firm side. I did not have any complaints on the cleanliness. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r569294118-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>569294118</t>
+  </si>
+  <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t>Nice property but average customer service</t>
+  </si>
+  <si>
+    <t>The quality of the hotel is nice. It is clean and what I would expect from a good Sheraton. The staff however was mediocre. I called ahead to add my husbands name to the reservation but when we arrived his name wasn't on there. There was some confusion with our room rate at check in. We had to call twice to get an iron delivered to our room and the cleaning staff just never cleaned our room one day. The bar was super crowded every night, however there were three groups there at the time so that may have been unusual. Overall the hotel is nice and those things didn't really effect our stay, but if you are particular about service you might be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The quality of the hotel is nice. It is clean and what I would expect from a good Sheraton. The staff however was mediocre. I called ahead to add my husbands name to the reservation but when we arrived his name wasn't on there. There was some confusion with our room rate at check in. We had to call twice to get an iron delivered to our room and the cleaning staff just never cleaned our room one day. The bar was super crowded every night, however there were three groups there at the time so that may have been unusual. Overall the hotel is nice and those things didn't really effect our stay, but if you are particular about service you might be disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r561762588-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>561762588</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>Great location, Great Service</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel this weekend. The desk clerks were helpful and friendly. Pretty good food. Alexis is a super bartender. All around the hotel is clean, has quality amenities and the staff is excellent. I would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2018</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel this weekend. The desk clerks were helpful and friendly. Pretty good food. Alexis is a super bartender. All around the hotel is clean, has quality amenities and the staff is excellent. I would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r557807807-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>557807807</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>A great choice for any traveller.</t>
+  </si>
+  <si>
+    <t>First time here.  Great rates for my stay.  Large, well lit parking lot in the front.  Excellent, professional and friendly receptionists. Hotel is modern, very clean and complete with restaurant, lounge, business center and gym.  VERY quiet here.Club lounge is top notch and staff there are some of the best in the Starwoods family.  Will definitely make this hotel my "go to" choice in this area from now on.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r556100745-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>556100745</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>Came for the breakfast buffet</t>
+  </si>
+  <si>
+    <t>We had heard from friends that the hotel had a great breakfast buffet and we decided to try it. The restaurant was very nicely appointed and the service was great. The buffet had a wide selection and there was something for everyone. I would give it 5 stars except for the fact that food wasn’t very warm. But we would definitely go again. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded January 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2018</t>
+  </si>
+  <si>
+    <t>We had heard from friends that the hotel had a great breakfast buffet and we decided to try it. The restaurant was very nicely appointed and the service was great. The buffet had a wide selection and there was something for everyone. I would give it 5 stars except for the fact that food wasn’t very warm. But we would definitely go again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r545815542-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>545815542</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t>A hotel that I will definitely come back as soon as I can</t>
+  </si>
+  <si>
+    <t>I did not expect much from this hotel, honestly I do not know why, but the truth is that a hotel is as good as the people who run it. I had the same treatment, if not better, than in all the SPG hotels. I was greeted at the front desk by Christina, I arrived very tired from having driven 7 hours. She proved to have an extraordinary interest in seeing how she could please me. He started by giving me a club floor room. I am a gold SPG member. Then she got a mini fridge sent to my room because there are no fridges in them and I was planning to have dinner in my room. I was staying for 1 day only and had a very long night ahead so she also had me sent more coffee, sweeteners, milk and cups. Although I did not sleep alot I felt pampered as in a tier 7 SPG hotel. Thanks to Christina and the rest of her gang.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2017</t>
+  </si>
+  <si>
+    <t>I did not expect much from this hotel, honestly I do not know why, but the truth is that a hotel is as good as the people who run it. I had the same treatment, if not better, than in all the SPG hotels. I was greeted at the front desk by Christina, I arrived very tired from having driven 7 hours. She proved to have an extraordinary interest in seeing how she could please me. He started by giving me a club floor room. I am a gold SPG member. Then she got a mini fridge sent to my room because there are no fridges in them and I was planning to have dinner in my room. I was staying for 1 day only and had a very long night ahead so she also had me sent more coffee, sweeteners, milk and cups. Although I did not sleep alot I felt pampered as in a tier 7 SPG hotel. Thanks to Christina and the rest of her gang.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r545768036-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>545768036</t>
+  </si>
+  <si>
+    <t>Excellent nights sleep</t>
+  </si>
+  <si>
+    <t>I travel enough to know a great place from an ok place. The service was GREAT the bed GREAT and I slept well ( thats unusual). I cannot find a negative thing to say. Breakfast was GREAT too. I was missing a few things i forgot and the staff got them for me.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I travel enough to know a great place from an ok place. The service was GREAT the bed GREAT and I slept well ( thats unusual). I cannot find a negative thing to say. Breakfast was GREAT too. I was missing a few things i forgot and the staff got them for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r544054187-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>544054187</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>Nice rooms, great bar</t>
+  </si>
+  <si>
+    <t>We stay here every now and then just break break the monotony of every day living. What I love about it is that they have a nice outdoor area with pool and a great little bar indoors. It’s nice to have a drink and relax, in an atmosphere that doesn’t have a busy bar feel.The rooms are nice and have always been very clean. Nice place in McKinney, and although it’s right off the highway, it’s never been loud.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2017</t>
+  </si>
+  <si>
+    <t>We stay here every now and then just break break the monotony of every day living. What I love about it is that they have a nice outdoor area with pool and a great little bar indoors. It’s nice to have a drink and relax, in an atmosphere that doesn’t have a busy bar feel.The rooms are nice and have always been very clean. Nice place in McKinney, and although it’s right off the highway, it’s never been loud.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r538077452-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>538077452</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>A Must!!</t>
+  </si>
+  <si>
+    <t>This hotel is an Excellent choice! The outstanding staff! Jennifer, Kelly, Christina, housekeeping. It is always my go-to place because it has proven to be consistent - excellent customer service, cleanliness, and they remember all the details. Beautiful hotel!!! Thank you for always making me feel welcome</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r530900492-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>530900492</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>Very comfortable, great service, and clean!!!</t>
+  </si>
+  <si>
+    <t>I stayed here for the week of October 1, 2017 through October 6, 2017. It was a business stay. The hotel is beautiful and clean!!! The customer service was extraordinarily excellent!!! The room was very comfortable and clean too!!! It is a great hotel for business and family stays. It has a nice swimming pool too. The restrooms and all of the room supplies were constantly stocked and cleaned. The cleaning staff was superb!!! Imani at the front desk, Alex with room service had outstanding customer service!!! Shannon and his staff at The Sweetwater Grill were outstanding as well!!! The food was extremely delicious!!! The chicken fried chicken is among the best I've ever experienced!!! Thanks for a great stay!!! Room 253 is always great!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for the week of October 1, 2017 through October 6, 2017. It was a business stay. The hotel is beautiful and clean!!! The customer service was extraordinarily excellent!!! The room was very comfortable and clean too!!! It is a great hotel for business and family stays. It has a nice swimming pool too. The restrooms and all of the room supplies were constantly stocked and cleaned. The cleaning staff was superb!!! Imani at the front desk, Alex with room service had outstanding customer service!!! Shannon and his staff at The Sweetwater Grill were outstanding as well!!! The food was extremely delicious!!! The chicken fried chicken is among the best I've ever experienced!!! Thanks for a great stay!!! Room 253 is always great!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r529247084-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>529247084</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Outstanding Staff!</t>
+  </si>
+  <si>
+    <t>This hotel has the best staff ever! From Toy Avery at the front desk to Shannon, Josh and Alexis at the bar and the housekeeping staff—top notch crew. They are all outstanding! They made us feel at home! The hotel is very clean, quiet and comfortable! I highly recommend this location. This is my second stay at this property and plan to stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded October 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2017</t>
+  </si>
+  <si>
+    <t>This hotel has the best staff ever! From Toy Avery at the front desk to Shannon, Josh and Alexis at the bar and the housekeeping staff—top notch crew. They are all outstanding! They made us feel at home! The hotel is very clean, quiet and comfortable! I highly recommend this location. This is my second stay at this property and plan to stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r525031479-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>525031479</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Relaxing end to a business trip</t>
+  </si>
+  <si>
+    <t>The hotel is  stylishly decorated and the service is excellent.  The desk staff is friendly and helpful. I enjoyed drinks and a sandwich in the bar.  The room was well appointed and comfortable, and the bathroom was sparkling clean.  I order breakfast in my  which was very good.  Will stay here again.  My only problem was that I had trouble finding my way there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded September 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is  stylishly decorated and the service is excellent.  The desk staff is friendly and helpful. I enjoyed drinks and a sandwich in the bar.  The room was well appointed and comfortable, and the bathroom was sparkling clean.  I order breakfast in my  which was very good.  Will stay here again.  My only problem was that I had trouble finding my way there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r524911880-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>524911880</t>
+  </si>
+  <si>
+    <t>Exceptional experience</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights for a wedding. Very new hotel. Extremely friendly staff. Clean and beautiful room, brand new bathroom. I'd highly recommend this place. Steven at the front desk is especially courteous and always made sure I was having a pleasant stay. Will certainly stay here next time I visit McKinney:)MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights for a wedding. Very new hotel. Extremely friendly staff. Clean and beautiful room, brand new bathroom. I'd highly recommend this place. Steven at the front desk is especially courteous and always made sure I was having a pleasant stay. Will certainly stay here next time I visit McKinney:)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r523646800-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>523646800</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Bugs in hairblower</t>
+  </si>
+  <si>
+    <t>Had not stayed here for one year, and the cleanliness level has definitely gone down. I accidentally dropped their hairblower in the sink and bugs and debris rolled out. I then started looking around and found a lack of cleanliness in several places! Picture is of mattress and debris on top, dirty tile in corners, and debris in sink from hairblower! Would not stay there again. Maybe, the manager has cut back on personnel to make the bottom line look better.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Had not stayed here for one year, and the cleanliness level has definitely gone down. I accidentally dropped their hairblower in the sink and bugs and debris rolled out. I then started looking around and found a lack of cleanliness in several places! Picture is of mattress and debris on top, dirty tile in corners, and debris in sink from hairblower! Would not stay there again. Maybe, the manager has cut back on personnel to make the bottom line look better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r516472754-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>516472754</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Contemporary decor and comfortable beds</t>
+  </si>
+  <si>
+    <t>This is a fairly new property and decorated nicely from the lobby to the rooms. The bed was comfortable and the customer service was excellent. Several restaurant options are a short drive away.  I would return and stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded August 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2017</t>
+  </si>
+  <si>
+    <t>This is a fairly new property and decorated nicely from the lobby to the rooms. The bed was comfortable and the customer service was excellent. Several restaurant options are a short drive away.  I would return and stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r515708676-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>515708676</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>My new favorite!</t>
+  </si>
+  <si>
+    <t>Friendly staff, very new feel, clean rooms, comfy beds, nice size, great breakfast.  The front desk sent me a text shortly after check-in asking us if we were happy with our room. They are very focused on customer service. It was a great place to stop over between Austin and Arkansas and I will definitely be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded August 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2017</t>
+  </si>
+  <si>
+    <t>Friendly staff, very new feel, clean rooms, comfy beds, nice size, great breakfast.  The front desk sent me a text shortly after check-in asking us if we were happy with our room. They are very focused on customer service. It was a great place to stop over between Austin and Arkansas and I will definitely be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r514273506-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>514273506</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>What A Nice Surprise</t>
+  </si>
+  <si>
+    <t>I will be honest, when I think of Sheraton I don't really think of high end but this property is beautiful and the rooms are very comfortable.
+Starting with the staff up front they are very helpful and are happy to help you with whatever you need. To me this is the sign of a great hotel when they understand customer service and you actually have professional employees that manage the front end.
+The rooms have a homey feel to them and if you are on the first floor you get floor to ceiling windows and high ceilings. This is great because the rooms are only 370 square feet so it feels bigger.
+(***Note The 2 beds have a tub and the king has a stand up shower so if you have a family make sure you reserve the room with 2 double beds***)
+The beds are fantastic with high end sheets and a great down comforter. The bathroom was well appointed with great water pressure and hot water that never runs out. (With 5 people this is a must)
+The only tiny negative was we were facing the highway (75) and you could hear the noise. I was tired so I didn't care, but it would get annoying if I stayed for more than a few days and I had to hear cars all the time.
+Overall great property and I would highly recommend. The staff are great and...I will be honest, when I think of Sheraton I don't really think of high end but this property is beautiful and the rooms are very comfortable.Starting with the staff up front they are very helpful and are happy to help you with whatever you need. To me this is the sign of a great hotel when they understand customer service and you actually have professional employees that manage the front end.The rooms have a homey feel to them and if you are on the first floor you get floor to ceiling windows and high ceilings. This is great because the rooms are only 370 square feet so it feels bigger.(***Note The 2 beds have a tub and the king has a stand up shower so if you have a family make sure you reserve the room with 2 double beds***)The beds are fantastic with high end sheets and a great down comforter. The bathroom was well appointed with great water pressure and hot water that never runs out. (With 5 people this is a must)The only tiny negative was we were facing the highway (75) and you could hear the noise. I was tired so I didn't care, but it would get annoying if I stayed for more than a few days and I had to hear cars all the time.Overall great property and I would highly recommend. The staff are great and the hotel is very modern and clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded August 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2017</t>
+  </si>
+  <si>
+    <t>I will be honest, when I think of Sheraton I don't really think of high end but this property is beautiful and the rooms are very comfortable.
+Starting with the staff up front they are very helpful and are happy to help you with whatever you need. To me this is the sign of a great hotel when they understand customer service and you actually have professional employees that manage the front end.
+The rooms have a homey feel to them and if you are on the first floor you get floor to ceiling windows and high ceilings. This is great because the rooms are only 370 square feet so it feels bigger.
+(***Note The 2 beds have a tub and the king has a stand up shower so if you have a family make sure you reserve the room with 2 double beds***)
+The beds are fantastic with high end sheets and a great down comforter. The bathroom was well appointed with great water pressure and hot water that never runs out. (With 5 people this is a must)
+The only tiny negative was we were facing the highway (75) and you could hear the noise. I was tired so I didn't care, but it would get annoying if I stayed for more than a few days and I had to hear cars all the time.
+Overall great property and I would highly recommend. The staff are great and...I will be honest, when I think of Sheraton I don't really think of high end but this property is beautiful and the rooms are very comfortable.Starting with the staff up front they are very helpful and are happy to help you with whatever you need. To me this is the sign of a great hotel when they understand customer service and you actually have professional employees that manage the front end.The rooms have a homey feel to them and if you are on the first floor you get floor to ceiling windows and high ceilings. This is great because the rooms are only 370 square feet so it feels bigger.(***Note The 2 beds have a tub and the king has a stand up shower so if you have a family make sure you reserve the room with 2 double beds***)The beds are fantastic with high end sheets and a great down comforter. The bathroom was well appointed with great water pressure and hot water that never runs out. (With 5 people this is a must)The only tiny negative was we were facing the highway (75) and you could hear the noise. I was tired so I didn't care, but it would get annoying if I stayed for more than a few days and I had to hear cars all the time.Overall great property and I would highly recommend. The staff are great and the hotel is very modern and clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r503669072-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>503669072</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>The hotel is clean and beautiful! The staff is welcoming and accommodating. They helped with all my needs! The hitel is ckose to everything we needed. Will stay here every time we need a room in Mckinney!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is clean and beautiful! The staff is welcoming and accommodating. They helped with all my needs! The hitel is ckose to everything we needed. Will stay here every time we need a room in Mckinney!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r503355529-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>503355529</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Nice Rooms and Meeting Space</t>
+  </si>
+  <si>
+    <t>This Sheraton Hotel in McKinney is close to the highway, but nestled back a bit. It has nice and comfortable rooms and wonderful meeting rooms for business. The staff were friendly and helpful. Parking is free and positioned behind the hotel. It is a short drive into historic downtown McKinney from the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This Sheraton Hotel in McKinney is close to the highway, but nestled back a bit. It has nice and comfortable rooms and wonderful meeting rooms for business. The staff were friendly and helpful. Parking is free and positioned behind the hotel. It is a short drive into historic downtown McKinney from the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r502645178-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>502645178</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Quietness away from busy Plano</t>
+  </si>
+  <si>
+    <t>Fairly new hotel and the room was comfortable.  There's plenty of electrical outlets by the bed for phone, tablet charging.  Wifi was pretty fast.  Staff was all very friendly.  The only negative is because it's away from everything, it's harder to get food if arrival is later in the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2017</t>
+  </si>
+  <si>
+    <t>Fairly new hotel and the room was comfortable.  There's plenty of electrical outlets by the bed for phone, tablet charging.  Wifi was pretty fast.  Staff was all very friendly.  The only negative is because it's away from everything, it's harder to get food if arrival is later in the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r498819929-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>498819929</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Beautiful accommodations and excellent service!</t>
+  </si>
+  <si>
+    <t>We came to town for a wedding and had a large group of family members staying for four nights. Our time at the Sheraton was perfect! The staff was friendly and provided excellent service. We paid the Club price and it was definitely worth it! The breakfast was delicious and the evening hor'derves were more like dinner. The club room also provided a great common area for all of our family hang out together. We had a great time!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>We came to town for a wedding and had a large group of family members staying for four nights. Our time at the Sheraton was perfect! The staff was friendly and provided excellent service. We paid the Club price and it was definitely worth it! The breakfast was delicious and the evening hor'derves were more like dinner. The club room also provided a great common area for all of our family hang out together. We had a great time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r493265574-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>493265574</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>Best night sleep ever!</t>
+  </si>
+  <si>
+    <t>I can't rave enough about the little things and how they go so far. We stayed with two small children and a teenager. The thing that spoke to me the most was in the shower I always get grossed out by the shower curtain touching me. They are gross if you think about it. Not only was the shower plenty big enough that this didn't happen but the shower curtain was spotless which is a huge deal for me! Again it's the little things. The room was so clean I felt at ease right away. The bed was one of the most comfy beds I've ever slept in. We will stay here again. The staff was pleasant and we were checked in quickly and with no effort in our part! I'm also loving that pets are welcome here for free!! Can't beat this site and I want to recommend to all travelers in this area.  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>I can't rave enough about the little things and how they go so far. We stayed with two small children and a teenager. The thing that spoke to me the most was in the shower I always get grossed out by the shower curtain touching me. They are gross if you think about it. Not only was the shower plenty big enough that this didn't happen but the shower curtain was spotless which is a huge deal for me! Again it's the little things. The room was so clean I felt at ease right away. The bed was one of the most comfy beds I've ever slept in. We will stay here again. The staff was pleasant and we were checked in quickly and with no effort in our part! I'm also loving that pets are welcome here for free!! Can't beat this site and I want to recommend to all travelers in this area.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r491924817-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>491924817</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic stay and highly recommended! </t>
+  </si>
+  <si>
+    <t>We stayed at this property as a last minute decision on our way to Oklahoma. Not sure I remember ever staying at a Sheraton property (weird since I've done so much traveling) but the hotel brand is certainly high up on my list now! The hotel was a real treat and so were the staff. Modern hotel, clean rooms, friendly staff - we'd stay here again in a heartbeat! Happy travels! MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this property as a last minute decision on our way to Oklahoma. Not sure I remember ever staying at a Sheraton property (weird since I've done so much traveling) but the hotel brand is certainly high up on my list now! The hotel was a real treat and so were the staff. Modern hotel, clean rooms, friendly staff - we'd stay here again in a heartbeat! Happy travels! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r487358538-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>487358538</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>I stay here a lot and the customer service is amazing. They even remember my name between visits. The front desk people really care and I even get text from them asking how my stay is going. For the business traveler this is a great hotel. And the hospitality suite ladies make this the best part of staying there. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>I stay here a lot and the customer service is amazing. They even remember my name between visits. The front desk people really care and I even get text from them asking how my stay is going. For the business traveler this is a great hotel. And the hospitality suite ladies make this the best part of staying there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r486664885-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>486664885</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Overpriced for lack of comfort</t>
+  </si>
+  <si>
+    <t>Beautiful newer hotel. But beauty doesn't always mean comfort. The furnishings were modern but unable to sit in them. Check in was quick. The room service food was pricey.  I wouldn't make this hotel my first choice. Many others in the area a better value for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Beautiful newer hotel. But beauty doesn't always mean comfort. The furnishings were modern but unable to sit in them. Check in was quick. The room service food was pricey.  I wouldn't make this hotel my first choice. Many others in the area a better value for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r484764734-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>484764734</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Calm Oasis....</t>
+  </si>
+  <si>
+    <t>Spent two nights at the Sheraton McKinney in early May when I was in town for a wedding. Had bad weather for my flight and my plane landed a couple of hours later than expected. Arrived at the hotel exhausted and hungry and far too tired to wander out looking for a decent restaurant. I never expect much from hotel restaurants... But the steak was fabulous. (Breakfast the next day was disappointing... But dinner was EXCELLENT!) Friendly staff, nice room. Excellent steak.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2017</t>
+  </si>
+  <si>
+    <t>Spent two nights at the Sheraton McKinney in early May when I was in town for a wedding. Had bad weather for my flight and my plane landed a couple of hours later than expected. Arrived at the hotel exhausted and hungry and far too tired to wander out looking for a decent restaurant. I never expect much from hotel restaurants... But the steak was fabulous. (Breakfast the next day was disappointing... But dinner was EXCELLENT!) Friendly staff, nice room. Excellent steak.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r480301684-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>480301684</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Quick Overnight</t>
+  </si>
+  <si>
+    <t>A very nice, new hotel in McKinney.  Stayed on the club floor.  Was impressed with the hot breakfast in the club.  Ended up in a room with a loud party going on next door, but hotel security resolved it quickly once we called.  Very nice rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>A very nice, new hotel in McKinney.  Stayed on the club floor.  Was impressed with the hot breakfast in the club.  Ended up in a room with a loud party going on next door, but hotel security resolved it quickly once we called.  Very nice rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r479150883-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>479150883</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel for a wedding.</t>
+  </si>
+  <si>
+    <t>My sister booked this hotel as a wedding block for her wedding because of the location to venue. She stayed two nights in the presidential suite. Is stayed with her the night before her wedding. The room had an awful odor, like stale smoke and mold. We immediately told the front desk and they brought up a air purifier thing for about an hour and came back and took it. It did not fix the smell. This time they let us keep the air purifier. The next day (the wedding day) we told the front desk about the smell again and they sent a few people up to look at it. They said they were going to look at the connecting rooms and have it fixed before we all came back after the wedding. There were no other suites to move into. My sister unfortunately had to spend her wedding night in that room with the stink. 
+My uncle booked a double room for three people: himself, his wife and daughter. When he checked in he was given a king room and was told they had no more rollaways available. They actually gave my uncle a blow up mattress... which had deflated by the middle of the night. He was also told there were no other rooms available the second night. 
+When my sister booked the block for the wedding, she had arranged a shuttle through the hotel to and...My sister booked this hotel as a wedding block for her wedding because of the location to venue. She stayed two nights in the presidential suite. Is stayed with her the night before her wedding. The room had an awful odor, like stale smoke and mold. We immediately told the front desk and they brought up a air purifier thing for about an hour and came back and took it. It did not fix the smell. This time they let us keep the air purifier. The next day (the wedding day) we told the front desk about the smell again and they sent a few people up to look at it. They said they were going to look at the connecting rooms and have it fixed before we all came back after the wedding. There were no other suites to move into. My sister unfortunately had to spend her wedding night in that room with the stink. My uncle booked a double room for three people: himself, his wife and daughter. When he checked in he was given a king room and was told they had no more rollaways available. They actually gave my uncle a blow up mattress... which had deflated by the middle of the night. He was also told there were no other rooms available the second night. When my sister booked the block for the wedding, she had arranged a shuttle through the hotel to and from the venue so people did not have to drive. The last shuttle was scheduled to run at 11pm because that was the time that the wedding ended. At 1102 I went outside and there was no shuttle. We still had about 20 guests at the venue at this point. I quickly called the hotel and they told me the shuttle had already left and they were not coming back. We were all stuck at the venue with no response from Uber and we were too far out for a taxi. The owners of the venue ended up having to take us back to the hotel!!The hotel is new and beautiful. The rooms are nice. But we had several problems that would make us not want to come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded April 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2017</t>
+  </si>
+  <si>
+    <t>My sister booked this hotel as a wedding block for her wedding because of the location to venue. She stayed two nights in the presidential suite. Is stayed with her the night before her wedding. The room had an awful odor, like stale smoke and mold. We immediately told the front desk and they brought up a air purifier thing for about an hour and came back and took it. It did not fix the smell. This time they let us keep the air purifier. The next day (the wedding day) we told the front desk about the smell again and they sent a few people up to look at it. They said they were going to look at the connecting rooms and have it fixed before we all came back after the wedding. There were no other suites to move into. My sister unfortunately had to spend her wedding night in that room with the stink. 
+My uncle booked a double room for three people: himself, his wife and daughter. When he checked in he was given a king room and was told they had no more rollaways available. They actually gave my uncle a blow up mattress... which had deflated by the middle of the night. He was also told there were no other rooms available the second night. 
+When my sister booked the block for the wedding, she had arranged a shuttle through the hotel to and...My sister booked this hotel as a wedding block for her wedding because of the location to venue. She stayed two nights in the presidential suite. Is stayed with her the night before her wedding. The room had an awful odor, like stale smoke and mold. We immediately told the front desk and they brought up a air purifier thing for about an hour and came back and took it. It did not fix the smell. This time they let us keep the air purifier. The next day (the wedding day) we told the front desk about the smell again and they sent a few people up to look at it. They said they were going to look at the connecting rooms and have it fixed before we all came back after the wedding. There were no other suites to move into. My sister unfortunately had to spend her wedding night in that room with the stink. My uncle booked a double room for three people: himself, his wife and daughter. When he checked in he was given a king room and was told they had no more rollaways available. They actually gave my uncle a blow up mattress... which had deflated by the middle of the night. He was also told there were no other rooms available the second night. When my sister booked the block for the wedding, she had arranged a shuttle through the hotel to and from the venue so people did not have to drive. The last shuttle was scheduled to run at 11pm because that was the time that the wedding ended. At 1102 I went outside and there was no shuttle. We still had about 20 guests at the venue at this point. I quickly called the hotel and they told me the shuttle had already left and they were not coming back. We were all stuck at the venue with no response from Uber and we were too far out for a taxi. The owners of the venue ended up having to take us back to the hotel!!The hotel is new and beautiful. The rooms are nice. But we had several problems that would make us not want to come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r478373108-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>478373108</t>
+  </si>
+  <si>
+    <t>04/23/2017</t>
+  </si>
+  <si>
+    <t>Our New Favorite Dallas Stay Place</t>
+  </si>
+  <si>
+    <t>First of all, we were looking for a pet friendly hotel in the Allen/McKinney area for our trip to attend memorial services for one of our dearest friends.  On the Sheraton McKinney online information, it stated that there was a deposit for a pet, and we didn't know if that was one deposit no matter if you had one or two dogs.  We have two small shih tzus so my husband called the Sheraton 800 number to ask about that.  He talked to Robin, who actually was located in Austin, where we live, and we had the most attentive service from her.  She put my husband on hold several times, but only for seconds each time, to double check on different items he asked her about.  She was friendly and made sure she gave us the best deal for our stay.  I would love to have her each time we ever call.  She was amazing!!
+When we arrived, the staff at the hotel was very courteous.  Our room was unbelievable.  We thought we were getting a regular room with a king-sized bed in it.  It was actually a suite with a sofa and sitting area with a TV, and then the bedroom area with another TV.  The bathroom was very large, and the shower was spectacular.  The hotel is well insulated, and we never heard hall or next door noise.  
+We had passes to the Club Room on the fourth...First of all, we were looking for a pet friendly hotel in the Allen/McKinney area for our trip to attend memorial services for one of our dearest friends.  On the Sheraton McKinney online information, it stated that there was a deposit for a pet, and we didn't know if that was one deposit no matter if you had one or two dogs.  We have two small shih tzus so my husband called the Sheraton 800 number to ask about that.  He talked to Robin, who actually was located in Austin, where we live, and we had the most attentive service from her.  She put my husband on hold several times, but only for seconds each time, to double check on different items he asked her about.  She was friendly and made sure she gave us the best deal for our stay.  I would love to have her each time we ever call.  She was amazing!!When we arrived, the staff at the hotel was very courteous.  Our room was unbelievable.  We thought we were getting a regular room with a king-sized bed in it.  It was actually a suite with a sofa and sitting area with a TV, and then the bedroom area with another TV.  The bathroom was very large, and the shower was spectacular.  The hotel is well insulated, and we never heard hall or next door noise.  We had passes to the Club Room on the fourth floor for breakfast and hors d'oeuvres each evening.  The attendant in the Club Room was very helpful and friendly, and she was there both morning and evening each day.  With the pass, you may also go anytime in there to get coffee, lattes, or hot tea.  The amenities were wonderful, and we loved our stay there.  Oh by the way, there is no deposit required for dogs.  We didn't see a lot of people with dogs there, but ours were treated well during our stay.  We will definitely look forward to going back.  Thank you!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded April 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2017</t>
+  </si>
+  <si>
+    <t>First of all, we were looking for a pet friendly hotel in the Allen/McKinney area for our trip to attend memorial services for one of our dearest friends.  On the Sheraton McKinney online information, it stated that there was a deposit for a pet, and we didn't know if that was one deposit no matter if you had one or two dogs.  We have two small shih tzus so my husband called the Sheraton 800 number to ask about that.  He talked to Robin, who actually was located in Austin, where we live, and we had the most attentive service from her.  She put my husband on hold several times, but only for seconds each time, to double check on different items he asked her about.  She was friendly and made sure she gave us the best deal for our stay.  I would love to have her each time we ever call.  She was amazing!!
+When we arrived, the staff at the hotel was very courteous.  Our room was unbelievable.  We thought we were getting a regular room with a king-sized bed in it.  It was actually a suite with a sofa and sitting area with a TV, and then the bedroom area with another TV.  The bathroom was very large, and the shower was spectacular.  The hotel is well insulated, and we never heard hall or next door noise.  
+We had passes to the Club Room on the fourth...First of all, we were looking for a pet friendly hotel in the Allen/McKinney area for our trip to attend memorial services for one of our dearest friends.  On the Sheraton McKinney online information, it stated that there was a deposit for a pet, and we didn't know if that was one deposit no matter if you had one or two dogs.  We have two small shih tzus so my husband called the Sheraton 800 number to ask about that.  He talked to Robin, who actually was located in Austin, where we live, and we had the most attentive service from her.  She put my husband on hold several times, but only for seconds each time, to double check on different items he asked her about.  She was friendly and made sure she gave us the best deal for our stay.  I would love to have her each time we ever call.  She was amazing!!When we arrived, the staff at the hotel was very courteous.  Our room was unbelievable.  We thought we were getting a regular room with a king-sized bed in it.  It was actually a suite with a sofa and sitting area with a TV, and then the bedroom area with another TV.  The bathroom was very large, and the shower was spectacular.  The hotel is well insulated, and we never heard hall or next door noise.  We had passes to the Club Room on the fourth floor for breakfast and hors d'oeuvres each evening.  The attendant in the Club Room was very helpful and friendly, and she was there both morning and evening each day.  With the pass, you may also go anytime in there to get coffee, lattes, or hot tea.  The amenities were wonderful, and we loved our stay there.  Oh by the way, there is no deposit required for dogs.  We didn't see a lot of people with dogs there, but ours were treated well during our stay.  We will definitely look forward to going back.  Thank you!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r474237302-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>474237302</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Comfortable &amp; clean hotel</t>
+  </si>
+  <si>
+    <t>Reserved a room on the Sheraton Club level, and it was very nicely appointed.  The Club serves breakfast (a few hot items) and evening appetizers (cheese, veggies, and hot items).  Enjoyed our stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2017</t>
+  </si>
+  <si>
+    <t>Reserved a room on the Sheraton Club level, and it was very nicely appointed.  The Club serves breakfast (a few hot items) and evening appetizers (cheese, veggies, and hot items).  Enjoyed our stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r474154366-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>474154366</t>
+  </si>
+  <si>
+    <t>Nice new hotel</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel north of chaos in Plano, but just a few minutes away.  You can enjoy a little quiet, and also avoid being too far from everything.  If you have business in Plano, Richardson, or even Frisco you are less than 15 min away!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel north of chaos in Plano, but just a few minutes away.  You can enjoy a little quiet, and also avoid being too far from everything.  If you have business in Plano, Richardson, or even Frisco you are less than 15 min away!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r473496645-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>473496645</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Nice and Clean</t>
+  </si>
+  <si>
+    <t>Spent two nights here for a local wedding. Nice and clean room. Daughter loved the Starbucks in-room coffee. Son loved the pool. Large bathroom and comfortable beds. Did not purchase the breakfast. I would recommend this hotel and return when back in McKinney.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Spent two nights here for a local wedding. Nice and clean room. Daughter loved the Starbucks in-room coffee. Son loved the pool. Large bathroom and comfortable beds. Did not purchase the breakfast. I would recommend this hotel and return when back in McKinney.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r461454306-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>461454306</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel </t>
+  </si>
+  <si>
+    <t>My husband and I stayed with a group of friends at this hotel for two weddings over the weekend. The hotel was beautiful, brand new, good service. Quiet location, right off the highway, less than 10 minute drive to the charming and historic downtown McKinney! We went to a wedding at the Stone Crest Venue, and were able to get an Uber from the hotel to the venue and it was about a 15 minute drive. Good hotel for a one night stay or traveling through. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I stayed with a group of friends at this hotel for two weddings over the weekend. The hotel was beautiful, brand new, good service. Quiet location, right off the highway, less than 10 minute drive to the charming and historic downtown McKinney! We went to a wedding at the Stone Crest Venue, and were able to get an Uber from the hotel to the venue and it was about a 15 minute drive. Good hotel for a one night stay or traveling through. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r460943681-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>460943681</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t>New hotel</t>
+  </si>
+  <si>
+    <t>One night stay while in town for a wedding. Room was okay but mattress was not that comfy. Had room for a microwave and frig but did not have them. Staff was friendly and responsive. Breakfast was pricey and don't recommend. MoreShow less</t>
+  </si>
+  <si>
+    <t>One night stay while in town for a wedding. Room was okay but mattress was not that comfy. Had room for a microwave and frig but did not have them. Staff was friendly and responsive. Breakfast was pricey and don't recommend. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r459452859-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>459452859</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Would rate higher, but its not a Four Seasons ....</t>
+  </si>
+  <si>
+    <t>New hotel, modern furnishings and friendly staff.  Front Desk staff fine, Lounge and Bar staff very friendly, anticipating needs and excellent, especially for the brand and price point.  As others note, you need a car as there's nothing within walking distance of the hotel, but there's plenty of dining and retail nearby if you've got wheels.   Will definitely return when back on business. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2017</t>
+  </si>
+  <si>
+    <t>New hotel, modern furnishings and friendly staff.  Front Desk staff fine, Lounge and Bar staff very friendly, anticipating needs and excellent, especially for the brand and price point.  As others note, you need a car as there's nothing within walking distance of the hotel, but there's plenty of dining and retail nearby if you've got wheels.   Will definitely return when back on business. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r454091087-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>454091087</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel but you're kind of stranded. </t>
+  </si>
+  <si>
+    <t>This is a nice, newer Sheraton. My only gripe with it is you're stuck there unless you have a car or take Uber/Lyft/taxi to other restaurants. We were there for work and had dinner at the hotel on our first night. The poor bartender was spread thin amongst a lot of people who wanted food and/or drinks. Who knows what happened; maybe someone called in sick.  He did all he could while trying to serve more people than one person should have. Good was on par with other Sheraton hotels. If you prefer more action and options within walking distance, the Aloft hotel an exit or two south (I think) would be a good alternative in the SPG program. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded January 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2017</t>
+  </si>
+  <si>
+    <t>This is a nice, newer Sheraton. My only gripe with it is you're stuck there unless you have a car or take Uber/Lyft/taxi to other restaurants. We were there for work and had dinner at the hotel on our first night. The poor bartender was spread thin amongst a lot of people who wanted food and/or drinks. Who knows what happened; maybe someone called in sick.  He did all he could while trying to serve more people than one person should have. Good was on par with other Sheraton hotels. If you prefer more action and options within walking distance, the Aloft hotel an exit or two south (I think) would be a good alternative in the SPG program. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r454013363-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>454013363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect </t>
+  </si>
+  <si>
+    <t>Hotel is very beautiful. Staff very friendly an helpful. Bed was AMAZING!!! If you forget anything all you have to do is ask they probably have it. Room was very beautifully decorated. Very good location. Will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is very beautiful. Staff very friendly an helpful. Bed was AMAZING!!! If you forget anything all you have to do is ask they probably have it. Room was very beautifully decorated. Very good location. Will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r448288290-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>448288290</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty, but not as clean as expected </t>
+  </si>
+  <si>
+    <t>The room was very nicely furnished, but was not as clean as I expected. Around the bed and by the furniture there was food debri and particles of stuff in the floor and a few of the tables were dusty, there was also a glob of toothpaste on the floor of the bathroom. We had someone to come vacuum again because it was a little gross (we made sure to keep our socks on in the room). There was also no mini fridge (which I didn't think to check about in advance because most places have them) so we had to buy a little ice chest for our drinks and leftovers. Another issue was only part of the hotel gets breakfast (the club rooms) so if you stay in the other rooms you will need to either go eat at their restaurant or go get something  (make sure it doesn't need to be refrigerated). It was a little confusing, because the pictures show a nice continental style breakfast and it does not say exactly if it does or does not serve breakfast, so I had to go to several places on their website and read other guest reviews before I could tell we were not in the right kind of room to get breskfast.  It is right by the interstate so you can hear the traffic, we were on the first floor so it was a little noisy because of...The room was very nicely furnished, but was not as clean as I expected. Around the bed and by the furniture there was food debri and particles of stuff in the floor and a few of the tables were dusty, there was also a glob of toothpaste on the floor of the bathroom. We had someone to come vacuum again because it was a little gross (we made sure to keep our socks on in the room). There was also no mini fridge (which I didn't think to check about in advance because most places have them) so we had to buy a little ice chest for our drinks and leftovers. Another issue was only part of the hotel gets breakfast (the club rooms) so if you stay in the other rooms you will need to either go eat at their restaurant or go get something  (make sure it doesn't need to be refrigerated). It was a little confusing, because the pictures show a nice continental style breakfast and it does not say exactly if it does or does not serve breakfast, so I had to go to several places on their website and read other guest reviews before I could tell we were not in the right kind of room to get breskfast.  It is right by the interstate so you can hear the traffic, we were on the first floor so it was a little noisy because of other guests coming and going at the front desk. It was good for the price and the lobby was very pretty and well maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded January 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2017</t>
+  </si>
+  <si>
+    <t>The room was very nicely furnished, but was not as clean as I expected. Around the bed and by the furniture there was food debri and particles of stuff in the floor and a few of the tables were dusty, there was also a glob of toothpaste on the floor of the bathroom. We had someone to come vacuum again because it was a little gross (we made sure to keep our socks on in the room). There was also no mini fridge (which I didn't think to check about in advance because most places have them) so we had to buy a little ice chest for our drinks and leftovers. Another issue was only part of the hotel gets breakfast (the club rooms) so if you stay in the other rooms you will need to either go eat at their restaurant or go get something  (make sure it doesn't need to be refrigerated). It was a little confusing, because the pictures show a nice continental style breakfast and it does not say exactly if it does or does not serve breakfast, so I had to go to several places on their website and read other guest reviews before I could tell we were not in the right kind of room to get breskfast.  It is right by the interstate so you can hear the traffic, we were on the first floor so it was a little noisy because of...The room was very nicely furnished, but was not as clean as I expected. Around the bed and by the furniture there was food debri and particles of stuff in the floor and a few of the tables were dusty, there was also a glob of toothpaste on the floor of the bathroom. We had someone to come vacuum again because it was a little gross (we made sure to keep our socks on in the room). There was also no mini fridge (which I didn't think to check about in advance because most places have them) so we had to buy a little ice chest for our drinks and leftovers. Another issue was only part of the hotel gets breakfast (the club rooms) so if you stay in the other rooms you will need to either go eat at their restaurant or go get something  (make sure it doesn't need to be refrigerated). It was a little confusing, because the pictures show a nice continental style breakfast and it does not say exactly if it does or does not serve breakfast, so I had to go to several places on their website and read other guest reviews before I could tell we were not in the right kind of room to get breskfast.  It is right by the interstate so you can hear the traffic, we were on the first floor so it was a little noisy because of other guests coming and going at the front desk. It was good for the price and the lobby was very pretty and well maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r436800209-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>436800209</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent SPG Property </t>
+  </si>
+  <si>
+    <t>Can't really say anything bad about this hotel. It is a decent location to facilitate business in the Dallas area.Amenities are good and everything appears to be pristine.The only thing I could "ding" them on is the restaurant within. The food was sub-par to the rest of the hotel. Restaurant wait staff are not adequately trained in service, but a B+ for trying hard.The business lounge is excellent as well, but it seemed to have more loud  families than businessmen some of the times.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Can't really say anything bad about this hotel. It is a decent location to facilitate business in the Dallas area.Amenities are good and everything appears to be pristine.The only thing I could "ding" them on is the restaurant within. The food was sub-par to the rest of the hotel. Restaurant wait staff are not adequately trained in service, but a B+ for trying hard.The business lounge is excellent as well, but it seemed to have more loud  families than businessmen some of the times.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r436018416-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>436018416</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>So happy that we stayed here</t>
+  </si>
+  <si>
+    <t>I really wasn't sure what to expect because I haven't stayed at a Sheraton Hotel in a number of years, but I am so happy that we stayed here!  It was an amazing experience from start to finish. Miles kept our room even when we arrived over 4 hours late and well after midnight.Our room was perfect and they removed all of the feather bedding for me. Stacy, the manager, greeted us by name and made sure that we were pleased with everything each day. Stan was phenomenal!  He drove us to the square each night, made excellent suggestions, picked us up promptly after dinner, and got us back safely.  We highly recommended the Club and the restaurant here; both have great food and impeccable service. Would I stay here again? Yes, in a heartbeat and will be back next month! Superb is an understatement for this hotel - STELLAR is more like it. Starwood Hotels selected an incredible staff for this hotel and I will definitely recommend the Sheraton McKinney to my company for future business trips and to friends and family for leisure. 5 stars all the way!MoreShow less</t>
+  </si>
+  <si>
+    <t>I really wasn't sure what to expect because I haven't stayed at a Sheraton Hotel in a number of years, but I am so happy that we stayed here!  It was an amazing experience from start to finish. Miles kept our room even when we arrived over 4 hours late and well after midnight.Our room was perfect and they removed all of the feather bedding for me. Stacy, the manager, greeted us by name and made sure that we were pleased with everything each day. Stan was phenomenal!  He drove us to the square each night, made excellent suggestions, picked us up promptly after dinner, and got us back safely.  We highly recommended the Club and the restaurant here; both have great food and impeccable service. Would I stay here again? Yes, in a heartbeat and will be back next month! Superb is an understatement for this hotel - STELLAR is more like it. Starwood Hotels selected an incredible staff for this hotel and I will definitely recommend the Sheraton McKinney to my company for future business trips and to friends and family for leisure. 5 stars all the way!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r425179689-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>425179689</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So chic! </t>
+  </si>
+  <si>
+    <t>Loved this hotel! I stayed there with my maid of honor the night before the wedding! Very nice! The beds were super comfortable.It's also pet friendly! No breakfast included, but you can eat at their restaurant downstairs.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Flaviu F, Manager at Sheraton McKinney Hotel, responded to this reviewResponded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Loved this hotel! I stayed there with my maid of honor the night before the wedding! Very nice! The beds were super comfortable.It's also pet friendly! No breakfast included, but you can eat at their restaurant downstairs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r421918607-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>421918607</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>Luxury I'm not used too!</t>
+  </si>
+  <si>
+    <t>I never stay at a hotel this nice and I'd have to say it was a real treat. I only stayed b/c I got a great express deal on priceline. I chose the property b/c they are super pet friendly with no pet fee for my two dogs! Thank you so much for being dog people! My room was very large and the bed was comfortable. I do wish there would have been a fridge and microwave. There is no breakfast included. The fitness center is the best one I've ever been to in a hotel! Lots of free weights, cable system, mats, swiss balls, bands, jump ropes, and your cardio machines. The property is large enough that you can make a big circle around the hotel and it is a decent walk for your dog(s). Kind of hard to jump in the car and pick something up to eat..nothing that close. Internet was speedy!MoreShow less</t>
+  </si>
+  <si>
+    <t>Flaviu F, Manager at Sheraton McKinney Hotel, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>I never stay at a hotel this nice and I'd have to say it was a real treat. I only stayed b/c I got a great express deal on priceline. I chose the property b/c they are super pet friendly with no pet fee for my two dogs! Thank you so much for being dog people! My room was very large and the bed was comfortable. I do wish there would have been a fridge and microwave. There is no breakfast included. The fitness center is the best one I've ever been to in a hotel! Lots of free weights, cable system, mats, swiss balls, bands, jump ropes, and your cardio machines. The property is large enough that you can make a big circle around the hotel and it is a decent walk for your dog(s). Kind of hard to jump in the car and pick something up to eat..nothing that close. Internet was speedy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r421800210-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>421800210</t>
+  </si>
+  <si>
+    <t>Anniversary</t>
+  </si>
+  <si>
+    <t>WOW... This place is at the top of our list of favorite places to stay. We received a great rate. Our room was so impressive. Very elegant! We could hear a pin drop it was so quiet! Even with us being next to the freeway we did not hear any noise. The personnel was so professional and went out of their way to accommodate of in every possible way. The hotel is so beautiful and and decorate so elegantly. We never notice our service staff. This was our 3rd anniversary and we could not have spent it in a better place. We truly believe this hotel deserve 10 stars if we could give it. MoreShow less</t>
+  </si>
+  <si>
+    <t>WOW... This place is at the top of our list of favorite places to stay. We received a great rate. Our room was so impressive. Very elegant! We could hear a pin drop it was so quiet! Even with us being next to the freeway we did not hear any noise. The personnel was so professional and went out of their way to accommodate of in every possible way. The hotel is so beautiful and and decorate so elegantly. We never notice our service staff. This was our 3rd anniversary and we could not have spent it in a better place. We truly believe this hotel deserve 10 stars if we could give it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r420548157-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>420548157</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Great place to Stay!</t>
+  </si>
+  <si>
+    <t>This is one of the better Hotels I have stayed at in quite a while.  The Hotel was very clean and presentable.  The rooms are furnished nicely, the property was well kept and Service was great!  This was the most comfortable hotel bed I have been in.  Slept like a babyOnly issues...the fan return in the bathroom was quite noisy and you cant turn it off....Issue corrected by shutting the bathroom door at night.   At breakfast the eggs on the Eggs benedict were over cooked.MoreShow less</t>
+  </si>
+  <si>
+    <t>Flaviu F, Manager at Sheraton McKinney Hotel, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>This is one of the better Hotels I have stayed at in quite a while.  The Hotel was very clean and presentable.  The rooms are furnished nicely, the property was well kept and Service was great!  This was the most comfortable hotel bed I have been in.  Slept like a babyOnly issues...the fan return in the bathroom was quite noisy and you cant turn it off....Issue corrected by shutting the bathroom door at night.   At breakfast the eggs on the Eggs benedict were over cooked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r417656786-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>417656786</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Wonderful experience!</t>
+  </si>
+  <si>
+    <t>Booked this hotel for one night. Beautiful lobby, excellent check in, very comfortable bed. Only issue is have doors slamming in middle of night in hallway, and neighbors were amorous around 4:30 AM! Will definitely go again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Flaviu F, Manager at Sheraton McKinney Hotel, responded to this reviewResponded September 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2016</t>
+  </si>
+  <si>
+    <t>Booked this hotel for one night. Beautiful lobby, excellent check in, very comfortable bed. Only issue is have doors slamming in middle of night in hallway, and neighbors were amorous around 4:30 AM! Will definitely go again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r416850936-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>416850936</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Super nice in McKinney</t>
+  </si>
+  <si>
+    <t>Great new Sheraton.  Room was plenty big enough, very comfortable bed, nice big shower.  Very friendly staff.  No restaurants within walking distance, but plenty one or two exits away.  Will definitely consider staying here again on next trip to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Flaviu F, Manager at Sheraton McKinney Hotel, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Great new Sheraton.  Room was plenty big enough, very comfortable bed, nice big shower.  Very friendly staff.  No restaurants within walking distance, but plenty one or two exits away.  Will definitely consider staying here again on next trip to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r415030948-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>415030948</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Amazing Ain't The Word!</t>
+  </si>
+  <si>
+    <t>So me and my family wanted to getaway for Labor Day wkd, but most of the hotels in Dallas were booked. We ended up booking the Sheraton McKinney Hotel after I researched and read great reviews. *NOTE Book the hotel through their direct website and the prices are great! Upon arrival check in was a breeze. The hotel is beautifully decorated. The rooms are beautiful and the bathroom is very nice too. The rooms are very spacious. If you are sharing a room this hotel is a great idea. The workout room is great and the pool is cool. They offer a breakfast buffet. It is simple and good. I'm so happy that everything was booked and I found this hotel because it's a jewel. Honestly I've never really booked Sheraton hotels, but this one is modern! Everywhere we went was in radius and traffic wasn't bad. I wish I could stay at this hotel lol. It was also an extremely kid friendly hotel. I'd definitely return to this hotel in the future. Everything about it was great. No complaints...MoreShow less</t>
+  </si>
+  <si>
+    <t>Flaviu F, Manager at Sheraton McKinney Hotel, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>So me and my family wanted to getaway for Labor Day wkd, but most of the hotels in Dallas were booked. We ended up booking the Sheraton McKinney Hotel after I researched and read great reviews. *NOTE Book the hotel through their direct website and the prices are great! Upon arrival check in was a breeze. The hotel is beautifully decorated. The rooms are beautiful and the bathroom is very nice too. The rooms are very spacious. If you are sharing a room this hotel is a great idea. The workout room is great and the pool is cool. They offer a breakfast buffet. It is simple and good. I'm so happy that everything was booked and I found this hotel because it's a jewel. Honestly I've never really booked Sheraton hotels, but this one is modern! Everywhere we went was in radius and traffic wasn't bad. I wish I could stay at this hotel lol. It was also an extremely kid friendly hotel. I'd definitely return to this hotel in the future. Everything about it was great. No complaints...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r408001995-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>408001995</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>New Concept for Sheraton</t>
+  </si>
+  <si>
+    <t>This particular property showcases a new concept for Sheraton to reinvent itself as a chain.  The hotel has a very modern, new look with clean, sharp lines.  My wife and I enjoyed a quick getaway here, and everything was perfect.  We opted to upgraded to the Club level (4th floor) which was very much worth the few extra dollars.  The snacks in the evening and the breakfast included in that upgrade made it very much worth the few extra dollars.  The hotel was very quiet, even though there seemed to be a good occupancy rate that night.  The staff was superb!  Check-in was easy and our room was ready and waiting.  The room was incredibly spacious with a very comfortable bed and the bathroom was very nicely appointed and huge!  Even the complimentary bottles of water were a nice touch.  Our only disappointment was the bed pillows were so flat and flimsy, but next time we'll bring our own.All in all a great hotel and a super price.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Flaviu F, Manager at Sheraton McKinney Hotel, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>This particular property showcases a new concept for Sheraton to reinvent itself as a chain.  The hotel has a very modern, new look with clean, sharp lines.  My wife and I enjoyed a quick getaway here, and everything was perfect.  We opted to upgraded to the Club level (4th floor) which was very much worth the few extra dollars.  The snacks in the evening and the breakfast included in that upgrade made it very much worth the few extra dollars.  The hotel was very quiet, even though there seemed to be a good occupancy rate that night.  The staff was superb!  Check-in was easy and our room was ready and waiting.  The room was incredibly spacious with a very comfortable bed and the bathroom was very nicely appointed and huge!  Even the complimentary bottles of water were a nice touch.  Our only disappointment was the bed pillows were so flat and flimsy, but next time we'll bring our own.All in all a great hotel and a super price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r404213980-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>404213980</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>Frequent stays</t>
+  </si>
+  <si>
+    <t>My husband and I stay here 1-2 times monthly since this location opened last year.  Staff is not super friendly but the hotel is new, above average in decor. The a/c works great in every room except the junior suites.  Same number of vents as the regular rooms but much larger room....we had to  buy small fans to be comfortable.  The room was an upgrade from mgmt for a booking error.....won't fall for that again.  We love the large showers and comfy beds.  We've never ate at the restaurant but they offer packages and coupons to guests.  Rates are pretty negotiable if you call them on the phone, compared to rates on line. Nice pool and outside lounge near the restaurant/bar area that appeals to the hipsters.  The parking lot is an odd sitch, but you drop off in the back and park at the front, nearest the SRT/75 interchange, therefore keeping noise to a minimum.  This does make for quite a long haul to the hot car.  No covered parking, and no card reader on the end doors/stairs. The place is shaped like a 'U' with the doors located in the center.  Stairs on the ends closest the parking lot.  Please put in card readers at these locations for your elderly guests!  We have stayed in rooms on every floor on all sides.  The one thing that is always present is the way the doors slam shut if not...My husband and I stay here 1-2 times monthly since this location opened last year.  Staff is not super friendly but the hotel is new, above average in decor. The a/c works great in every room except the junior suites.  Same number of vents as the regular rooms but much larger room....we had to  buy small fans to be comfortable.  The room was an upgrade from mgmt for a booking error.....won't fall for that again.  We love the large showers and comfy beds.  We've never ate at the restaurant but they offer packages and coupons to guests.  Rates are pretty negotiable if you call them on the phone, compared to rates on line. Nice pool and outside lounge near the restaurant/bar area that appeals to the hipsters.  The parking lot is an odd sitch, but you drop off in the back and park at the front, nearest the SRT/75 interchange, therefore keeping noise to a minimum.  This does make for quite a long haul to the hot car.  No covered parking, and no card reader on the end doors/stairs. The place is shaped like a 'U' with the doors located in the center.  Stairs on the ends closest the parking lot.  Please put in card readers at these locations for your elderly guests!  We have stayed in rooms on every floor on all sides.  The one thing that is always present is the way the doors slam shut if not held in hand.  And who cares about their neighbor anymore?!  We bring a noise machine for 2-3 night stays.  This is something I've been told that can be remedied by adjusting the doors.  Mgmt, please resolve this issue ASAP.  Another bonus for Starwood preferred guests is a late check out of 4 pm, 30% saving at the restaurant/bar, in room wireless internet.  Sometimes the housekeeper continues to bang at the door though.  Communication re: the 4 pm check out to the housekeepers is lacking.  Booking through Expedia is hit and miss here. No one can tell you why you won't have a room if you book on line, but the hotel usually comps sufficiently.   All in all, I would highly recommend, and have to friends/family.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stay here 1-2 times monthly since this location opened last year.  Staff is not super friendly but the hotel is new, above average in decor. The a/c works great in every room except the junior suites.  Same number of vents as the regular rooms but much larger room....we had to  buy small fans to be comfortable.  The room was an upgrade from mgmt for a booking error.....won't fall for that again.  We love the large showers and comfy beds.  We've never ate at the restaurant but they offer packages and coupons to guests.  Rates are pretty negotiable if you call them on the phone, compared to rates on line. Nice pool and outside lounge near the restaurant/bar area that appeals to the hipsters.  The parking lot is an odd sitch, but you drop off in the back and park at the front, nearest the SRT/75 interchange, therefore keeping noise to a minimum.  This does make for quite a long haul to the hot car.  No covered parking, and no card reader on the end doors/stairs. The place is shaped like a 'U' with the doors located in the center.  Stairs on the ends closest the parking lot.  Please put in card readers at these locations for your elderly guests!  We have stayed in rooms on every floor on all sides.  The one thing that is always present is the way the doors slam shut if not...My husband and I stay here 1-2 times monthly since this location opened last year.  Staff is not super friendly but the hotel is new, above average in decor. The a/c works great in every room except the junior suites.  Same number of vents as the regular rooms but much larger room....we had to  buy small fans to be comfortable.  The room was an upgrade from mgmt for a booking error.....won't fall for that again.  We love the large showers and comfy beds.  We've never ate at the restaurant but they offer packages and coupons to guests.  Rates are pretty negotiable if you call them on the phone, compared to rates on line. Nice pool and outside lounge near the restaurant/bar area that appeals to the hipsters.  The parking lot is an odd sitch, but you drop off in the back and park at the front, nearest the SRT/75 interchange, therefore keeping noise to a minimum.  This does make for quite a long haul to the hot car.  No covered parking, and no card reader on the end doors/stairs. The place is shaped like a 'U' with the doors located in the center.  Stairs on the ends closest the parking lot.  Please put in card readers at these locations for your elderly guests!  We have stayed in rooms on every floor on all sides.  The one thing that is always present is the way the doors slam shut if not held in hand.  And who cares about their neighbor anymore?!  We bring a noise machine for 2-3 night stays.  This is something I've been told that can be remedied by adjusting the doors.  Mgmt, please resolve this issue ASAP.  Another bonus for Starwood preferred guests is a late check out of 4 pm, 30% saving at the restaurant/bar, in room wireless internet.  Sometimes the housekeeper continues to bang at the door though.  Communication re: the 4 pm check out to the housekeepers is lacking.  Booking through Expedia is hit and miss here. No one can tell you why you won't have a room if you book on line, but the hotel usually comps sufficiently.   All in all, I would highly recommend, and have to friends/family.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r403329862-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>403329862</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Great Getaway</t>
+  </si>
+  <si>
+    <t>Came here for a weekend getaway staycation with my husband. We live in the area and had driven by the hotel a number of times. It is a little out of the way, on its own, but I'm sure the land around the hotel will be developed very soon into a great location. 
+The walk to the hotel isn't as terrible as other reviews have made it sound. It'd be nice if the walk was covered, but it took maybe 30 seconds or so to walk from parking-lot to front door. 
+Upon check-in Michael was very helpful and friendly. We stayed in a junior suite with club lounge access. The room itself was very large, sleek and clean. The bathroom was big with separate vanities and a huge shower. Lots of amenities were provided in the bathroom. Along with the standard soap, shampoo, conditioner, and lotion there was mouthwash, a loofah, and shave cream. I was a little bummed they didn't have a bathtub, as there was plenty of space to have a shower and a bathtub or at the very least a combination tub/shower, but it wasn't a deal breaker. 
+We had room service the first night it was pretty good and arrived quickly. 
+The pool was a little small and ended up being in the shade by 5:00, but again, not a deal breaker.
+If you can book a club room, or get club room access, I highly...Came here for a weekend getaway staycation with my husband. We live in the area and had driven by the hotel a number of times. It is a little out of the way, on its own, but I'm sure the land around the hotel will be developed very soon into a great location. The walk to the hotel isn't as terrible as other reviews have made it sound. It'd be nice if the walk was covered, but it took maybe 30 seconds or so to walk from parking-lot to front door. Upon check-in Michael was very helpful and friendly. We stayed in a junior suite with club lounge access. The room itself was very large, sleek and clean. The bathroom was big with separate vanities and a huge shower. Lots of amenities were provided in the bathroom. Along with the standard soap, shampoo, conditioner, and lotion there was mouthwash, a loofah, and shave cream. I was a little bummed they didn't have a bathtub, as there was plenty of space to have a shower and a bathtub or at the very least a combination tub/shower, but it wasn't a deal breaker. We had room service the first night it was pretty good and arrived quickly. The pool was a little small and ended up being in the shade by 5:00, but again, not a deal breaker.If you can book a club room, or get club room access, I highly recommend it! Roshondra, the club lounge attendant, is fantastic! The hour d'vours were very good, and could almost double as a dinner. Overall it was a great hotel and staycation and we will definitely come back, given the chance.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded August 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2016</t>
+  </si>
+  <si>
+    <t>Came here for a weekend getaway staycation with my husband. We live in the area and had driven by the hotel a number of times. It is a little out of the way, on its own, but I'm sure the land around the hotel will be developed very soon into a great location. 
+The walk to the hotel isn't as terrible as other reviews have made it sound. It'd be nice if the walk was covered, but it took maybe 30 seconds or so to walk from parking-lot to front door. 
+Upon check-in Michael was very helpful and friendly. We stayed in a junior suite with club lounge access. The room itself was very large, sleek and clean. The bathroom was big with separate vanities and a huge shower. Lots of amenities were provided in the bathroom. Along with the standard soap, shampoo, conditioner, and lotion there was mouthwash, a loofah, and shave cream. I was a little bummed they didn't have a bathtub, as there was plenty of space to have a shower and a bathtub or at the very least a combination tub/shower, but it wasn't a deal breaker. 
+We had room service the first night it was pretty good and arrived quickly. 
+The pool was a little small and ended up being in the shade by 5:00, but again, not a deal breaker.
+If you can book a club room, or get club room access, I highly...Came here for a weekend getaway staycation with my husband. We live in the area and had driven by the hotel a number of times. It is a little out of the way, on its own, but I'm sure the land around the hotel will be developed very soon into a great location. The walk to the hotel isn't as terrible as other reviews have made it sound. It'd be nice if the walk was covered, but it took maybe 30 seconds or so to walk from parking-lot to front door. Upon check-in Michael was very helpful and friendly. We stayed in a junior suite with club lounge access. The room itself was very large, sleek and clean. The bathroom was big with separate vanities and a huge shower. Lots of amenities were provided in the bathroom. Along with the standard soap, shampoo, conditioner, and lotion there was mouthwash, a loofah, and shave cream. I was a little bummed they didn't have a bathtub, as there was plenty of space to have a shower and a bathtub or at the very least a combination tub/shower, but it wasn't a deal breaker. We had room service the first night it was pretty good and arrived quickly. The pool was a little small and ended up being in the shade by 5:00, but again, not a deal breaker.If you can book a club room, or get club room access, I highly recommend it! Roshondra, the club lounge attendant, is fantastic! The hour d'vours were very good, and could almost double as a dinner. Overall it was a great hotel and staycation and we will definitely come back, given the chance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r395867916-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>395867916</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Overall Review</t>
+  </si>
+  <si>
+    <t>Hotel is a little difficult to find as this is a brand new area. Very friendly staff. Smooth check in. Look for Wanda at the front desk, and she will do her best to make your stay pleasant. Bar and grill area is cosy and nice selection of snacks and appetizers.Our small issue with A/C was resolved promptly and followed up by the reception. We definitely recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2016</t>
+  </si>
+  <si>
+    <t>Hotel is a little difficult to find as this is a brand new area. Very friendly staff. Smooth check in. Look for Wanda at the front desk, and she will do her best to make your stay pleasant. Bar and grill area is cosy and nice selection of snacks and appetizers.Our small issue with A/C was resolved promptly and followed up by the reception. We definitely recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r394797665-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>394797665</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>nice upgrade</t>
+  </si>
+  <si>
+    <t>When we made the reservation, we were immediately upgraded to a non-smoking king bed suite with Club Lounge from our Sheraton membership, wow!  Really nice place to stay.  Highly recommend this hotel for a relaxing weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Flaviu F, Manager at Sheraton McKinney Hotel, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>When we made the reservation, we were immediately upgraded to a non-smoking king bed suite with Club Lounge from our Sheraton membership, wow!  Really nice place to stay.  Highly recommend this hotel for a relaxing weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r393249741-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>393249741</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>This hotel is a great place to stay.  I would have rated it higher, but they have not eating facilities, or restaurants within walking distance.  Clean, big rooms.  Quiet and easy to access local historic downtown McKinney and shopping malls.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is a great place to stay.  I would have rated it higher, but they have not eating facilities, or restaurants within walking distance.  Clean, big rooms.  Quiet and easy to access local historic downtown McKinney and shopping malls.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r391848361-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>391848361</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Always Great</t>
+  </si>
+  <si>
+    <t>Stayed there many times and always great.  The place to stay in the McKinney area.  Convenient to most everything and great rooms and staff!  Lobby and bar area great and restaurant good.  Good workout facility also.  Rooms have great beds and dual chairs with pull out ottomans.  Nice walk in showers. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed there many times and always great.  The place to stay in the McKinney area.  Convenient to most everything and great rooms and staff!  Lobby and bar area great and restaurant good.  Good workout facility also.  Rooms have great beds and dual chairs with pull out ottomans.  Nice walk in showers. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r391775889-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>391775889</t>
+  </si>
+  <si>
+    <t>Relaxation</t>
+  </si>
+  <si>
+    <t>Amazing...entire staff---front desk, bar, restaurant, housekeeping, pool guy---exceptional. I was there for almost a week and everything was perfect!!!!! I have never stayed at a hotel for more than 3 days in a while unless traveling internationally. I would have stayed here for a month if I could. This property and the entire staff are top notch! Thank you for making my stay the best! xoxoMoreShow less</t>
+  </si>
+  <si>
+    <t>Flaviu F, Manager at Sheraton McKinney Hotel, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Amazing...entire staff---front desk, bar, restaurant, housekeeping, pool guy---exceptional. I was there for almost a week and everything was perfect!!!!! I have never stayed at a hotel for more than 3 days in a while unless traveling internationally. I would have stayed here for a month if I could. This property and the entire staff are top notch! Thank you for making my stay the best! xoxoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r391396200-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>391396200</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel. No complaints.</t>
+  </si>
+  <si>
+    <t>I enjoyed staying here and would recommend it to anyone in the area. Our room was clean and comfortable. The check-in process was seamless, and the staff were friendly. This place is worth booking, and I recommend! MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded July 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2016</t>
+  </si>
+  <si>
+    <t>I enjoyed staying here and would recommend it to anyone in the area. Our room was clean and comfortable. The check-in process was seamless, and the staff were friendly. This place is worth booking, and I recommend! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r389893129-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>389893129</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Dallas area 4th of July weekend</t>
+  </si>
+  <si>
+    <t>Very nice and new hotel. This hotel is a little outside of Dallas but is very reasonable for a newer hotel. It is near a couple of highways but removed enough so you don't hear any traffic. Nice bar, small outdoor pool. Club level was $20 extra per nice but worth it.  Club level included buffet hot breakfast, snacks in evening and a glass of wine.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice and new hotel. This hotel is a little outside of Dallas but is very reasonable for a newer hotel. It is near a couple of highways but removed enough so you don't hear any traffic. Nice bar, small outdoor pool. Club level was $20 extra per nice but worth it.  Club level included buffet hot breakfast, snacks in evening and a glass of wine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r386208144-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>386208144</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New and Modern </t>
+  </si>
+  <si>
+    <t>Nice property , very clean. Bar and resturant available . All we didn't have time to use them. Rooms have Starbucks coffee. Large bath with rain shower head. Comfortable beds and large closet with safe.   Free bottle of water in room.  Temperature in room could easily be controlled.  Check in and out were super easy.  You can ought to have breakfast included in our price of room.   I think it is priced at $10.99 pp. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Nice property , very clean. Bar and resturant available . All we didn't have time to use them. Rooms have Starbucks coffee. Large bath with rain shower head. Comfortable beds and large closet with safe.   Free bottle of water in room.  Temperature in room could easily be controlled.  Check in and out were super easy.  You can ought to have breakfast included in our price of room.   I think it is priced at $10.99 pp. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r384497866-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>384497866</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>One of 2 new hotels in the area</t>
+  </si>
+  <si>
+    <t>The staff here is friendly, which I love; but, the hotel itself is hard to get to. You have to make all kinds of turns which isn't the hotels fault but just thought people should know these things. At least they have nice rooms and staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>The staff here is friendly, which I love; but, the hotel itself is hard to get to. You have to make all kinds of turns which isn't the hotels fault but just thought people should know these things. At least they have nice rooms and staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r382122089-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>382122089</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel at a reasonable price</t>
+  </si>
+  <si>
+    <t>The Sheraton is clean and seems to be relatively new.  The staff, from the desk to the dining room and maids, were friendly and helpful.  Rooms are spacious and very clean, with well designed and appointed bathrooms.  The only downside is the design of parking to the entrance.  It would be a relatively long walk from your car to the entrance, especially in the Texas heat or during a rain storm.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded June 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2016</t>
+  </si>
+  <si>
+    <t>The Sheraton is clean and seems to be relatively new.  The staff, from the desk to the dining room and maids, were friendly and helpful.  Rooms are spacious and very clean, with well designed and appointed bathrooms.  The only downside is the design of parking to the entrance.  It would be a relatively long walk from your car to the entrance, especially in the Texas heat or during a rain storm.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r382119574-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>382119574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worth your money with class </t>
+  </si>
+  <si>
+    <t>Location close to Hwy , very clean , modern , free parking ,free flavored water at lobby , very professional staff , front desk people are very courteous and takes care of guest with smile , rooms are clean , spacious, best mattress and pillows, had enjoyed my sleep , room setup was very practical, free wifi , lounge was good and good service and you get 24 hrs  excess for juices and water , get complimentary water bottles in room . I had great time staying there and had no complaints. We were happy and satisfied . MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Location close to Hwy , very clean , modern , free parking ,free flavored water at lobby , very professional staff , front desk people are very courteous and takes care of guest with smile , rooms are clean , spacious, best mattress and pillows, had enjoyed my sleep , room setup was very practical, free wifi , lounge was good and good service and you get 24 hrs  excess for juices and water , get complimentary water bottles in room . I had great time staying there and had no complaints. We were happy and satisfied . More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r379010698-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>379010698</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, Friendly, and Affordable </t>
+  </si>
+  <si>
+    <t>I was very impressed by the Sheraton McKinney Hotel. The lobby, elevators, and room were all very clean, and looked brand new. The bar downstairs had great drink prices, and the food offerings were above average for bar food. I would recommend this place to anyone who is not trying to break the bank, but looking for that 5 star appeal. 10/10MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>I was very impressed by the Sheraton McKinney Hotel. The lobby, elevators, and room were all very clean, and looked brand new. The bar downstairs had great drink prices, and the food offerings were above average for bar food. I would recommend this place to anyone who is not trying to break the bank, but looking for that 5 star appeal. 10/10More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r374799507-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>374799507</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>Beautiful New Hotel</t>
+  </si>
+  <si>
+    <t>This is a beautiful new hotel.  Lobby was huge &amp; beautifully decorated.  It was very, very clean.  Staff members were very friendly, helpful &amp; courteous.  Rooms are very big.  Showers (no bathtub - which is fine for us) were very spacious, clean &amp; accommodating.  Beds very comfortable &amp; linens very fresh.  Absolutely a delight to stay here.  Only one drawback:  Restaurant has limited menu items &amp; prices are quite high - hamburger, coke &amp; fries was $25.00.  There are no other restaurants or shopping areas near the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>This is a beautiful new hotel.  Lobby was huge &amp; beautifully decorated.  It was very, very clean.  Staff members were very friendly, helpful &amp; courteous.  Rooms are very big.  Showers (no bathtub - which is fine for us) were very spacious, clean &amp; accommodating.  Beds very comfortable &amp; linens very fresh.  Absolutely a delight to stay here.  Only one drawback:  Restaurant has limited menu items &amp; prices are quite high - hamburger, coke &amp; fries was $25.00.  There are no other restaurants or shopping areas near the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r373224878-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>373224878</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>Remote location but nice property</t>
+  </si>
+  <si>
+    <t>This is a nice looking property.  Seemed pretty new or at least in pretty good shape.  Was here for a business meeting in the area and you should be too if you are going to stay here.  Otherwise, this location will not likely be good for you, unless you are a loner.  This is out in the sticks nestled among some confusing endlessly looping roads, ramps, highways, and freeways.  Rooms were good and service was pleasant.  I'd skip the hotel restaurant and drive up or down the freeway to one of the many chain restaurants around the shopping malls.  Service was friendly and rooms were very niceMoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2016</t>
+  </si>
+  <si>
+    <t>This is a nice looking property.  Seemed pretty new or at least in pretty good shape.  Was here for a business meeting in the area and you should be too if you are going to stay here.  Otherwise, this location will not likely be good for you, unless you are a loner.  This is out in the sticks nestled among some confusing endlessly looping roads, ramps, highways, and freeways.  Rooms were good and service was pleasant.  I'd skip the hotel restaurant and drive up or down the freeway to one of the many chain restaurants around the shopping malls.  Service was friendly and rooms were very niceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r368941128-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>368941128</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t>Sheraton McKinney Hotel</t>
+  </si>
+  <si>
+    <t>This is more of a business review than an actual hotel stay. I attended an conference recently at the Sheraton, and found the experience quite nice. The set up was very professional and the food was very good. The meeting facilities are extremely nice and well designed.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded May 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2016</t>
+  </si>
+  <si>
+    <t>This is more of a business review than an actual hotel stay. I attended an conference recently at the Sheraton, and found the experience quite nice. The set up was very professional and the food was very good. The meeting facilities are extremely nice and well designed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r365452384-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>365452384</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Excellent Stay; Exceptional Staff</t>
+  </si>
+  <si>
+    <t>In early April we stayed at the Sheraton for our anniversary. This is the second time we have stayed at this hotel. We stayed on the club floor this time. We first stayed at this exceptional facility last year and it quickly became our go to hotel in the Metroplex. We loved it so much that our daughter and her friends stayed there on a girls trip a few weeks later. The hotel is clean, comfortable, stunning, convenient, and great for business and relaxation.The best part of this hotel is the staff and its customer service! Everyone from the first person you see at check in to those running the Club Room were fabulous, professional, and friendly. We look forward to our next stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded May 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2016</t>
+  </si>
+  <si>
+    <t>In early April we stayed at the Sheraton for our anniversary. This is the second time we have stayed at this hotel. We stayed on the club floor this time. We first stayed at this exceptional facility last year and it quickly became our go to hotel in the Metroplex. We loved it so much that our daughter and her friends stayed there on a girls trip a few weeks later. The hotel is clean, comfortable, stunning, convenient, and great for business and relaxation.The best part of this hotel is the staff and its customer service! Everyone from the first person you see at check in to those running the Club Room were fabulous, professional, and friendly. We look forward to our next stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r364739331-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>364739331</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic </t>
+  </si>
+  <si>
+    <t>Hotel is new, everything looks nice well kept, clean, nice design, nice rooms. But apart of the building itself, the personnel is just wonderful. Everyone, absolutely everyone is helpful, polite. I found absolutely everything very easy, and everything I asked was done with a smile. Special mention to Luis in the bar, Miles in the reception or Jessica also in the bar. Very valuable people, certainly. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Hotel is new, everything looks nice well kept, clean, nice design, nice rooms. But apart of the building itself, the personnel is just wonderful. Everyone, absolutely everyone is helpful, polite. I found absolutely everything very easy, and everything I asked was done with a smile. Special mention to Luis in the bar, Miles in the reception or Jessica also in the bar. Very valuable people, certainly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r364247354-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>364247354</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>One of the quietest hotels I have ever experienced</t>
+  </si>
+  <si>
+    <t>I was here to do business with Collin College that was literally next door and I am so glad this was the closest hotel. Beautiful place that was spotlessly clean. High-ceiling rooms with a safe, long mirror, ironing board,etc. - all the things I hope to find when I enter a hotel room.  I am a light sleeper and the hotel had plenty of guests but I never heard anyone once I was in my room for the night.  Love this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was here to do business with Collin College that was literally next door and I am so glad this was the closest hotel. Beautiful place that was spotlessly clean. High-ceiling rooms with a safe, long mirror, ironing board,etc. - all the things I hope to find when I enter a hotel room.  I am a light sleeper and the hotel had plenty of guests but I never heard anyone once I was in my room for the night.  Love this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r355597568-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>355597568</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>My wife and I stayed while celebrating our 10th wedding anniversary. The staff went above and beyond to help us celebrate. They put us in a suite removed from other guests, so we had a nice quiet, private area to focus on us. They even surprised us with wine and chocolate covered strawberries! We stayed in the junior suite, and it was very clean. The king size bed was comfortable. The only down side was there was no fridge. Thank you so much Quelea for a wonderful stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded March 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I stayed while celebrating our 10th wedding anniversary. The staff went above and beyond to help us celebrate. They put us in a suite removed from other guests, so we had a nice quiet, private area to focus on us. They even surprised us with wine and chocolate covered strawberries! We stayed in the junior suite, and it was very clean. The king size bed was comfortable. The only down side was there was no fridge. Thank you so much Quelea for a wonderful stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r354567411-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>354567411</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Elegant hotel and very nice staff.</t>
+  </si>
+  <si>
+    <t>We stayed here while playing a baseball tournament nearby. The hotel is gorgeous. It has a very Hollywood Glam style with crystals, mirrors and shiny brass décor. Every time we encountered a staff member they were extremely friendly and polite. The workout room is quite nice as well. The treadmills are brand new and top of the line. A full set of dumbbells are available as well as a nice stretching mat, exercise balls, bands, etc. I would stay here again and I would recommend it to everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded March 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here while playing a baseball tournament nearby. The hotel is gorgeous. It has a very Hollywood Glam style with crystals, mirrors and shiny brass décor. Every time we encountered a staff member they were extremely friendly and polite. The workout room is quite nice as well. The treadmills are brand new and top of the line. A full set of dumbbells are available as well as a nice stretching mat, exercise balls, bands, etc. I would stay here again and I would recommend it to everyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r350865506-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>350865506</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Holiday Weekend</t>
+  </si>
+  <si>
+    <t>Very nice hotel, clean and trendy. Would definitely stay again. Beds were comfortable and staff was friendly and accommodating. One note: The young lady that was running breakfast at the Club Level needed more help. She was attempting to help the guest but they were not very nice or understanding that she was working alone. I don't remember her name, but she did the best that she could. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel, clean and trendy. Would definitely stay again. Beds were comfortable and staff was friendly and accommodating. One note: The young lady that was running breakfast at the Club Level needed more help. She was attempting to help the guest but they were not very nice or understanding that she was working alone. I don't remember her name, but she did the best that she could. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r344144576-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>344144576</t>
+  </si>
+  <si>
+    <t>01/31/2016</t>
+  </si>
+  <si>
+    <t>Fabulous!!</t>
+  </si>
+  <si>
+    <t>Well worth the price!  My husband and I stayed there for 1 night.  Hotel was fabulous.  Very well kept!   Everything is close by... shopping, eating, I75.  And they are pwt friendly.  We will definitely stay there when we return to McKinney.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded February 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2016</t>
+  </si>
+  <si>
+    <t>Well worth the price!  My husband and I stayed there for 1 night.  Hotel was fabulous.  Very well kept!   Everything is close by... shopping, eating, I75.  And they are pwt friendly.  We will definitely stay there when we return to McKinney.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r332153492-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>332153492</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Wish I had more time to stay !!</t>
+  </si>
+  <si>
+    <t>Received in late for two rooms (right off the highway so easy to find) .. the front desk rep was more than gracious.  WE stayed on the club floor and that allowed us a nice continental breakfast the next morning.  Nothing better than the beds.. oooo... did not want to get up and Starbucks in the spacious comfortable room.. yesss.. wish I had more than a one night stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded December 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2015</t>
+  </si>
+  <si>
+    <t>Received in late for two rooms (right off the highway so easy to find) .. the front desk rep was more than gracious.  WE stayed on the club floor and that allowed us a nice continental breakfast the next morning.  Nothing better than the beds.. oooo... did not want to get up and Starbucks in the spacious comfortable room.. yesss.. wish I had more than a one night stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r330351732-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>330351732</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Swanky and clean for a good price!</t>
+  </si>
+  <si>
+    <t>Stayed here in a wedding block in November - Cute hotel with fun decor. Nice bar area! We were only here for one night but really enjoyed the spacious room and bathroom. Bed was super comfortable. Would definitely stay here again when in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded December 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here in a wedding block in November - Cute hotel with fun decor. Nice bar area! We were only here for one night but really enjoyed the spacious room and bathroom. Bed was super comfortable. Would definitely stay here again when in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r328008413-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>328008413</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>Clean and Modern, Small Changes Requested</t>
+  </si>
+  <si>
+    <t>Stayed at this new hotel for a business trip and the atmosphere was excellent! Clean, modern, open and airy. I travel to the north Dallas area weekly for work, and stay either here or the Sheraton by the Galleria. The Sheraton McKinney is nicer, just a further drive depending on where you're going.Pros- friendly staff with frequent easy communication via texting- very posh room, I even sent photos to my husband I was so impressed!- Club room is large with good food selection (thank you for the drink coupons!)Cons- no automatic/sliding front door. It is difficult to hold a door open and roll luggage through- should have fridges in guest rooms- missed my "Make a Green Choice" points and had to call staff twice about applying them (this is now settled)MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded November 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2015</t>
+  </si>
+  <si>
+    <t>Stayed at this new hotel for a business trip and the atmosphere was excellent! Clean, modern, open and airy. I travel to the north Dallas area weekly for work, and stay either here or the Sheraton by the Galleria. The Sheraton McKinney is nicer, just a further drive depending on where you're going.Pros- friendly staff with frequent easy communication via texting- very posh room, I even sent photos to my husband I was so impressed!- Club room is large with good food selection (thank you for the drink coupons!)Cons- no automatic/sliding front door. It is difficult to hold a door open and roll luggage through- should have fridges in guest rooms- missed my "Make a Green Choice" points and had to call staff twice about applying them (this is now settled)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r324947214-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>324947214</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Beautiful New Hotel!! Very Friendly!</t>
+  </si>
+  <si>
+    <t>Brand new hotel right off I-75. We made a last minute trip to McKinney, Tx and our stay at the Sheraton was outstanding. Ashley and Quelea at the front desk could not have been more friendly and professional. Even when we unexpectedly had to extend our stay they took care of everything. Loved the club level and the workout room! Lobby design is "first class".MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2015</t>
+  </si>
+  <si>
+    <t>Brand new hotel right off I-75. We made a last minute trip to McKinney, Tx and our stay at the Sheraton was outstanding. Ashley and Quelea at the front desk could not have been more friendly and professional. Even when we unexpectedly had to extend our stay they took care of everything. Loved the club level and the workout room! Lobby design is "first class".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r323850498-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>323850498</t>
+  </si>
+  <si>
+    <t>11/02/2015</t>
+  </si>
+  <si>
+    <t>Wonderful one night stay!</t>
+  </si>
+  <si>
+    <t>We stayed the night after celebrating our wedding at a nearby venue. I was very impressed by how the hotel looked as soon as we walked in. The desk clerks were very friendly and helpful. Our room was a wonderful treat after a long day. The bed was very comfortable including the comforter. And the room itself was very clean and hospitable. The only flaw that j could find was the parking was all outside and it was a bit of a walk to the door from the lot. There is not a drop off by the entrance.Other than that, it was definitely a great choice for us and we would recommend it to anyone for a long or short stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>We stayed the night after celebrating our wedding at a nearby venue. I was very impressed by how the hotel looked as soon as we walked in. The desk clerks were very friendly and helpful. Our room was a wonderful treat after a long day. The bed was very comfortable including the comforter. And the room itself was very clean and hospitable. The only flaw that j could find was the parking was all outside and it was a bit of a walk to the door from the lot. There is not a drop off by the entrance.Other than that, it was definitely a great choice for us and we would recommend it to anyone for a long or short stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r316309809-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>316309809</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Wonderful hotel</t>
+  </si>
+  <si>
+    <t>Very, very happy with this hotel. Checked in a little bit early of 3 o'clock with no problem at all. The room was spotless clean. The staff is fantastic, all of them are very very friendly. I was here by myself and I felt very safe going through the parking lot and walking into the hotel and to my room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded October 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2015</t>
+  </si>
+  <si>
+    <t>Very, very happy with this hotel. Checked in a little bit early of 3 o'clock with no problem at all. The room was spotless clean. The staff is fantastic, all of them are very very friendly. I was here by myself and I felt very safe going through the parking lot and walking into the hotel and to my room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r314818740-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>314818740</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>New hotel, Nice locarion</t>
+  </si>
+  <si>
+    <t>New hotel with nice amenities including a nice pool &amp; fitness room. Rooms were spacious and clean. Courteous &amp; accommodating staff. Convenient location right off of a major highway, with easy access to restaurants, stores, etc (assuming you have transportation).MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded September 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2015</t>
+  </si>
+  <si>
+    <t>New hotel with nice amenities including a nice pool &amp; fitness room. Rooms were spacious and clean. Courteous &amp; accommodating staff. Convenient location right off of a major highway, with easy access to restaurants, stores, etc (assuming you have transportation).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r312992774-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>312992774</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>NEw &amp; Excellent</t>
+  </si>
+  <si>
+    <t>Booked this last hotel minute, and not a "Starwood" traveller. But I was very impressed and will stay here again when in Mckinney! Easy access from DFW &amp; close to good restaurants. Close to McKinney Golf Course as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Booked this last hotel minute, and not a "Starwood" traveller. But I was very impressed and will stay here again when in Mckinney! Easy access from DFW &amp; close to good restaurants. Close to McKinney Golf Course as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r305548183-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>305548183</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Super front desk staff</t>
+  </si>
+  <si>
+    <t>Very nice hotel. I stayed one night with my 5 year old granddaughter. The front desk staff was super friendly and very, very helpful. I agree with the reviewer that said the bathroom was large, modern, and had a very good shower.  I hate wimpy low pressure showers but this one was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded September 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel. I stayed one night with my 5 year old granddaughter. The front desk staff was super friendly and very, very helpful. I agree with the reviewer that said the bathroom was large, modern, and had a very good shower.  I hate wimpy low pressure showers but this one was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r301117821-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>301117821</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel, could be better!</t>
+  </si>
+  <si>
+    <t>Stayed here 3 nights when I took a trip to Texas for my birthday. The rooms were nice and clean. The bathroom was clean and big. I loved the shower it was wonderful the shower head was big and the stall was spacious. The pool area was good, it was the first time I got in any hotel pool so that was an experience. The things I didn't like was it was a bit of a walk from the parking lot to the front door, and the room didn't have a mini fridge or microwave in them. We couldn't heat up or save leftovers from restaurants. Other than that a nice hotel in a nice quiet area. We will definitely be back!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded August 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here 3 nights when I took a trip to Texas for my birthday. The rooms were nice and clean. The bathroom was clean and big. I loved the shower it was wonderful the shower head was big and the stall was spacious. The pool area was good, it was the first time I got in any hotel pool so that was an experience. The things I didn't like was it was a bit of a walk from the parking lot to the front door, and the room didn't have a mini fridge or microwave in them. We couldn't heat up or save leftovers from restaurants. Other than that a nice hotel in a nice quiet area. We will definitely be back!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r300452438-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>300452438</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beautiful but poor service makes it a sour experience </t>
+  </si>
+  <si>
+    <t>So we were one of many families staying for a wedding. We stayed only 2 nights while others stayed more. 
+Appearance of the hotel is very nice, new and modern looking. Right off the highway, 5 mins from the outlet mall. Rooms were decent, comfy beds. The front desk staff is amazing. Nice, friendly and charming. Kid friendly as well. 
+Now to the service. We were on the club floor where breakfast is served and it was horrible. The attendant was just standing there, the baked goods were all gone except for some small muffins that no one wanted. Half a bagel and 1 English muffin remained on the serving plate. Egg, potatoes and bacon were being served along with fruit. Asked for ketchup but he said they didn't have any. Had to ask the attendant repeatedly for plates, the eating utensils, followed by sugar. He just simply stood there and only moved if you asked him to. 
+Later when we went there to get some coffee, there were no cups. Looking in drawers we found small ketchup bottles lined up even though a few hrs earlier the guy told me they didn't have any. 
+The same thing happened that evening for snack and following breakfast. 
+Our large party also had terrible service at restaurant. Slow service, food was horrible. My portabella sandwich was half burnt. Atleast the lemonade was good. 
+The night of the wedding in the banquet hall,...So we were one of many families staying for a wedding. We stayed only 2 nights while others stayed more. Appearance of the hotel is very nice, new and modern looking. Right off the highway, 5 mins from the outlet mall. Rooms were decent, comfy beds. The front desk staff is amazing. Nice, friendly and charming. Kid friendly as well. Now to the service. We were on the club floor where breakfast is served and it was horrible. The attendant was just standing there, the baked goods were all gone except for some small muffins that no one wanted. Half a bagel and 1 English muffin remained on the serving plate. Egg, potatoes and bacon were being served along with fruit. Asked for ketchup but he said they didn't have any. Had to ask the attendant repeatedly for plates, the eating utensils, followed by sugar. He just simply stood there and only moved if you asked him to. Later when we went there to get some coffee, there were no cups. Looking in drawers we found small ketchup bottles lined up even though a few hrs earlier the guy told me they didn't have any. The same thing happened that evening for snack and following breakfast. Our large party also had terrible service at restaurant. Slow service, food was horrible. My portabella sandwich was half burnt. Atleast the lemonade was good. The night of the wedding in the banquet hall, the drink table was not put out until the middle of dinner. Glasses ran out very quickly, and guests had to take the bottles and cans to the tables. Odd. Never attended a wedding where that happened. So like I said a beautiful but service needs improvement. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded August 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2015</t>
+  </si>
+  <si>
+    <t>So we were one of many families staying for a wedding. We stayed only 2 nights while others stayed more. 
+Appearance of the hotel is very nice, new and modern looking. Right off the highway, 5 mins from the outlet mall. Rooms were decent, comfy beds. The front desk staff is amazing. Nice, friendly and charming. Kid friendly as well. 
+Now to the service. We were on the club floor where breakfast is served and it was horrible. The attendant was just standing there, the baked goods were all gone except for some small muffins that no one wanted. Half a bagel and 1 English muffin remained on the serving plate. Egg, potatoes and bacon were being served along with fruit. Asked for ketchup but he said they didn't have any. Had to ask the attendant repeatedly for plates, the eating utensils, followed by sugar. He just simply stood there and only moved if you asked him to. 
+Later when we went there to get some coffee, there were no cups. Looking in drawers we found small ketchup bottles lined up even though a few hrs earlier the guy told me they didn't have any. 
+The same thing happened that evening for snack and following breakfast. 
+Our large party also had terrible service at restaurant. Slow service, food was horrible. My portabella sandwich was half burnt. Atleast the lemonade was good. 
+The night of the wedding in the banquet hall,...So we were one of many families staying for a wedding. We stayed only 2 nights while others stayed more. Appearance of the hotel is very nice, new and modern looking. Right off the highway, 5 mins from the outlet mall. Rooms were decent, comfy beds. The front desk staff is amazing. Nice, friendly and charming. Kid friendly as well. Now to the service. We were on the club floor where breakfast is served and it was horrible. The attendant was just standing there, the baked goods were all gone except for some small muffins that no one wanted. Half a bagel and 1 English muffin remained on the serving plate. Egg, potatoes and bacon were being served along with fruit. Asked for ketchup but he said they didn't have any. Had to ask the attendant repeatedly for plates, the eating utensils, followed by sugar. He just simply stood there and only moved if you asked him to. Later when we went there to get some coffee, there were no cups. Looking in drawers we found small ketchup bottles lined up even though a few hrs earlier the guy told me they didn't have any. The same thing happened that evening for snack and following breakfast. Our large party also had terrible service at restaurant. Slow service, food was horrible. My portabella sandwich was half burnt. Atleast the lemonade was good. The night of the wedding in the banquet hall, the drink table was not put out until the middle of dinner. Glasses ran out very quickly, and guests had to take the bottles and cans to the tables. Odd. Never attended a wedding where that happened. So like I said a beautiful but service needs improvement. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r299011423-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>299011423</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Very nice as we would expect, but...</t>
+  </si>
+  <si>
+    <t>Typical first class hotel that one would expect from Sheraton. Likely the best in McKinney, with a good concierge lounge and breakfast, and comfortable room. But, I would suggest avoiding the top floor until they get the sound fixed.Let me explain. My room was on the top floor. There were air conditioning towers on the roof. I think the sound of the air conditioners was transmitted very simply to the room right below. Sounded like a propeller engine, as one might encounter at an airport, running all the time. Very noisy.If you stay here, and it is a nice hotel, avoid the top floor, or maybe right under the air conditioner towers.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Typical first class hotel that one would expect from Sheraton. Likely the best in McKinney, with a good concierge lounge and breakfast, and comfortable room. But, I would suggest avoiding the top floor until they get the sound fixed.Let me explain. My room was on the top floor. There were air conditioning towers on the roof. I think the sound of the air conditioners was transmitted very simply to the room right below. Sounded like a propeller engine, as one might encounter at an airport, running all the time. Very noisy.If you stay here, and it is a nice hotel, avoid the top floor, or maybe right under the air conditioner towers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r292392461-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>292392461</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Stopped here for a night on our way through to Oklahoma.  The bed was so comfortable slept like a rock.  Room was clean!  No complaints at all, best room I've had in a while, would definitely stay again!!!  The breakfast was a little pricey $42 for two people but it was good and the customer service was great. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Stopped here for a night on our way through to Oklahoma.  The bed was so comfortable slept like a rock.  Room was clean!  No complaints at all, best room I've had in a while, would definitely stay again!!!  The breakfast was a little pricey $42 for two people but it was good and the customer service was great. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r292182486-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>292182486</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Double beds</t>
+  </si>
+  <si>
+    <t>Why, oh why, would a beautiful brand spanking new hotel put in 2 double beds instead of 2 queens??? The small beds pretty much overshadowed everything else that was great with this hotel! We were able to get a great deal on hotwire since it is new and has a low occupancy. The lobby was modern and spectacular. The outdoor bar seating was inviting. MoreShow less</t>
+  </si>
+  <si>
+    <t>Why, oh why, would a beautiful brand spanking new hotel put in 2 double beds instead of 2 queens??? The small beds pretty much overshadowed everything else that was great with this hotel! We were able to get a great deal on hotwire since it is new and has a low occupancy. The lobby was modern and spectacular. The outdoor bar seating was inviting. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r288633254-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>288633254</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Absolute  best service!</t>
+  </si>
+  <si>
+    <t>I am visiting my family in Texas, having  moved to Switzerland last year. We stay in 4 to 5 star hotels quite  often. I've never  had better service anywhere! I stayed in a King room on the Club floor, where snacks and  soft drinks  are available  all day, and breakfast  in the morning. The bed is  THE MOST  COMFORTABLE  I've  slept in. Sheraton bedding is my favorite anyway but this is plush and brand new.What I like most about  my stay is the service, and the way I've  been made to feel like my comfort level matters.  I left my car keys  at the front desk. Receptionist phoned to tell me, and added "I'll  have them sent up to you". I was exhausted  from traveling  and driving all over trying to visit everyone. What a nice surprise  when  a well dressed gentleman  brought the keys up, with the coffee I requested. I in felt like a special guest. I'll   stay here from now on when I come visit  my family in Collin County.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>I am visiting my family in Texas, having  moved to Switzerland last year. We stay in 4 to 5 star hotels quite  often. I've never  had better service anywhere! I stayed in a King room on the Club floor, where snacks and  soft drinks  are available  all day, and breakfast  in the morning. The bed is  THE MOST  COMFORTABLE  I've  slept in. Sheraton bedding is my favorite anyway but this is plush and brand new.What I like most about  my stay is the service, and the way I've  been made to feel like my comfort level matters.  I left my car keys  at the front desk. Receptionist phoned to tell me, and added "I'll  have them sent up to you". I was exhausted  from traveling  and driving all over trying to visit everyone. What a nice surprise  when  a well dressed gentleman  brought the keys up, with the coffee I requested. I in felt like a special guest. I'll   stay here from now on when I come visit  my family in Collin County.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r286204033-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>286204033</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel</t>
+  </si>
+  <si>
+    <t>We stopped in here for one night while shopping in the area. Couldn't have been more pleasantly surprised!  It is a brand new hotel and is just beautiful!  Very modern, clean, quiet. We didn't utilize any of the amenities, but they all looked quite nice. The snack area had chilled bottles of wine, healthy snack choices, and beverages. The room was very nice and spacious. There wasn't a mini frig, but there was a coffee/tea maker. We will definitely stay here again if we're in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded July 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2015</t>
+  </si>
+  <si>
+    <t>We stopped in here for one night while shopping in the area. Couldn't have been more pleasantly surprised!  It is a brand new hotel and is just beautiful!  Very modern, clean, quiet. We didn't utilize any of the amenities, but they all looked quite nice. The snack area had chilled bottles of wine, healthy snack choices, and beverages. The room was very nice and spacious. There wasn't a mini frig, but there was a coffee/tea maker. We will definitely stay here again if we're in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r285152940-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>285152940</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>The absolute BEST!</t>
+  </si>
+  <si>
+    <t>I travel quite frequently and have to say this is the best hotel I have ever stayed in. I  don't say that lightly. The room was fabulous, new, modern, luxurious. I stayed in a junior suite and it had 2 beautiful, separated counters and sinks. The shower was a really nice glass surround with amazing water head. The bed was the most comfortable I have ever experienced in a hotel.I thought to myself, "they have thought of everything." The room had a coffee maker with Starbucks coffee and 2 free water bottles. The hotel staff was superb, helpful, accommodating. Everything about this stay was PERFECT. I work for a major soft drink and snack company and am so very pleased to have this new hotel close to our offices. Great job, Sheraton! You should be so proud.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>I travel quite frequently and have to say this is the best hotel I have ever stayed in. I  don't say that lightly. The room was fabulous, new, modern, luxurious. I stayed in a junior suite and it had 2 beautiful, separated counters and sinks. The shower was a really nice glass surround with amazing water head. The bed was the most comfortable I have ever experienced in a hotel.I thought to myself, "they have thought of everything." The room had a coffee maker with Starbucks coffee and 2 free water bottles. The hotel staff was superb, helpful, accommodating. Everything about this stay was PERFECT. I work for a major soft drink and snack company and am so very pleased to have this new hotel close to our offices. Great job, Sheraton! You should be so proud.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r278733307-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>278733307</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Beautifully Decorated</t>
+  </si>
+  <si>
+    <t>This hotel had only been opened three months when we stayed there. It was beautifully decorated. But beauty is in the eye of the beholder and it may not appeal to everyone. The colors are done in grays with emerald green doors to each room. The furniture in the rooms is very cool. There are two upholstered chairs with pull-out stools and an armoire for a closet. The beds are the usual comfortable Heavenly beds with thick comforters. 
+The bar was warm and inviting with a large selection of whiskies including Texas whiskies. Who knew Texas had whiskies? I didn't eat at the restaurant or the club room. 
+The front desk personnel were very professional and helpful. They moved our room closer to our elderly mother's accessible room without us asking. 
+There was a small outdoor pool next to a large courtyard with what looked like comfortable outdoor seating. 
+One caveat: the entrance is somewhat confusing. There is a covered entrance on the north side (where you enter the property)  that didn't look like an entrance to me but it is. You could park your car there and go inside and check in but there isn't any other parking there. All the parking is on the south side and there is a little bit of a hike with your luggage because you have to walk through the pool and courtyard area to get inside the hotel. Not a big deal...This hotel had only been opened three months when we stayed there. It was beautifully decorated. But beauty is in the eye of the beholder and it may not appeal to everyone. The colors are done in grays with emerald green doors to each room. The furniture in the rooms is very cool. There are two upholstered chairs with pull-out stools and an armoire for a closet. The beds are the usual comfortable Heavenly beds with thick comforters. The bar was warm and inviting with a large selection of whiskies including Texas whiskies. Who knew Texas had whiskies? I didn't eat at the restaurant or the club room. The front desk personnel were very professional and helpful. They moved our room closer to our elderly mother's accessible room without us asking. There was a small outdoor pool next to a large courtyard with what looked like comfortable outdoor seating. One caveat: the entrance is somewhat confusing. There is a covered entrance on the north side (where you enter the property)  that didn't look like an entrance to me but it is. You could park your car there and go inside and check in but there isn't any other parking there. All the parking is on the south side and there is a little bit of a hike with your luggage because you have to walk through the pool and courtyard area to get inside the hotel. Not a big deal but there is not valet parking or help with luggage so be prepared if you have a lot of luggage or kids. This will be my go-to hotel in the north Dallas area because it is on Highway 75 and the Sam Rayburn Highway/Toll Road.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2015</t>
+  </si>
+  <si>
+    <t>This hotel had only been opened three months when we stayed there. It was beautifully decorated. But beauty is in the eye of the beholder and it may not appeal to everyone. The colors are done in grays with emerald green doors to each room. The furniture in the rooms is very cool. There are two upholstered chairs with pull-out stools and an armoire for a closet. The beds are the usual comfortable Heavenly beds with thick comforters. 
+The bar was warm and inviting with a large selection of whiskies including Texas whiskies. Who knew Texas had whiskies? I didn't eat at the restaurant or the club room. 
+The front desk personnel were very professional and helpful. They moved our room closer to our elderly mother's accessible room without us asking. 
+There was a small outdoor pool next to a large courtyard with what looked like comfortable outdoor seating. 
+One caveat: the entrance is somewhat confusing. There is a covered entrance on the north side (where you enter the property)  that didn't look like an entrance to me but it is. You could park your car there and go inside and check in but there isn't any other parking there. All the parking is on the south side and there is a little bit of a hike with your luggage because you have to walk through the pool and courtyard area to get inside the hotel. Not a big deal...This hotel had only been opened three months when we stayed there. It was beautifully decorated. But beauty is in the eye of the beholder and it may not appeal to everyone. The colors are done in grays with emerald green doors to each room. The furniture in the rooms is very cool. There are two upholstered chairs with pull-out stools and an armoire for a closet. The beds are the usual comfortable Heavenly beds with thick comforters. The bar was warm and inviting with a large selection of whiskies including Texas whiskies. Who knew Texas had whiskies? I didn't eat at the restaurant or the club room. The front desk personnel were very professional and helpful. They moved our room closer to our elderly mother's accessible room without us asking. There was a small outdoor pool next to a large courtyard with what looked like comfortable outdoor seating. One caveat: the entrance is somewhat confusing. There is a covered entrance on the north side (where you enter the property)  that didn't look like an entrance to me but it is. You could park your car there and go inside and check in but there isn't any other parking there. All the parking is on the south side and there is a little bit of a hike with your luggage because you have to walk through the pool and courtyard area to get inside the hotel. Not a big deal but there is not valet parking or help with luggage so be prepared if you have a lot of luggage or kids. This will be my go-to hotel in the north Dallas area because it is on Highway 75 and the Sam Rayburn Highway/Toll Road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r278621615-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>278621615</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Great new hotel</t>
+  </si>
+  <si>
+    <t>I have stayed here for a week at a time on two different occasions, and I really like it.  The rooms are nice, big and for the most part very comfortable.  The only thing I can say is the rooms are so well insulated and the A/C work so well it doesn't need to run very long or very often to keep the humidity in the room down.  But that being said, the beds are very comfy, nice big open showers, I love the fact that they have standard TV's with standard hook ups so I can watch my own movies.  The fitness center is top notch, its nice to be able to get a near full workout in at a hotel.  It has stationary bikes, ellipticals, treadmills, cable machine and a full set of dumbbells.  The staff is very friendly and do a great job to make sure your stay is nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I have stayed here for a week at a time on two different occasions, and I really like it.  The rooms are nice, big and for the most part very comfortable.  The only thing I can say is the rooms are so well insulated and the A/C work so well it doesn't need to run very long or very often to keep the humidity in the room down.  But that being said, the beds are very comfy, nice big open showers, I love the fact that they have standard TV's with standard hook ups so I can watch my own movies.  The fitness center is top notch, its nice to be able to get a near full workout in at a hotel.  It has stationary bikes, ellipticals, treadmills, cable machine and a full set of dumbbells.  The staff is very friendly and do a great job to make sure your stay is nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r276329514-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>276329514</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>Very Nice Stay</t>
+  </si>
+  <si>
+    <t>The hotel is new and beautiful.  The beds are so comfortable.  The staff are all so nice and friendly.  The only drawback that I saw was it is hard to find the entrance to the hotel.  I think they need to have more signs other than the sign on the building.  It was also hard to tell which entrance was the main entrance.  Once inside, a wonderful stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is new and beautiful.  The beds are so comfortable.  The staff are all so nice and friendly.  The only drawback that I saw was it is hard to find the entrance to the hotel.  I think they need to have more signs other than the sign on the building.  It was also hard to tell which entrance was the main entrance.  Once inside, a wonderful stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r273400809-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>273400809</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Beautiful, new hotel</t>
+  </si>
+  <si>
+    <t>The staff are eager to help in this beautiful new Sheraton.  What seems like should be the front entrance, with the parking lot, is really the rear entrance. It has beautiful, tall glass doors which were too heavy to be handicapped accessible.  However, if you come in the north side, which is really the front entrance, you can drive up and it is more handicap accessible. The doors were also too heavy to open in the handicap junior suite where we stayed. (I have back and muscle problems.)  However, once inside the room, you are impressed with its beauty and the HUGE bathroom that well accommodates a wheelchair.  There were no towel bars on the outside of the shower though.  It was very inconvenient to come out wet and you couldn't reach for a dry towel.  The swimming pool was nice.  The parking lot is well lit, but does not have security cameras.  Overall, a pretty place to stay, but if you are handicapped, bring a buddy to help you.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded May 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2015</t>
+  </si>
+  <si>
+    <t>The staff are eager to help in this beautiful new Sheraton.  What seems like should be the front entrance, with the parking lot, is really the rear entrance. It has beautiful, tall glass doors which were too heavy to be handicapped accessible.  However, if you come in the north side, which is really the front entrance, you can drive up and it is more handicap accessible. The doors were also too heavy to open in the handicap junior suite where we stayed. (I have back and muscle problems.)  However, once inside the room, you are impressed with its beauty and the HUGE bathroom that well accommodates a wheelchair.  There were no towel bars on the outside of the shower though.  It was very inconvenient to come out wet and you couldn't reach for a dry towel.  The swimming pool was nice.  The parking lot is well lit, but does not have security cameras.  Overall, a pretty place to stay, but if you are handicapped, bring a buddy to help you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r269898539-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>269898539</t>
+  </si>
+  <si>
+    <t>05/04/2015</t>
+  </si>
+  <si>
+    <t>Great new property</t>
+  </si>
+  <si>
+    <t>Found out about it by accident. I should have used my points, but the deal I had was good too. Everything there was new. Very friendly and knowledgeable staff and I will defiantly return to stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded May 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2015</t>
+  </si>
+  <si>
+    <t>Found out about it by accident. I should have used my points, but the deal I had was good too. Everything there was new. Very friendly and knowledgeable staff and I will defiantly return to stay there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r269710230-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>269710230</t>
+  </si>
+  <si>
+    <t>05/03/2015</t>
+  </si>
+  <si>
+    <t>Relaxing</t>
+  </si>
+  <si>
+    <t>Hotel is brand new! Couldn't ask for a better, more friendly staff. It was raining out and they gave me an umbrella to use! I thought that was so nice, I would have been soaked if they wouldn't have done that for me. Beds are extremely comfortable, don't wake up with a sore back. Very clean!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Hotel is brand new! Couldn't ask for a better, more friendly staff. It was raining out and they gave me an umbrella to use! I thought that was so nice, I would have been soaked if they wouldn't have done that for me. Beds are extremely comfortable, don't wake up with a sore back. Very clean!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r267310110-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>267310110</t>
+  </si>
+  <si>
+    <t>04/22/2015</t>
+  </si>
+  <si>
+    <t>Really nice new hotel</t>
+  </si>
+  <si>
+    <t>This hotel is beautiful. The rooms are well appointed, very stylish, very high ceilings, large walk-in shower in a good sized bathroom, adjustable shower head, comfortable bed and pillows, and two chairs with pull out ottomans. There is a restaurant on site however we did not take advantage of it, a bar that served good drinks and outdoor seating which is always nice in good weather, pool and fitness center.Shower needed to be sealed properly. It had fantastic glass wall &amp; door, but water ran out onto the bathroom floor. I'm assuming it was a miss in the final walk through, there was even blue painters tape still on the bathroom wall for a couple of touch ups. We found an ice machine near our room but no ice bucket was provide. Lastly, we aren't fans of the duvet comforters most hotels are going with. With nothing but the comfortor and a sheet underneath, you are too hot with it and too cold without.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded April 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is beautiful. The rooms are well appointed, very stylish, very high ceilings, large walk-in shower in a good sized bathroom, adjustable shower head, comfortable bed and pillows, and two chairs with pull out ottomans. There is a restaurant on site however we did not take advantage of it, a bar that served good drinks and outdoor seating which is always nice in good weather, pool and fitness center.Shower needed to be sealed properly. It had fantastic glass wall &amp; door, but water ran out onto the bathroom floor. I'm assuming it was a miss in the final walk through, there was even blue painters tape still on the bathroom wall for a couple of touch ups. We found an ice machine near our room but no ice bucket was provide. Lastly, we aren't fans of the duvet comforters most hotels are going with. With nothing but the comfortor and a sheet underneath, you are too hot with it and too cold without.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r266169441-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>266169441</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>Fresh, new and clean!</t>
+  </si>
+  <si>
+    <t>Best Sheraton I have stayed at in a long time!  Was there for business, and while a little off the beaten path, well worth the drive. This brand new build is spotless and beautiful. Rooms are large and well appointed.  The on site restaurant and to go items are delicious.  Pool is very small, and fitness center is average sized.  Great outdoor seating and friendly staff.  Modern lobby with lots of places to plug in and work.  Close to the outlets - and close to gas stations and chain food options.  Close to the medical center as well.  Comp. self parking and 24 hour security.  Will stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded April 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2015</t>
+  </si>
+  <si>
+    <t>Best Sheraton I have stayed at in a long time!  Was there for business, and while a little off the beaten path, well worth the drive. This brand new build is spotless and beautiful. Rooms are large and well appointed.  The on site restaurant and to go items are delicious.  Pool is very small, and fitness center is average sized.  Great outdoor seating and friendly staff.  Modern lobby with lots of places to plug in and work.  Close to the outlets - and close to gas stations and chain food options.  Close to the medical center as well.  Comp. self parking and 24 hour security.  Will stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r264282274-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>264282274</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>My Passover Holiday 2015</t>
+  </si>
+  <si>
+    <t>I was given a weekend, to enjoy my own personal Passover Holiday at the brand new Sheraton in McKinney. It was truly an experience, that made me feel like royalty. The staff and management were incredible, and took excellent care of me. I have already sent emails, and text for letting people know to make their own getaway to this hotel, even if it is only a few miles away from their homes. My room was so impeccable, that it was really hard not to extend my stay. Thank you Steven, Latoya, Ashley and all the others that made me feel welcome!SherrieMoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded April 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2015</t>
+  </si>
+  <si>
+    <t>I was given a weekend, to enjoy my own personal Passover Holiday at the brand new Sheraton in McKinney. It was truly an experience, that made me feel like royalty. The staff and management were incredible, and took excellent care of me. I have already sent emails, and text for letting people know to make their own getaway to this hotel, even if it is only a few miles away from their homes. My room was so impeccable, that it was really hard not to extend my stay. Thank you Steven, Latoya, Ashley and all the others that made me feel welcome!SherrieMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r262359223-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>262359223</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>Nice place, brand new</t>
+  </si>
+  <si>
+    <t>Thanks to hotwire again got a chance to stay here. Great place, brand new - in fact you can smell the new paint smell. I love such surprise deals.Google map had a tough time finding the hotel, thankfully you can see it from the road so you can override the app. This is luxury living, the rooms were awesome, the staff were friendly and the bar had reasonably priced drinks and food. There are the outlet malls close by &amp; other bars/restaurants to hang out. You can't go wrong with this hotel. The only problem is that if  you are looking for a fridge and micro they don't provide those. I guess they probably were horrified at that somebody would even be asking for such things - it's a Sheraton, come on!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Thanks to hotwire again got a chance to stay here. Great place, brand new - in fact you can smell the new paint smell. I love such surprise deals.Google map had a tough time finding the hotel, thankfully you can see it from the road so you can override the app. This is luxury living, the rooms were awesome, the staff were friendly and the bar had reasonably priced drinks and food. There are the outlet malls close by &amp; other bars/restaurants to hang out. You can't go wrong with this hotel. The only problem is that if  you are looking for a fridge and micro they don't provide those. I guess they probably were horrified at that somebody would even be asking for such things - it's a Sheraton, come on!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r260875173-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>260875173</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Great property and much-needed in McKinney! Super-fast free WI-FI!</t>
+  </si>
+  <si>
+    <t>I've stayed at the Sheraton McKinney twice this month and have been pleased both times.  They've done a great job with the fit, finish, and furniture here.  Like the previous poster, I am a McKinney resident.  I'm excited to finally have a hotel and conference center of this caliber in our city.  
+I stayed in a King room on the second floor during my first stay which was the first week the hotel was open. The room was spacious and was outfitted well.  I always appreciate new hotels like this one who include USB plugs along with traditional Edison plugs near the desk and bed.  The bed was very comfortable and I slept well on it both times.  There are two comfortable sitting chairs with ottomans.  The desk is spacious and has plenty of power and a lamp to light the space.  I had no issues with the TV, which had a great variety of channels.  There is adequate drawer space for those on longer stays.  One very minor annoyance was the bright light that flashes on the smoke detector.  It's quite bright when the room is dark and disrupted my sleep a little.   The wi-fi here is free and is lightning fast! I literally had 85.13 mbps down and 86.22 up! Unheard of for hotel internet. 
+The bathroom is spacious and well-appointed with the necessary essentials.  I like the big walk-in shower, too.  I had an issue with the...I've stayed at the Sheraton McKinney twice this month and have been pleased both times.  They've done a great job with the fit, finish, and furniture here.  Like the previous poster, I am a McKinney resident.  I'm excited to finally have a hotel and conference center of this caliber in our city.  I stayed in a King room on the second floor during my first stay which was the first week the hotel was open. The room was spacious and was outfitted well.  I always appreciate new hotels like this one who include USB plugs along with traditional Edison plugs near the desk and bed.  The bed was very comfortable and I slept well on it both times.  There are two comfortable sitting chairs with ottomans.  The desk is spacious and has plenty of power and a lamp to light the space.  I had no issues with the TV, which had a great variety of channels.  There is adequate drawer space for those on longer stays.  One very minor annoyance was the bright light that flashes on the smoke detector.  It's quite bright when the room is dark and disrupted my sleep a little.   The wi-fi here is free and is lightning fast! I literally had 85.13 mbps down and 86.22 up! Unheard of for hotel internet. The bathroom is spacious and well-appointed with the necessary essentials.  I like the big walk-in shower, too.  I had an issue with the commode not flushing on my first stay and the maintenance staff was quick to respond and get it fixed.  The staff member at the front desk I mentioned it to even came up to the room to make sure it was taken care of.  That's quality service.  The rooms are very quiet, even the first room I had that faced the highway.  My second stay was on the Club level.  I'm usually a Hilton guy, so I don't know what is standard for Sheratons, but differences that I could see on this level were more items in the bathroom, both consumables like cotton balls &amp; q-tips, and an electronic scale.  The bed may have a heavier duvet than the regular rooms, too.  Visiting the Club lounge was enjoyable in the evening with chicken wings, meatballs, and other bite-size food.  In addition, there was a cheese plate and other items.  Beer &amp; wine were available for a charge, along with complimentary water &amp; sodas.  I didn't catch her name, but the woman attending the lounge in the evening was pleasant and great to talk to.  The morning breakfast had one hot item,  an cheesy egg dish.  There were multiple breads/pastries, cereal, and juices as well.  I was a little surprised the juices weren't keep in a chilled container.  Same with the yogurt parfait- I came at the end of the breakfast cycle and it was getting a bit warm.  This Sheraton is in a great location with easy access to both I75 and the Sam Rayburn Tollway (121).  It is next door to the Collin College Higher Education Center, and just a 1-2 minute drive to the McKinney Hospital.  There are a multitude of dining and shopping options in the area as well.  Overall, the McKinney team and Sheraton have done a great job with this hotel, and I look forward to many more stays here!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded March 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2015</t>
+  </si>
+  <si>
+    <t>I've stayed at the Sheraton McKinney twice this month and have been pleased both times.  They've done a great job with the fit, finish, and furniture here.  Like the previous poster, I am a McKinney resident.  I'm excited to finally have a hotel and conference center of this caliber in our city.  
+I stayed in a King room on the second floor during my first stay which was the first week the hotel was open. The room was spacious and was outfitted well.  I always appreciate new hotels like this one who include USB plugs along with traditional Edison plugs near the desk and bed.  The bed was very comfortable and I slept well on it both times.  There are two comfortable sitting chairs with ottomans.  The desk is spacious and has plenty of power and a lamp to light the space.  I had no issues with the TV, which had a great variety of channels.  There is adequate drawer space for those on longer stays.  One very minor annoyance was the bright light that flashes on the smoke detector.  It's quite bright when the room is dark and disrupted my sleep a little.   The wi-fi here is free and is lightning fast! I literally had 85.13 mbps down and 86.22 up! Unheard of for hotel internet. 
+The bathroom is spacious and well-appointed with the necessary essentials.  I like the big walk-in shower, too.  I had an issue with the...I've stayed at the Sheraton McKinney twice this month and have been pleased both times.  They've done a great job with the fit, finish, and furniture here.  Like the previous poster, I am a McKinney resident.  I'm excited to finally have a hotel and conference center of this caliber in our city.  I stayed in a King room on the second floor during my first stay which was the first week the hotel was open. The room was spacious and was outfitted well.  I always appreciate new hotels like this one who include USB plugs along with traditional Edison plugs near the desk and bed.  The bed was very comfortable and I slept well on it both times.  There are two comfortable sitting chairs with ottomans.  The desk is spacious and has plenty of power and a lamp to light the space.  I had no issues with the TV, which had a great variety of channels.  There is adequate drawer space for those on longer stays.  One very minor annoyance was the bright light that flashes on the smoke detector.  It's quite bright when the room is dark and disrupted my sleep a little.   The wi-fi here is free and is lightning fast! I literally had 85.13 mbps down and 86.22 up! Unheard of for hotel internet. The bathroom is spacious and well-appointed with the necessary essentials.  I like the big walk-in shower, too.  I had an issue with the commode not flushing on my first stay and the maintenance staff was quick to respond and get it fixed.  The staff member at the front desk I mentioned it to even came up to the room to make sure it was taken care of.  That's quality service.  The rooms are very quiet, even the first room I had that faced the highway.  My second stay was on the Club level.  I'm usually a Hilton guy, so I don't know what is standard for Sheratons, but differences that I could see on this level were more items in the bathroom, both consumables like cotton balls &amp; q-tips, and an electronic scale.  The bed may have a heavier duvet than the regular rooms, too.  Visiting the Club lounge was enjoyable in the evening with chicken wings, meatballs, and other bite-size food.  In addition, there was a cheese plate and other items.  Beer &amp; wine were available for a charge, along with complimentary water &amp; sodas.  I didn't catch her name, but the woman attending the lounge in the evening was pleasant and great to talk to.  The morning breakfast had one hot item,  an cheesy egg dish.  There were multiple breads/pastries, cereal, and juices as well.  I was a little surprised the juices weren't keep in a chilled container.  Same with the yogurt parfait- I came at the end of the breakfast cycle and it was getting a bit warm.  This Sheraton is in a great location with easy access to both I75 and the Sam Rayburn Tollway (121).  It is next door to the Collin College Higher Education Center, and just a 1-2 minute drive to the McKinney Hospital.  There are a multitude of dining and shopping options in the area as well.  Overall, the McKinney team and Sheraton have done a great job with this hotel, and I look forward to many more stays here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r259761853-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
+  </si>
+  <si>
+    <t>259761853</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Hotel is a good addition to the community</t>
+  </si>
+  <si>
+    <t>As a McKinney resident, I think the Sheraton and the conference center will be great additions to the community. I was very impressed with the friendly, helpful staff when I stayed at the hotel recently. My room on the fourth floor had a nice view of the pool and the large patio next to it.   There is plenty of comfortable seating all around the patio, and just outside the conference center.The Club Lounge offers complimentary breakfast, and I think the front desk said that snacks are available there at night. The location provides quick access to the Rayburn Tollway and to US-75 in both directions.  For those going to Medical Center of McKinney and physician offices, the distance is short but definitely not walkable.   There’s too much traffic for that, and very few sidewalks.Overall, it was a great experience staying at the Sheraton.  One suggestion:  The directional signs posted on roads leading to the hotel could perhaps be improved.   As it is, the entrances off the highway frontage road and Medical Center Drive may be easy for some drivers to miss. As an aside, I hope the developers of the land surrounding the hotel will give thought to making some of the open green space accessible to hotel guests.    A recreational park or walking path or water feature—I believe access to things like these would be much appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ryan M, General Manager at Sheraton McKinney Hotel, responded to this reviewResponded March 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2015</t>
+  </si>
+  <si>
+    <t>As a McKinney resident, I think the Sheraton and the conference center will be great additions to the community. I was very impressed with the friendly, helpful staff when I stayed at the hotel recently. My room on the fourth floor had a nice view of the pool and the large patio next to it.   There is plenty of comfortable seating all around the patio, and just outside the conference center.The Club Lounge offers complimentary breakfast, and I think the front desk said that snacks are available there at night. The location provides quick access to the Rayburn Tollway and to US-75 in both directions.  For those going to Medical Center of McKinney and physician offices, the distance is short but definitely not walkable.   There’s too much traffic for that, and very few sidewalks.Overall, it was a great experience staying at the Sheraton.  One suggestion:  The directional signs posted on roads leading to the hotel could perhaps be improved.   As it is, the entrances off the highway frontage road and Medical Center Drive may be easy for some drivers to miss. As an aside, I hope the developers of the land surrounding the hotel will give thought to making some of the open green space accessible to hotel guests.    A recreational park or walking path or water feature—I believe access to things like these would be much appreciated.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +3120,6454 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>149</v>
+      </c>
+      <c r="X15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" t="s">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>162</v>
+      </c>
+      <c r="X16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>171</v>
+      </c>
+      <c r="X17" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s">
+        <v>178</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X18" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
+        <v>186</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>195</v>
+      </c>
+      <c r="O20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>196</v>
+      </c>
+      <c r="X20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>195</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>196</v>
+      </c>
+      <c r="X21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" t="s">
+        <v>209</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>210</v>
+      </c>
+      <c r="X22" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>214</v>
+      </c>
+      <c r="J23" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" t="s">
+        <v>216</v>
+      </c>
+      <c r="L23" t="s">
+        <v>217</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>218</v>
+      </c>
+      <c r="X23" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>227</v>
+      </c>
+      <c r="X24" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>235</v>
+      </c>
+      <c r="O25" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>236</v>
+      </c>
+      <c r="X25" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>244</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>245</v>
+      </c>
+      <c r="X26" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" t="s">
+        <v>250</v>
+      </c>
+      <c r="K27" t="s">
+        <v>251</v>
+      </c>
+      <c r="L27" t="s">
+        <v>252</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>244</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>253</v>
+      </c>
+      <c r="X27" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>257</v>
+      </c>
+      <c r="J28" t="s">
+        <v>258</v>
+      </c>
+      <c r="K28" t="s">
+        <v>259</v>
+      </c>
+      <c r="L28" t="s">
+        <v>260</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>244</v>
+      </c>
+      <c r="O28" t="s">
+        <v>261</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>262</v>
+      </c>
+      <c r="X28" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K29" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" t="s">
+        <v>269</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>270</v>
+      </c>
+      <c r="O29" t="s">
+        <v>110</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>271</v>
+      </c>
+      <c r="X29" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>274</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>275</v>
+      </c>
+      <c r="J30" t="s">
+        <v>276</v>
+      </c>
+      <c r="K30" t="s">
+        <v>277</v>
+      </c>
+      <c r="L30" t="s">
+        <v>278</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>270</v>
+      </c>
+      <c r="O30" t="s">
+        <v>261</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>279</v>
+      </c>
+      <c r="X30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>282</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>283</v>
+      </c>
+      <c r="J31" t="s">
+        <v>284</v>
+      </c>
+      <c r="K31" t="s">
+        <v>285</v>
+      </c>
+      <c r="L31" t="s">
+        <v>286</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>270</v>
+      </c>
+      <c r="O31" t="s">
+        <v>261</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>287</v>
+      </c>
+      <c r="X31" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>290</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>291</v>
+      </c>
+      <c r="J32" t="s">
+        <v>292</v>
+      </c>
+      <c r="K32" t="s">
+        <v>293</v>
+      </c>
+      <c r="L32" t="s">
+        <v>294</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>270</v>
+      </c>
+      <c r="O32" t="s">
+        <v>110</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>295</v>
+      </c>
+      <c r="X32" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>299</v>
+      </c>
+      <c r="J33" t="s">
+        <v>292</v>
+      </c>
+      <c r="K33" t="s">
+        <v>300</v>
+      </c>
+      <c r="L33" t="s">
+        <v>301</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>270</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>295</v>
+      </c>
+      <c r="X33" t="s">
+        <v>296</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>303</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>304</v>
+      </c>
+      <c r="J34" t="s">
+        <v>305</v>
+      </c>
+      <c r="K34" t="s">
+        <v>306</v>
+      </c>
+      <c r="L34" t="s">
+        <v>307</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>270</v>
+      </c>
+      <c r="O34" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>308</v>
+      </c>
+      <c r="X34" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>311</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>312</v>
+      </c>
+      <c r="J35" t="s">
+        <v>313</v>
+      </c>
+      <c r="K35" t="s">
+        <v>314</v>
+      </c>
+      <c r="L35" t="s">
+        <v>315</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>235</v>
+      </c>
+      <c r="O35" t="s">
+        <v>261</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>316</v>
+      </c>
+      <c r="X35" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>319</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>320</v>
+      </c>
+      <c r="J36" t="s">
+        <v>321</v>
+      </c>
+      <c r="K36" t="s">
+        <v>322</v>
+      </c>
+      <c r="L36" t="s">
+        <v>323</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>235</v>
+      </c>
+      <c r="O36" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>316</v>
+      </c>
+      <c r="X36" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>326</v>
+      </c>
+      <c r="J37" t="s">
+        <v>327</v>
+      </c>
+      <c r="K37" t="s">
+        <v>328</v>
+      </c>
+      <c r="L37" t="s">
+        <v>329</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>235</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>330</v>
+      </c>
+      <c r="X37" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>333</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>334</v>
+      </c>
+      <c r="J38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K38" t="s">
+        <v>336</v>
+      </c>
+      <c r="L38" t="s">
+        <v>337</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>338</v>
+      </c>
+      <c r="O38" t="s">
+        <v>63</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>339</v>
+      </c>
+      <c r="X38" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>342</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>343</v>
+      </c>
+      <c r="J39" t="s">
+        <v>335</v>
+      </c>
+      <c r="K39" t="s">
+        <v>344</v>
+      </c>
+      <c r="L39" t="s">
+        <v>345</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>338</v>
+      </c>
+      <c r="O39" t="s">
+        <v>110</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>339</v>
+      </c>
+      <c r="X39" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>347</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>348</v>
+      </c>
+      <c r="J40" t="s">
+        <v>349</v>
+      </c>
+      <c r="K40" t="s">
+        <v>350</v>
+      </c>
+      <c r="L40" t="s">
+        <v>351</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>352</v>
+      </c>
+      <c r="O40" t="s">
+        <v>110</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>353</v>
+      </c>
+      <c r="X40" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>356</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>357</v>
+      </c>
+      <c r="J41" t="s">
+        <v>358</v>
+      </c>
+      <c r="K41" t="s">
+        <v>359</v>
+      </c>
+      <c r="L41" t="s">
+        <v>360</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>361</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>362</v>
+      </c>
+      <c r="X41" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>365</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>366</v>
+      </c>
+      <c r="J42" t="s">
+        <v>367</v>
+      </c>
+      <c r="K42" t="s">
+        <v>368</v>
+      </c>
+      <c r="L42" t="s">
+        <v>369</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>361</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>362</v>
+      </c>
+      <c r="X42" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>371</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>372</v>
+      </c>
+      <c r="J43" t="s">
+        <v>373</v>
+      </c>
+      <c r="K43" t="s">
+        <v>374</v>
+      </c>
+      <c r="L43" t="s">
+        <v>375</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>376</v>
+      </c>
+      <c r="O43" t="s">
+        <v>261</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>377</v>
+      </c>
+      <c r="X43" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>380</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>381</v>
+      </c>
+      <c r="J44" t="s">
+        <v>382</v>
+      </c>
+      <c r="K44" t="s">
+        <v>383</v>
+      </c>
+      <c r="L44" t="s">
+        <v>384</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>376</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>385</v>
+      </c>
+      <c r="X44" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>388</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>389</v>
+      </c>
+      <c r="J45" t="s">
+        <v>382</v>
+      </c>
+      <c r="K45" t="s">
+        <v>390</v>
+      </c>
+      <c r="L45" t="s">
+        <v>391</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>376</v>
+      </c>
+      <c r="O45" t="s">
+        <v>261</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>385</v>
+      </c>
+      <c r="X45" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>393</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>394</v>
+      </c>
+      <c r="J46" t="s">
+        <v>395</v>
+      </c>
+      <c r="K46" t="s">
+        <v>396</v>
+      </c>
+      <c r="L46" t="s">
+        <v>397</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>376</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>398</v>
+      </c>
+      <c r="X46" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>401</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>402</v>
+      </c>
+      <c r="J47" t="s">
+        <v>403</v>
+      </c>
+      <c r="K47" t="s">
+        <v>404</v>
+      </c>
+      <c r="L47" t="s">
+        <v>405</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>376</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>406</v>
+      </c>
+      <c r="X47" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>409</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>410</v>
+      </c>
+      <c r="J48" t="s">
+        <v>411</v>
+      </c>
+      <c r="K48" t="s">
+        <v>412</v>
+      </c>
+      <c r="L48" t="s">
+        <v>413</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>376</v>
+      </c>
+      <c r="O48" t="s">
+        <v>261</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>414</v>
+      </c>
+      <c r="X48" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>417</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>418</v>
+      </c>
+      <c r="J49" t="s">
+        <v>419</v>
+      </c>
+      <c r="K49" t="s">
+        <v>420</v>
+      </c>
+      <c r="L49" t="s">
+        <v>421</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>376</v>
+      </c>
+      <c r="O49" t="s">
+        <v>73</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>422</v>
+      </c>
+      <c r="X49" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>425</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>426</v>
+      </c>
+      <c r="J50" t="s">
+        <v>427</v>
+      </c>
+      <c r="K50" t="s">
+        <v>428</v>
+      </c>
+      <c r="L50" t="s">
+        <v>429</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>430</v>
+      </c>
+      <c r="O50" t="s">
+        <v>110</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>431</v>
+      </c>
+      <c r="X50" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>434</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>435</v>
+      </c>
+      <c r="J51" t="s">
+        <v>436</v>
+      </c>
+      <c r="K51" t="s">
+        <v>437</v>
+      </c>
+      <c r="L51" t="s">
+        <v>438</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>430</v>
+      </c>
+      <c r="O51" t="s">
+        <v>110</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>439</v>
+      </c>
+      <c r="X51" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>442</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>443</v>
+      </c>
+      <c r="J52" t="s">
+        <v>444</v>
+      </c>
+      <c r="K52" t="s">
+        <v>445</v>
+      </c>
+      <c r="L52" t="s">
+        <v>446</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>447</v>
+      </c>
+      <c r="O52" t="s">
+        <v>110</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>448</v>
+      </c>
+      <c r="X52" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>451</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>452</v>
+      </c>
+      <c r="J53" t="s">
+        <v>453</v>
+      </c>
+      <c r="K53" t="s">
+        <v>454</v>
+      </c>
+      <c r="L53" t="s">
+        <v>455</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>447</v>
+      </c>
+      <c r="O53" t="s">
+        <v>110</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>456</v>
+      </c>
+      <c r="X53" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>459</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>460</v>
+      </c>
+      <c r="J54" t="s">
+        <v>461</v>
+      </c>
+      <c r="K54" t="s">
+        <v>462</v>
+      </c>
+      <c r="L54" t="s">
+        <v>463</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>447</v>
+      </c>
+      <c r="O54" t="s">
+        <v>110</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>464</v>
+      </c>
+      <c r="X54" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>467</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>468</v>
+      </c>
+      <c r="J55" t="s">
+        <v>469</v>
+      </c>
+      <c r="K55" t="s">
+        <v>470</v>
+      </c>
+      <c r="L55" t="s">
+        <v>471</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>447</v>
+      </c>
+      <c r="O55" t="s">
+        <v>73</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>464</v>
+      </c>
+      <c r="X55" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>473</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>474</v>
+      </c>
+      <c r="J56" t="s">
+        <v>475</v>
+      </c>
+      <c r="K56" t="s">
+        <v>476</v>
+      </c>
+      <c r="L56" t="s">
+        <v>477</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>447</v>
+      </c>
+      <c r="O56" t="s">
+        <v>110</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>464</v>
+      </c>
+      <c r="X56" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>479</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>480</v>
+      </c>
+      <c r="J57" t="s">
+        <v>475</v>
+      </c>
+      <c r="K57" t="s">
+        <v>481</v>
+      </c>
+      <c r="L57" t="s">
+        <v>482</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>447</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>483</v>
+      </c>
+      <c r="X57" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>486</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>487</v>
+      </c>
+      <c r="J58" t="s">
+        <v>488</v>
+      </c>
+      <c r="K58" t="s">
+        <v>489</v>
+      </c>
+      <c r="L58" t="s">
+        <v>490</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>491</v>
+      </c>
+      <c r="X58" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>494</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>495</v>
+      </c>
+      <c r="J59" t="s">
+        <v>496</v>
+      </c>
+      <c r="K59" t="s">
+        <v>497</v>
+      </c>
+      <c r="L59" t="s">
+        <v>498</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>447</v>
+      </c>
+      <c r="O59" t="s">
+        <v>110</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>491</v>
+      </c>
+      <c r="X59" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>500</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>501</v>
+      </c>
+      <c r="J60" t="s">
+        <v>502</v>
+      </c>
+      <c r="K60" t="s">
+        <v>503</v>
+      </c>
+      <c r="L60" t="s">
+        <v>504</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>505</v>
+      </c>
+      <c r="O60" t="s">
+        <v>110</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>464</v>
+      </c>
+      <c r="X60" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>507</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J61" t="s">
+        <v>509</v>
+      </c>
+      <c r="K61" t="s">
+        <v>510</v>
+      </c>
+      <c r="L61" t="s">
+        <v>511</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>512</v>
+      </c>
+      <c r="O61" t="s">
+        <v>63</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>491</v>
+      </c>
+      <c r="X61" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>514</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>515</v>
+      </c>
+      <c r="J62" t="s">
+        <v>516</v>
+      </c>
+      <c r="K62" t="s">
+        <v>517</v>
+      </c>
+      <c r="L62" t="s">
+        <v>518</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>505</v>
+      </c>
+      <c r="O62" t="s">
+        <v>73</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>519</v>
+      </c>
+      <c r="X62" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>522</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>523</v>
+      </c>
+      <c r="J63" t="s">
+        <v>516</v>
+      </c>
+      <c r="K63" t="s">
+        <v>524</v>
+      </c>
+      <c r="L63" t="s">
+        <v>525</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>526</v>
+      </c>
+      <c r="O63" t="s">
+        <v>73</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>519</v>
+      </c>
+      <c r="X63" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>528</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>529</v>
+      </c>
+      <c r="J64" t="s">
+        <v>530</v>
+      </c>
+      <c r="K64" t="s">
+        <v>531</v>
+      </c>
+      <c r="L64" t="s">
+        <v>532</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>526</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>533</v>
+      </c>
+      <c r="X64" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>536</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>537</v>
+      </c>
+      <c r="J65" t="s">
+        <v>538</v>
+      </c>
+      <c r="K65" t="s">
+        <v>539</v>
+      </c>
+      <c r="L65" t="s">
+        <v>540</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>526</v>
+      </c>
+      <c r="O65" t="s">
+        <v>110</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>541</v>
+      </c>
+      <c r="X65" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>544</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>545</v>
+      </c>
+      <c r="J66" t="s">
+        <v>546</v>
+      </c>
+      <c r="K66" t="s">
+        <v>547</v>
+      </c>
+      <c r="L66" t="s">
+        <v>548</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>549</v>
+      </c>
+      <c r="X66" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>552</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>553</v>
+      </c>
+      <c r="J67" t="s">
+        <v>554</v>
+      </c>
+      <c r="K67" t="s">
+        <v>555</v>
+      </c>
+      <c r="L67" t="s">
+        <v>556</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>557</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>558</v>
+      </c>
+      <c r="X67" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>561</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>562</v>
+      </c>
+      <c r="J68" t="s">
+        <v>563</v>
+      </c>
+      <c r="K68" t="s">
+        <v>564</v>
+      </c>
+      <c r="L68" t="s">
+        <v>565</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>557</v>
+      </c>
+      <c r="O68" t="s">
+        <v>110</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>566</v>
+      </c>
+      <c r="X68" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>569</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>570</v>
+      </c>
+      <c r="J69" t="s">
+        <v>571</v>
+      </c>
+      <c r="K69" t="s">
+        <v>572</v>
+      </c>
+      <c r="L69" t="s">
+        <v>573</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>557</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>574</v>
+      </c>
+      <c r="X69" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>577</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>578</v>
+      </c>
+      <c r="J70" t="s">
+        <v>579</v>
+      </c>
+      <c r="K70" t="s">
+        <v>580</v>
+      </c>
+      <c r="L70" t="s">
+        <v>581</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>557</v>
+      </c>
+      <c r="O70" t="s">
+        <v>63</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>574</v>
+      </c>
+      <c r="X70" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>583</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>584</v>
+      </c>
+      <c r="J71" t="s">
+        <v>585</v>
+      </c>
+      <c r="K71" t="s">
+        <v>586</v>
+      </c>
+      <c r="L71" t="s">
+        <v>587</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>512</v>
+      </c>
+      <c r="O71" t="s">
+        <v>110</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>588</v>
+      </c>
+      <c r="X71" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>591</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>592</v>
+      </c>
+      <c r="J72" t="s">
+        <v>593</v>
+      </c>
+      <c r="K72" t="s">
+        <v>594</v>
+      </c>
+      <c r="L72" t="s">
+        <v>595</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>596</v>
+      </c>
+      <c r="O72" t="s">
+        <v>73</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>597</v>
+      </c>
+      <c r="X72" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>600</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>601</v>
+      </c>
+      <c r="J73" t="s">
+        <v>602</v>
+      </c>
+      <c r="K73" t="s">
+        <v>603</v>
+      </c>
+      <c r="L73" t="s">
+        <v>604</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>605</v>
+      </c>
+      <c r="X73" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>608</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>609</v>
+      </c>
+      <c r="J74" t="s">
+        <v>610</v>
+      </c>
+      <c r="K74" t="s">
+        <v>611</v>
+      </c>
+      <c r="L74" t="s">
+        <v>612</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>613</v>
+      </c>
+      <c r="O74" t="s">
+        <v>110</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>614</v>
+      </c>
+      <c r="X74" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>617</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>618</v>
+      </c>
+      <c r="J75" t="s">
+        <v>619</v>
+      </c>
+      <c r="K75" t="s">
+        <v>620</v>
+      </c>
+      <c r="L75" t="s">
+        <v>621</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>622</v>
+      </c>
+      <c r="O75" t="s">
+        <v>73</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>623</v>
+      </c>
+      <c r="X75" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>626</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>627</v>
+      </c>
+      <c r="J76" t="s">
+        <v>628</v>
+      </c>
+      <c r="K76" t="s">
+        <v>629</v>
+      </c>
+      <c r="L76" t="s">
+        <v>630</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>622</v>
+      </c>
+      <c r="O76" t="s">
+        <v>261</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>631</v>
+      </c>
+      <c r="X76" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>634</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>635</v>
+      </c>
+      <c r="J77" t="s">
+        <v>636</v>
+      </c>
+      <c r="K77" t="s">
+        <v>637</v>
+      </c>
+      <c r="L77" t="s">
+        <v>638</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>639</v>
+      </c>
+      <c r="O77" t="s">
+        <v>63</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>640</v>
+      </c>
+      <c r="X77" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>643</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>644</v>
+      </c>
+      <c r="J78" t="s">
+        <v>645</v>
+      </c>
+      <c r="K78" t="s">
+        <v>646</v>
+      </c>
+      <c r="L78" t="s">
+        <v>647</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>622</v>
+      </c>
+      <c r="O78" t="s">
+        <v>73</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>648</v>
+      </c>
+      <c r="X78" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>651</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>652</v>
+      </c>
+      <c r="J79" t="s">
+        <v>653</v>
+      </c>
+      <c r="K79" t="s">
+        <v>654</v>
+      </c>
+      <c r="L79" t="s">
+        <v>655</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>639</v>
+      </c>
+      <c r="O79" t="s">
+        <v>110</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>656</v>
+      </c>
+      <c r="X79" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>659</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>660</v>
+      </c>
+      <c r="J80" t="s">
+        <v>661</v>
+      </c>
+      <c r="K80" t="s">
+        <v>662</v>
+      </c>
+      <c r="L80" t="s">
+        <v>663</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>639</v>
+      </c>
+      <c r="O80" t="s">
+        <v>73</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>664</v>
+      </c>
+      <c r="X80" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>667</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>668</v>
+      </c>
+      <c r="J81" t="s">
+        <v>669</v>
+      </c>
+      <c r="K81" t="s">
+        <v>670</v>
+      </c>
+      <c r="L81" t="s">
+        <v>671</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>672</v>
+      </c>
+      <c r="O81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>673</v>
+      </c>
+      <c r="X81" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>676</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>677</v>
+      </c>
+      <c r="J82" t="s">
+        <v>678</v>
+      </c>
+      <c r="K82" t="s">
+        <v>679</v>
+      </c>
+      <c r="L82" t="s">
+        <v>680</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>672</v>
+      </c>
+      <c r="O82" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>681</v>
+      </c>
+      <c r="X82" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>684</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>685</v>
+      </c>
+      <c r="J83" t="s">
+        <v>686</v>
+      </c>
+      <c r="K83" t="s">
+        <v>687</v>
+      </c>
+      <c r="L83" t="s">
+        <v>688</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>689</v>
+      </c>
+      <c r="O83" t="s">
+        <v>73</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>690</v>
+      </c>
+      <c r="X83" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>693</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>694</v>
+      </c>
+      <c r="J84" t="s">
+        <v>695</v>
+      </c>
+      <c r="K84" t="s">
+        <v>696</v>
+      </c>
+      <c r="L84" t="s">
+        <v>697</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>689</v>
+      </c>
+      <c r="O84" t="s">
+        <v>110</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>698</v>
+      </c>
+      <c r="X84" t="s">
+        <v>699</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>701</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>702</v>
+      </c>
+      <c r="J85" t="s">
+        <v>703</v>
+      </c>
+      <c r="K85" t="s">
+        <v>704</v>
+      </c>
+      <c r="L85" t="s">
+        <v>705</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>689</v>
+      </c>
+      <c r="O85" t="s">
+        <v>73</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>706</v>
+      </c>
+      <c r="X85" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>709</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>710</v>
+      </c>
+      <c r="J86" t="s">
+        <v>711</v>
+      </c>
+      <c r="K86" t="s">
+        <v>712</v>
+      </c>
+      <c r="L86" t="s">
+        <v>713</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>714</v>
+      </c>
+      <c r="O86" t="s">
+        <v>63</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>715</v>
+      </c>
+      <c r="X86" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>718</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>719</v>
+      </c>
+      <c r="J87" t="s">
+        <v>720</v>
+      </c>
+      <c r="K87" t="s">
+        <v>721</v>
+      </c>
+      <c r="L87" t="s">
+        <v>722</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>714</v>
+      </c>
+      <c r="O87" t="s">
+        <v>110</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>723</v>
+      </c>
+      <c r="X87" t="s">
+        <v>724</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>726</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>727</v>
+      </c>
+      <c r="J88" t="s">
+        <v>728</v>
+      </c>
+      <c r="K88" t="s">
+        <v>729</v>
+      </c>
+      <c r="L88" t="s">
+        <v>730</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>714</v>
+      </c>
+      <c r="O88" t="s">
+        <v>73</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>723</v>
+      </c>
+      <c r="X88" t="s">
+        <v>724</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>732</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>733</v>
+      </c>
+      <c r="J89" t="s">
+        <v>734</v>
+      </c>
+      <c r="K89" t="s">
+        <v>735</v>
+      </c>
+      <c r="L89" t="s">
+        <v>736</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>714</v>
+      </c>
+      <c r="O89" t="s">
+        <v>73</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>737</v>
+      </c>
+      <c r="X89" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>740</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>741</v>
+      </c>
+      <c r="J90" t="s">
+        <v>742</v>
+      </c>
+      <c r="K90" t="s">
+        <v>743</v>
+      </c>
+      <c r="L90" t="s">
+        <v>744</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>714</v>
+      </c>
+      <c r="O90" t="s">
+        <v>110</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>745</v>
+      </c>
+      <c r="X90" t="s">
+        <v>746</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>748</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>749</v>
+      </c>
+      <c r="J91" t="s">
+        <v>750</v>
+      </c>
+      <c r="K91" t="s">
+        <v>751</v>
+      </c>
+      <c r="L91" t="s">
+        <v>752</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>714</v>
+      </c>
+      <c r="O91" t="s">
+        <v>63</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>753</v>
+      </c>
+      <c r="X91" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>756</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>757</v>
+      </c>
+      <c r="J92" t="s">
+        <v>758</v>
+      </c>
+      <c r="K92" t="s">
+        <v>759</v>
+      </c>
+      <c r="L92" t="s">
+        <v>760</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>761</v>
+      </c>
+      <c r="O92" t="s">
+        <v>73</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>762</v>
+      </c>
+      <c r="X92" t="s">
+        <v>763</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>765</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>766</v>
+      </c>
+      <c r="J93" t="s">
+        <v>767</v>
+      </c>
+      <c r="K93" t="s">
+        <v>768</v>
+      </c>
+      <c r="L93" t="s">
+        <v>769</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>770</v>
+      </c>
+      <c r="O93" t="s">
+        <v>63</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>762</v>
+      </c>
+      <c r="X93" t="s">
+        <v>763</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>772</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>773</v>
+      </c>
+      <c r="J94" t="s">
+        <v>774</v>
+      </c>
+      <c r="K94" t="s">
+        <v>775</v>
+      </c>
+      <c r="L94" t="s">
+        <v>776</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>770</v>
+      </c>
+      <c r="O94" t="s">
+        <v>73</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>762</v>
+      </c>
+      <c r="X94" t="s">
+        <v>763</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>778</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>779</v>
+      </c>
+      <c r="J95" t="s">
+        <v>780</v>
+      </c>
+      <c r="K95" t="s">
+        <v>781</v>
+      </c>
+      <c r="L95" t="s">
+        <v>782</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>770</v>
+      </c>
+      <c r="O95" t="s">
+        <v>110</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>783</v>
+      </c>
+      <c r="X95" t="s">
+        <v>784</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>786</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>787</v>
+      </c>
+      <c r="J96" t="s">
+        <v>788</v>
+      </c>
+      <c r="K96" t="s">
+        <v>789</v>
+      </c>
+      <c r="L96" t="s">
+        <v>790</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>770</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>791</v>
+      </c>
+      <c r="X96" t="s">
+        <v>792</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>794</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>795</v>
+      </c>
+      <c r="J97" t="s">
+        <v>796</v>
+      </c>
+      <c r="K97" t="s">
+        <v>797</v>
+      </c>
+      <c r="L97" t="s">
+        <v>798</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>799</v>
+      </c>
+      <c r="O97" t="s">
+        <v>261</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>791</v>
+      </c>
+      <c r="X97" t="s">
+        <v>792</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>801</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>802</v>
+      </c>
+      <c r="J98" t="s">
+        <v>803</v>
+      </c>
+      <c r="K98" t="s">
+        <v>804</v>
+      </c>
+      <c r="L98" t="s">
+        <v>805</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>799</v>
+      </c>
+      <c r="O98" t="s">
+        <v>110</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>806</v>
+      </c>
+      <c r="X98" t="s">
+        <v>807</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>809</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>810</v>
+      </c>
+      <c r="J99" t="s">
+        <v>811</v>
+      </c>
+      <c r="K99" t="s">
+        <v>812</v>
+      </c>
+      <c r="L99" t="s">
+        <v>813</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>814</v>
+      </c>
+      <c r="O99" t="s">
+        <v>63</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>815</v>
+      </c>
+      <c r="X99" t="s">
+        <v>816</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>818</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>819</v>
+      </c>
+      <c r="J100" t="s">
+        <v>820</v>
+      </c>
+      <c r="K100" t="s">
+        <v>821</v>
+      </c>
+      <c r="L100" t="s">
+        <v>822</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>799</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>823</v>
+      </c>
+      <c r="X100" t="s">
+        <v>824</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>826</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>827</v>
+      </c>
+      <c r="J101" t="s">
+        <v>828</v>
+      </c>
+      <c r="K101" t="s">
+        <v>829</v>
+      </c>
+      <c r="L101" t="s">
+        <v>830</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>814</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>831</v>
+      </c>
+      <c r="X101" t="s">
+        <v>832</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>834</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>835</v>
+      </c>
+      <c r="J102" t="s">
+        <v>836</v>
+      </c>
+      <c r="K102" t="s">
+        <v>837</v>
+      </c>
+      <c r="L102" t="s">
+        <v>838</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>814</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>839</v>
+      </c>
+      <c r="X102" t="s">
+        <v>840</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>63529</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>842</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>843</v>
+      </c>
+      <c r="J103" t="s">
+        <v>844</v>
+      </c>
+      <c r="K103" t="s">
+        <v>845</v>
+      </c>
+      <c r="L103" t="s">
+        <v>846</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>814</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>847</v>
+      </c>
+      <c r="X103" t="s">
+        <v>848</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>849</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_677.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_677.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="950">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Louis D</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Need a place last minute without spending a lot of money. I chose this hotel because of ratings and cost. My only complaint was I could not get a upgrade. Which is minor. My room had a king bed with plenty of room. I was granted access to the club lounge.  I was over all please with the hotel.More</t>
   </si>
   <si>
+    <t>Brittany S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r570754052-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>The hotel is nice but I’ve stayed in much cheaper places and always had a refrigerator and microwave in the room. This luxury hotel did not which ended up being a pain. I went out and bought a few food items and assumed the room had a refrigerator to put the items in. I was very disappointed to see that it did not. I noticed in the information packet inside the room you can have one rolled into your room for an extra fee. I’ve never heard of such a thing. The pillows are terrible so you should probably bring your own if you like them more on the firm side. I did not have any complaints on the cleanliness. More</t>
   </si>
   <si>
+    <t>LynnSunshine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r569294118-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>The quality of the hotel is nice. It is clean and what I would expect from a good Sheraton. The staff however was mediocre. I called ahead to add my husbands name to the reservation but when we arrived his name wasn't on there. There was some confusion with our room rate at check in. We had to call twice to get an iron delivered to our room and the cleaning staff just never cleaned our room one day. The bar was super crowded every night, however there were three groups there at the time so that may have been unusual. Overall the hotel is nice and those things didn't really effect our stay, but if you are particular about service you might be disappointed.More</t>
   </si>
   <si>
+    <t>karlm489</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r561762588-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>Stayed at the hotel this weekend. The desk clerks were helpful and friendly. Pretty good food. Alexis is a super bartender. All around the hotel is clean, has quality amenities and the staff is excellent. I would recommend.More</t>
   </si>
   <si>
+    <t>CobaltConnection</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r557807807-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -285,6 +300,9 @@
     <t>First time here.  Great rates for my stay.  Large, well lit parking lot in the front.  Excellent, professional and friendly receptionists. Hotel is modern, very clean and complete with restaurant, lounge, business center and gym.  VERY quiet here.Club lounge is top notch and staff there are some of the best in the Starwoods family.  Will definitely make this hotel my "go to" choice in this area from now on.</t>
   </si>
   <si>
+    <t>N P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r556100745-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -312,6 +330,9 @@
     <t>We had heard from friends that the hotel had a great breakfast buffet and we decided to try it. The restaurant was very nicely appointed and the service was great. The buffet had a wide selection and there was something for everyone. I would give it 5 stars except for the fact that food wasn’t very warm. But we would definitely go again. More</t>
   </si>
   <si>
+    <t>Juan T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r545815542-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -336,6 +357,9 @@
     <t>I did not expect much from this hotel, honestly I do not know why, but the truth is that a hotel is as good as the people who run it. I had the same treatment, if not better, than in all the SPG hotels. I was greeted at the front desk by Christina, I arrived very tired from having driven 7 hours. She proved to have an extraordinary interest in seeing how she could please me. He started by giving me a club floor room. I am a gold SPG member. Then she got a mini fridge sent to my room because there are no fridges in them and I was planning to have dinner in my room. I was staying for 1 day only and had a very long night ahead so she also had me sent more coffee, sweeteners, milk and cups. Although I did not sleep alot I felt pampered as in a tier 7 SPG hotel. Thanks to Christina and the rest of her gang.More</t>
   </si>
   <si>
+    <t>Steve D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r545768036-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -354,6 +378,9 @@
     <t>I travel enough to know a great place from an ok place. The service was GREAT the bed GREAT and I slept well ( thats unusual). I cannot find a negative thing to say. Breakfast was GREAT too. I was missing a few things i forgot and the staff got them for me.More</t>
   </si>
   <si>
+    <t>angean</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r544054187-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -381,6 +408,9 @@
     <t>We stay here every now and then just break break the monotony of every day living. What I love about it is that they have a nice outdoor area with pool and a great little bar indoors. It’s nice to have a drink and relax, in an atmosphere that doesn’t have a busy bar feel.The rooms are nice and have always been very clean. Nice place in McKinney, and although it’s right off the highway, it’s never been loud.More</t>
   </si>
   <si>
+    <t>pruh2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r538077452-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -399,6 +429,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Stewart F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r530900492-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -423,6 +456,9 @@
     <t>I stayed here for the week of October 1, 2017 through October 6, 2017. It was a business stay. The hotel is beautiful and clean!!! The customer service was extraordinarily excellent!!! The room was very comfortable and clean too!!! It is a great hotel for business and family stays. It has a nice swimming pool too. The restrooms and all of the room supplies were constantly stocked and cleaned. The cleaning staff was superb!!! Imani at the front desk, Alex with room service had outstanding customer service!!! Shannon and his staff at The Sweetwater Grill were outstanding as well!!! The food was extremely delicious!!! The chicken fried chicken is among the best I've ever experienced!!! Thanks for a great stay!!! Room 253 is always great!!!More</t>
   </si>
   <si>
+    <t>resijordan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r529247084-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -450,6 +486,9 @@
     <t>This hotel has the best staff ever! From Toy Avery at the front desk to Shannon, Josh and Alexis at the bar and the housekeeping staff—top notch crew. They are all outstanding! They made us feel at home! The hotel is very clean, quiet and comfortable! I highly recommend this location. This is my second stay at this property and plan to stay again!More</t>
   </si>
   <si>
+    <t>debrad514</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r525031479-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -474,6 +513,9 @@
     <t>The hotel is  stylishly decorated and the service is excellent.  The desk staff is friendly and helpful. I enjoyed drinks and a sandwich in the bar.  The room was well appointed and comfortable, and the bathroom was sparkling clean.  I order breakfast in my  which was very good.  Will stay here again.  My only problem was that I had trouble finding my way there.More</t>
   </si>
   <si>
+    <t>JFB1996</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r524911880-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -489,6 +531,9 @@
     <t>Stayed 2 nights for a wedding. Very new hotel. Extremely friendly staff. Clean and beautiful room, brand new bathroom. I'd highly recommend this place. Steven at the front desk is especially courteous and always made sure I was having a pleasant stay. Will certainly stay here next time I visit McKinney:)More</t>
   </si>
   <si>
+    <t>beckyparr70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r523646800-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -513,6 +558,9 @@
     <t>Had not stayed here for one year, and the cleanliness level has definitely gone down. I accidentally dropped their hairblower in the sink and bugs and debris rolled out. I then started looking around and found a lack of cleanliness in several places! Picture is of mattress and debris on top, dirty tile in corners, and debris in sink from hairblower! Would not stay there again. Maybe, the manager has cut back on personnel to make the bottom line look better.More</t>
   </si>
   <si>
+    <t>sadler602</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r516472754-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -540,6 +588,9 @@
     <t>This is a fairly new property and decorated nicely from the lobby to the rooms. The bed was comfortable and the customer service was excellent. Several restaurant options are a short drive away.  I would return and stay again.More</t>
   </si>
   <si>
+    <t>Carrie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r515708676-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -562,6 +613,9 @@
   </si>
   <si>
     <t>Friendly staff, very new feel, clean rooms, comfy beds, nice size, great breakfast.  The front desk sent me a text shortly after check-in asking us if we were happy with our room. They are very focused on customer service. It was a great place to stop over between Austin and Arkansas and I will definitely be back.More</t>
+  </si>
+  <si>
+    <t>techskills02</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r514273506-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
@@ -600,6 +654,9 @@
 Overall great property and I would highly recommend. The staff are great and...I will be honest, when I think of Sheraton I don't really think of high end but this property is beautiful and the rooms are very comfortable.Starting with the staff up front they are very helpful and are happy to help you with whatever you need. To me this is the sign of a great hotel when they understand customer service and you actually have professional employees that manage the front end.The rooms have a homey feel to them and if you are on the first floor you get floor to ceiling windows and high ceilings. This is great because the rooms are only 370 square feet so it feels bigger.(***Note The 2 beds have a tub and the king has a stand up shower so if you have a family make sure you reserve the room with 2 double beds***)The beds are fantastic with high end sheets and a great down comforter. The bathroom was well appointed with great water pressure and hot water that never runs out. (With 5 people this is a must)The only tiny negative was we were facing the highway (75) and you could hear the noise. I was tired so I didn't care, but it would get annoying if I stayed for more than a few days and I had to hear cars all the time.Overall great property and I would highly recommend. The staff are great and the hotel is very modern and clean.More</t>
   </si>
   <si>
+    <t>Tonya S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r503669072-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -627,6 +684,9 @@
     <t>The hotel is clean and beautiful! The staff is welcoming and accommodating. They helped with all my needs! The hitel is ckose to everything we needed. Will stay here every time we need a room in Mckinney!More</t>
   </si>
   <si>
+    <t>jswflights</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r503355529-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -645,6 +705,9 @@
     <t>This Sheraton Hotel in McKinney is close to the highway, but nestled back a bit. It has nice and comfortable rooms and wonderful meeting rooms for business. The staff were friendly and helpful. Parking is free and positioned behind the hotel. It is a short drive into historic downtown McKinney from the hotel.More</t>
   </si>
   <si>
+    <t>TavelingDoraemon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r502645178-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -669,6 +732,9 @@
     <t>Fairly new hotel and the room was comfortable.  There's plenty of electrical outlets by the bed for phone, tablet charging.  Wifi was pretty fast.  Staff was all very friendly.  The only negative is because it's away from everything, it's harder to get food if arrival is later in the night.More</t>
   </si>
   <si>
+    <t>annafl2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r498819929-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -693,6 +759,9 @@
     <t>We came to town for a wedding and had a large group of family members staying for four nights. Our time at the Sheraton was perfect! The staff was friendly and provided excellent service. We paid the Club price and it was definitely worth it! The breakfast was delicious and the evening hor'derves were more like dinner. The club room also provided a great common area for all of our family hang out together. We had a great time!More</t>
   </si>
   <si>
+    <t>Lrushing82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r493265574-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -720,6 +789,9 @@
     <t>I can't rave enough about the little things and how they go so far. We stayed with two small children and a teenager. The thing that spoke to me the most was in the shower I always get grossed out by the shower curtain touching me. They are gross if you think about it. Not only was the shower plenty big enough that this didn't happen but the shower curtain was spotless which is a huge deal for me! Again it's the little things. The room was so clean I felt at ease right away. The bed was one of the most comfy beds I've ever slept in. We will stay here again. The staff was pleasant and we were checked in quickly and with no effort in our part! I'm also loving that pets are welcome here for free!! Can't beat this site and I want to recommend to all travelers in this area.  More</t>
   </si>
   <si>
+    <t>Stephanie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r491924817-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -747,6 +819,9 @@
     <t>We stayed at this property as a last minute decision on our way to Oklahoma. Not sure I remember ever staying at a Sheraton property (weird since I've done so much traveling) but the hotel brand is certainly high up on my list now! The hotel was a real treat and so were the staff. Modern hotel, clean rooms, friendly staff - we'd stay here again in a heartbeat! Happy travels! More</t>
   </si>
   <si>
+    <t>Jeff P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r487358538-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -774,6 +849,9 @@
     <t>I stay here a lot and the customer service is amazing. They even remember my name between visits. The front desk people really care and I even get text from them asking how my stay is going. For the business traveler this is a great hotel. And the hospitality suite ladies make this the best part of staying there. More</t>
   </si>
   <si>
+    <t>Joan D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r486664885-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -798,6 +876,9 @@
     <t>Beautiful newer hotel. But beauty doesn't always mean comfort. The furnishings were modern but unable to sit in them. Check in was quick. The room service food was pricey.  I wouldn't make this hotel my first choice. Many others in the area a better value for sure.More</t>
   </si>
   <si>
+    <t>Sarah N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r484764734-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -825,6 +906,9 @@
     <t>Spent two nights at the Sheraton McKinney in early May when I was in town for a wedding. Had bad weather for my flight and my plane landed a couple of hours later than expected. Arrived at the hotel exhausted and hungry and far too tired to wander out looking for a decent restaurant. I never expect much from hotel restaurants... But the steak was fabulous. (Breakfast the next day was disappointing... But dinner was EXCELLENT!) Friendly staff, nice room. Excellent steak.More</t>
   </si>
   <si>
+    <t>BevoBurn96</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r480301684-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -850,6 +934,9 @@
   </si>
   <si>
     <t>A very nice, new hotel in McKinney.  Stayed on the club floor.  Was impressed with the hot breakfast in the club.  Ended up in a room with a loud party going on next door, but hotel security resolved it quickly once we called.  Very nice rooms.More</t>
+  </si>
+  <si>
+    <t>esachs</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r479150883-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
@@ -880,6 +967,9 @@
 When my sister booked the block for the wedding, she had arranged a shuttle through the hotel to and...My sister booked this hotel as a wedding block for her wedding because of the location to venue. She stayed two nights in the presidential suite. Is stayed with her the night before her wedding. The room had an awful odor, like stale smoke and mold. We immediately told the front desk and they brought up a air purifier thing for about an hour and came back and took it. It did not fix the smell. This time they let us keep the air purifier. The next day (the wedding day) we told the front desk about the smell again and they sent a few people up to look at it. They said they were going to look at the connecting rooms and have it fixed before we all came back after the wedding. There were no other suites to move into. My sister unfortunately had to spend her wedding night in that room with the stink. My uncle booked a double room for three people: himself, his wife and daughter. When he checked in he was given a king room and was told they had no more rollaways available. They actually gave my uncle a blow up mattress... which had deflated by the middle of the night. He was also told there were no other rooms available the second night. When my sister booked the block for the wedding, she had arranged a shuttle through the hotel to and from the venue so people did not have to drive. The last shuttle was scheduled to run at 11pm because that was the time that the wedding ended. At 1102 I went outside and there was no shuttle. We still had about 20 guests at the venue at this point. I quickly called the hotel and they told me the shuttle had already left and they were not coming back. We were all stuck at the venue with no response from Uber and we were too far out for a taxi. The owners of the venue ended up having to take us back to the hotel!!The hotel is new and beautiful. The rooms are nice. But we had several problems that would make us not want to come back.More</t>
   </si>
   <si>
+    <t>Cheryll D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r478373108-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -908,6 +998,9 @@
 We had passes to the Club Room on the fourth...First of all, we were looking for a pet friendly hotel in the Allen/McKinney area for our trip to attend memorial services for one of our dearest friends.  On the Sheraton McKinney online information, it stated that there was a deposit for a pet, and we didn't know if that was one deposit no matter if you had one or two dogs.  We have two small shih tzus so my husband called the Sheraton 800 number to ask about that.  He talked to Robin, who actually was located in Austin, where we live, and we had the most attentive service from her.  She put my husband on hold several times, but only for seconds each time, to double check on different items he asked her about.  She was friendly and made sure she gave us the best deal for our stay.  I would love to have her each time we ever call.  She was amazing!!When we arrived, the staff at the hotel was very courteous.  Our room was unbelievable.  We thought we were getting a regular room with a king-sized bed in it.  It was actually a suite with a sofa and sitting area with a TV, and then the bedroom area with another TV.  The bathroom was very large, and the shower was spectacular.  The hotel is well insulated, and we never heard hall or next door noise.  We had passes to the Club Room on the fourth floor for breakfast and hors d'oeuvres each evening.  The attendant in the Club Room was very helpful and friendly, and she was there both morning and evening each day.  With the pass, you may also go anytime in there to get coffee, lattes, or hot tea.  The amenities were wonderful, and we loved our stay there.  Oh by the way, there is no deposit required for dogs.  We didn't see a lot of people with dogs there, but ours were treated well during our stay.  We will definitely look forward to going back.  Thank you!!More</t>
   </si>
   <si>
+    <t>jopet78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r474237302-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -932,6 +1025,9 @@
     <t>Reserved a room on the Sheraton Club level, and it was very nicely appointed.  The Club serves breakfast (a few hot items) and evening appetizers (cheese, veggies, and hot items).  Enjoyed our stay here.More</t>
   </si>
   <si>
+    <t>slmnsam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r474154366-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -947,6 +1043,9 @@
     <t>This is a very nice hotel north of chaos in Plano, but just a few minutes away.  You can enjoy a little quiet, and also avoid being too far from everything.  If you have business in Plano, Richardson, or even Frisco you are less than 15 min away!More</t>
   </si>
   <si>
+    <t>layztrav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r473496645-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -971,6 +1070,9 @@
     <t>Spent two nights here for a local wedding. Nice and clean room. Daughter loved the Starbucks in-room coffee. Son loved the pool. Large bathroom and comfortable beds. Did not purchase the breakfast. I would recommend this hotel and return when back in McKinney.More</t>
   </si>
   <si>
+    <t>Rebecca B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r461454306-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -995,6 +1097,9 @@
     <t>My husband and I stayed with a group of friends at this hotel for two weddings over the weekend. The hotel was beautiful, brand new, good service. Quiet location, right off the highway, less than 10 minute drive to the charming and historic downtown McKinney! We went to a wedding at the Stone Crest Venue, and were able to get an Uber from the hotel to the venue and it was about a 15 minute drive. Good hotel for a one night stay or traveling through. More</t>
   </si>
   <si>
+    <t>Carolyn W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r460943681-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1013,6 +1118,9 @@
     <t>One night stay while in town for a wedding. Room was okay but mattress was not that comfy. Had room for a microwave and frig but did not have them. Staff was friendly and responsive. Breakfast was pricey and don't recommend. More</t>
   </si>
   <si>
+    <t>davidandrose1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r459452859-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1037,6 +1145,9 @@
     <t>New hotel, modern furnishings and friendly staff.  Front Desk staff fine, Lounge and Bar staff very friendly, anticipating needs and excellent, especially for the brand and price point.  As others note, you need a car as there's nothing within walking distance of the hotel, but there's plenty of dining and retail nearby if you've got wheels.   Will definitely return when back on business. More</t>
   </si>
   <si>
+    <t>SPEEDERZ5280</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r454091087-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1064,6 +1175,9 @@
     <t>This is a nice, newer Sheraton. My only gripe with it is you're stuck there unless you have a car or take Uber/Lyft/taxi to other restaurants. We were there for work and had dinner at the hotel on our first night. The poor bartender was spread thin amongst a lot of people who wanted food and/or drinks. Who knows what happened; maybe someone called in sick.  He did all he could while trying to serve more people than one person should have. Good was on par with other Sheraton hotels. If you prefer more action and options within walking distance, the Aloft hotel an exit or two south (I think) would be a good alternative in the SPG program. More</t>
   </si>
   <si>
+    <t>landsthom75</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r454013363-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1079,6 +1193,9 @@
     <t>Hotel is very beautiful. Staff very friendly an helpful. Bed was AMAZING!!! If you forget anything all you have to do is ask they probably have it. Room was very beautifully decorated. Very good location. Will definitely stay here again.More</t>
   </si>
   <si>
+    <t>Ashley B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r448288290-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1106,6 +1223,9 @@
     <t>The room was very nicely furnished, but was not as clean as I expected. Around the bed and by the furniture there was food debri and particles of stuff in the floor and a few of the tables were dusty, there was also a glob of toothpaste on the floor of the bathroom. We had someone to come vacuum again because it was a little gross (we made sure to keep our socks on in the room). There was also no mini fridge (which I didn't think to check about in advance because most places have them) so we had to buy a little ice chest for our drinks and leftovers. Another issue was only part of the hotel gets breakfast (the club rooms) so if you stay in the other rooms you will need to either go eat at their restaurant or go get something  (make sure it doesn't need to be refrigerated). It was a little confusing, because the pictures show a nice continental style breakfast and it does not say exactly if it does or does not serve breakfast, so I had to go to several places on their website and read other guest reviews before I could tell we were not in the right kind of room to get breskfast.  It is right by the interstate so you can hear the traffic, we were on the first floor so it was a little noisy because of...The room was very nicely furnished, but was not as clean as I expected. Around the bed and by the furniture there was food debri and particles of stuff in the floor and a few of the tables were dusty, there was also a glob of toothpaste on the floor of the bathroom. We had someone to come vacuum again because it was a little gross (we made sure to keep our socks on in the room). There was also no mini fridge (which I didn't think to check about in advance because most places have them) so we had to buy a little ice chest for our drinks and leftovers. Another issue was only part of the hotel gets breakfast (the club rooms) so if you stay in the other rooms you will need to either go eat at their restaurant or go get something  (make sure it doesn't need to be refrigerated). It was a little confusing, because the pictures show a nice continental style breakfast and it does not say exactly if it does or does not serve breakfast, so I had to go to several places on their website and read other guest reviews before I could tell we were not in the right kind of room to get breskfast.  It is right by the interstate so you can hear the traffic, we were on the first floor so it was a little noisy because of other guests coming and going at the front desk. It was good for the price and the lobby was very pretty and well maintained.More</t>
   </si>
   <si>
+    <t>Jay S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r436800209-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1133,6 +1253,9 @@
     <t>Can't really say anything bad about this hotel. It is a decent location to facilitate business in the Dallas area.Amenities are good and everything appears to be pristine.The only thing I could "ding" them on is the restaurant within. The food was sub-par to the rest of the hotel. Restaurant wait staff are not adequately trained in service, but a B+ for trying hard.The business lounge is excellent as well, but it seemed to have more loud  families than businessmen some of the times.More</t>
   </si>
   <si>
+    <t>Danne1999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r436018416-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1151,6 +1274,9 @@
     <t>I really wasn't sure what to expect because I haven't stayed at a Sheraton Hotel in a number of years, but I am so happy that we stayed here!  It was an amazing experience from start to finish. Miles kept our room even when we arrived over 4 hours late and well after midnight.Our room was perfect and they removed all of the feather bedding for me. Stacy, the manager, greeted us by name and made sure that we were pleased with everything each day. Stan was phenomenal!  He drove us to the square each night, made excellent suggestions, picked us up promptly after dinner, and got us back safely.  We highly recommended the Club and the restaurant here; both have great food and impeccable service. Would I stay here again? Yes, in a heartbeat and will be back next month! Superb is an understatement for this hotel - STELLAR is more like it. Starwood Hotels selected an incredible staff for this hotel and I will definitely recommend the Sheraton McKinney to my company for future business trips and to friends and family for leisure. 5 stars all the way!More</t>
   </si>
   <si>
+    <t>Lhigh84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r425179689-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1178,6 +1304,9 @@
     <t>Loved this hotel! I stayed there with my maid of honor the night before the wedding! Very nice! The beds were super comfortable.It's also pet friendly! No breakfast included, but you can eat at their restaurant downstairs.More</t>
   </si>
   <si>
+    <t>birdiegirl84</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r421918607-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1202,6 +1331,9 @@
     <t>I never stay at a hotel this nice and I'd have to say it was a real treat. I only stayed b/c I got a great express deal on priceline. I chose the property b/c they are super pet friendly with no pet fee for my two dogs! Thank you so much for being dog people! My room was very large and the bed was comfortable. I do wish there would have been a fridge and microwave. There is no breakfast included. The fitness center is the best one I've ever been to in a hotel! Lots of free weights, cable system, mats, swiss balls, bands, jump ropes, and your cardio machines. The property is large enough that you can make a big circle around the hotel and it is a decent walk for your dog(s). Kind of hard to jump in the car and pick something up to eat..nothing that close. Internet was speedy!More</t>
   </si>
   <si>
+    <t>rmrichard01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r421800210-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1217,6 +1349,9 @@
     <t>WOW... This place is at the top of our list of favorite places to stay. We received a great rate. Our room was so impressive. Very elegant! We could hear a pin drop it was so quiet! Even with us being next to the freeway we did not hear any noise. The personnel was so professional and went out of their way to accommodate of in every possible way. The hotel is so beautiful and and decorate so elegantly. We never notice our service staff. This was our 3rd anniversary and we could not have spent it in a better place. We truly believe this hotel deserve 10 stars if we could give it. More</t>
   </si>
   <si>
+    <t>Timothy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r420548157-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1241,6 +1376,9 @@
     <t>This is one of the better Hotels I have stayed at in quite a while.  The Hotel was very clean and presentable.  The rooms are furnished nicely, the property was well kept and Service was great!  This was the most comfortable hotel bed I have been in.  Slept like a babyOnly issues...the fan return in the bathroom was quite noisy and you cant turn it off....Issue corrected by shutting the bathroom door at night.   At breakfast the eggs on the Eggs benedict were over cooked.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r417656786-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1265,6 +1403,9 @@
     <t>Booked this hotel for one night. Beautiful lobby, excellent check in, very comfortable bed. Only issue is have doors slamming in middle of night in hallway, and neighbors were amorous around 4:30 AM! Will definitely go again. More</t>
   </si>
   <si>
+    <t>thomasgmay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r416850936-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1289,6 +1430,9 @@
     <t>Great new Sheraton.  Room was plenty big enough, very comfortable bed, nice big shower.  Very friendly staff.  No restaurants within walking distance, but plenty one or two exits away.  Will definitely consider staying here again on next trip to the area.More</t>
   </si>
   <si>
+    <t>KillHerLooks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r415030948-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1313,6 +1457,9 @@
     <t>So me and my family wanted to getaway for Labor Day wkd, but most of the hotels in Dallas were booked. We ended up booking the Sheraton McKinney Hotel after I researched and read great reviews. *NOTE Book the hotel through their direct website and the prices are great! Upon arrival check in was a breeze. The hotel is beautifully decorated. The rooms are beautiful and the bathroom is very nice too. The rooms are very spacious. If you are sharing a room this hotel is a great idea. The workout room is great and the pool is cool. They offer a breakfast buffet. It is simple and good. I'm so happy that everything was booked and I found this hotel because it's a jewel. Honestly I've never really booked Sheraton hotels, but this one is modern! Everywhere we went was in radius and traffic wasn't bad. I wish I could stay at this hotel lol. It was also an extremely kid friendly hotel. I'd definitely return to this hotel in the future. Everything about it was great. No complaints...More</t>
   </si>
   <si>
+    <t>Steve-O-TX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r408001995-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1340,6 +1487,9 @@
     <t>This particular property showcases a new concept for Sheraton to reinvent itself as a chain.  The hotel has a very modern, new look with clean, sharp lines.  My wife and I enjoyed a quick getaway here, and everything was perfect.  We opted to upgraded to the Club level (4th floor) which was very much worth the few extra dollars.  The snacks in the evening and the breakfast included in that upgrade made it very much worth the few extra dollars.  The hotel was very quiet, even though there seemed to be a good occupancy rate that night.  The staff was superb!  Check-in was easy and our room was ready and waiting.  The room was incredibly spacious with a very comfortable bed and the bathroom was very nicely appointed and huge!  Even the complimentary bottles of water were a nice touch.  Our only disappointment was the bed pillows were so flat and flimsy, but next time we'll bring our own.All in all a great hotel and a super price.More</t>
   </si>
   <si>
+    <t>adventurer2011_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r404213980-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1362,6 +1512,9 @@
   </si>
   <si>
     <t>My husband and I stay here 1-2 times monthly since this location opened last year.  Staff is not super friendly but the hotel is new, above average in decor. The a/c works great in every room except the junior suites.  Same number of vents as the regular rooms but much larger room....we had to  buy small fans to be comfortable.  The room was an upgrade from mgmt for a booking error.....won't fall for that again.  We love the large showers and comfy beds.  We've never ate at the restaurant but they offer packages and coupons to guests.  Rates are pretty negotiable if you call them on the phone, compared to rates on line. Nice pool and outside lounge near the restaurant/bar area that appeals to the hipsters.  The parking lot is an odd sitch, but you drop off in the back and park at the front, nearest the SRT/75 interchange, therefore keeping noise to a minimum.  This does make for quite a long haul to the hot car.  No covered parking, and no card reader on the end doors/stairs. The place is shaped like a 'U' with the doors located in the center.  Stairs on the ends closest the parking lot.  Please put in card readers at these locations for your elderly guests!  We have stayed in rooms on every floor on all sides.  The one thing that is always present is the way the doors slam shut if not...My husband and I stay here 1-2 times monthly since this location opened last year.  Staff is not super friendly but the hotel is new, above average in decor. The a/c works great in every room except the junior suites.  Same number of vents as the regular rooms but much larger room....we had to  buy small fans to be comfortable.  The room was an upgrade from mgmt for a booking error.....won't fall for that again.  We love the large showers and comfy beds.  We've never ate at the restaurant but they offer packages and coupons to guests.  Rates are pretty negotiable if you call them on the phone, compared to rates on line. Nice pool and outside lounge near the restaurant/bar area that appeals to the hipsters.  The parking lot is an odd sitch, but you drop off in the back and park at the front, nearest the SRT/75 interchange, therefore keeping noise to a minimum.  This does make for quite a long haul to the hot car.  No covered parking, and no card reader on the end doors/stairs. The place is shaped like a 'U' with the doors located in the center.  Stairs on the ends closest the parking lot.  Please put in card readers at these locations for your elderly guests!  We have stayed in rooms on every floor on all sides.  The one thing that is always present is the way the doors slam shut if not held in hand.  And who cares about their neighbor anymore?!  We bring a noise machine for 2-3 night stays.  This is something I've been told that can be remedied by adjusting the doors.  Mgmt, please resolve this issue ASAP.  Another bonus for Starwood preferred guests is a late check out of 4 pm, 30% saving at the restaurant/bar, in room wireless internet.  Sometimes the housekeeper continues to bang at the door though.  Communication re: the 4 pm check out to the housekeepers is lacking.  Booking through Expedia is hit and miss here. No one can tell you why you won't have a room if you book on line, but the hotel usually comps sufficiently.   All in all, I would highly recommend, and have to friends/family.  More</t>
+  </si>
+  <si>
+    <t>JNewell_11</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r403329862-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
@@ -1401,6 +1554,9 @@
 If you can book a club room, or get club room access, I highly...Came here for a weekend getaway staycation with my husband. We live in the area and had driven by the hotel a number of times. It is a little out of the way, on its own, but I'm sure the land around the hotel will be developed very soon into a great location. The walk to the hotel isn't as terrible as other reviews have made it sound. It'd be nice if the walk was covered, but it took maybe 30 seconds or so to walk from parking-lot to front door. Upon check-in Michael was very helpful and friendly. We stayed in a junior suite with club lounge access. The room itself was very large, sleek and clean. The bathroom was big with separate vanities and a huge shower. Lots of amenities were provided in the bathroom. Along with the standard soap, shampoo, conditioner, and lotion there was mouthwash, a loofah, and shave cream. I was a little bummed they didn't have a bathtub, as there was plenty of space to have a shower and a bathtub or at the very least a combination tub/shower, but it wasn't a deal breaker. We had room service the first night it was pretty good and arrived quickly. The pool was a little small and ended up being in the shade by 5:00, but again, not a deal breaker.If you can book a club room, or get club room access, I highly recommend it! Roshondra, the club lounge attendant, is fantastic! The hour d'vours were very good, and could almost double as a dinner. Overall it was a great hotel and staycation and we will definitely come back, given the chance.More</t>
   </si>
   <si>
+    <t>TahirSaudi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r395867916-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1425,6 +1581,9 @@
     <t>Hotel is a little difficult to find as this is a brand new area. Very friendly staff. Smooth check in. Look for Wanda at the front desk, and she will do her best to make your stay pleasant. Bar and grill area is cosy and nice selection of snacks and appetizers.Our small issue with A/C was resolved promptly and followed up by the reception. We definitely recommend.More</t>
   </si>
   <si>
+    <t>HappyCouple301</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r394797665-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1449,6 +1608,9 @@
     <t>When we made the reservation, we were immediately upgraded to a non-smoking king bed suite with Club Lounge from our Sheraton membership, wow!  Really nice place to stay.  Highly recommend this hotel for a relaxing weekend.More</t>
   </si>
   <si>
+    <t>Sissy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r393249741-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1467,6 +1629,9 @@
     <t>This hotel is a great place to stay.  I would have rated it higher, but they have not eating facilities, or restaurants within walking distance.  Clean, big rooms.  Quiet and easy to access local historic downtown McKinney and shopping malls.More</t>
   </si>
   <si>
+    <t>Joe Crawford</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r391848361-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1506,6 +1671,9 @@
     <t>Amazing...entire staff---front desk, bar, restaurant, housekeeping, pool guy---exceptional. I was there for almost a week and everything was perfect!!!!! I have never stayed at a hotel for more than 3 days in a while unless traveling internationally. I would have stayed here for a month if I could. This property and the entire staff are top notch! Thank you for making my stay the best! xoxoMore</t>
   </si>
   <si>
+    <t>Tyler T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r391396200-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1530,6 +1698,9 @@
     <t>I enjoyed staying here and would recommend it to anyone in the area. Our room was clean and comfortable. The check-in process was seamless, and the staff were friendly. This place is worth booking, and I recommend! More</t>
   </si>
   <si>
+    <t>Cwtok</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r389893129-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1548,6 +1719,9 @@
     <t>Very nice and new hotel. This hotel is a little outside of Dallas but is very reasonable for a newer hotel. It is near a couple of highways but removed enough so you don't hear any traffic. Nice bar, small outdoor pool. Club level was $20 extra per nice but worth it.  Club level included buffet hot breakfast, snacks in evening and a glass of wine.More</t>
   </si>
   <si>
+    <t>Kathy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r386208144-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1569,6 +1743,9 @@
     <t>Nice property , very clean. Bar and resturant available . All we didn't have time to use them. Rooms have Starbucks coffee. Large bath with rain shower head. Comfortable beds and large closet with safe.   Free bottle of water in room.  Temperature in room could easily be controlled.  Check in and out were super easy.  You can ought to have breakfast included in our price of room.   I think it is priced at $10.99 pp. More</t>
   </si>
   <si>
+    <t>Ezra S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r384497866-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1590,6 +1767,9 @@
     <t>The staff here is friendly, which I love; but, the hotel itself is hard to get to. You have to make all kinds of turns which isn't the hotels fault but just thought people should know these things. At least they have nice rooms and staff.More</t>
   </si>
   <si>
+    <t>Steve P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r382122089-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1614,6 +1794,9 @@
     <t>The Sheraton is clean and seems to be relatively new.  The staff, from the desk to the dining room and maids, were friendly and helpful.  Rooms are spacious and very clean, with well designed and appointed bathrooms.  The only downside is the design of parking to the entrance.  It would be a relatively long walk from your car to the entrance, especially in the Texas heat or during a rain storm.More</t>
   </si>
   <si>
+    <t>Zabadast</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r382119574-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1632,6 +1815,9 @@
     <t>Location close to Hwy , very clean , modern , free parking ,free flavored water at lobby , very professional staff , front desk people are very courteous and takes care of guest with smile , rooms are clean , spacious, best mattress and pillows, had enjoyed my sleep , room setup was very practical, free wifi , lounge was good and good service and you get 24 hrs  excess for juices and water , get complimentary water bottles in room . I had great time staying there and had no complaints. We were happy and satisfied . More</t>
   </si>
   <si>
+    <t>JbermanHM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r379010698-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1656,6 +1842,9 @@
     <t>I was very impressed by the Sheraton McKinney Hotel. The lobby, elevators, and room were all very clean, and looked brand new. The bar downstairs had great drink prices, and the food offerings were above average for bar food. I would recommend this place to anyone who is not trying to break the bank, but looking for that 5 star appeal. 10/10More</t>
   </si>
   <si>
+    <t>Martha2242013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r374799507-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1680,6 +1869,9 @@
     <t>This is a beautiful new hotel.  Lobby was huge &amp; beautifully decorated.  It was very, very clean.  Staff members were very friendly, helpful &amp; courteous.  Rooms are very big.  Showers (no bathtub - which is fine for us) were very spacious, clean &amp; accommodating.  Beds very comfortable &amp; linens very fresh.  Absolutely a delight to stay here.  Only one drawback:  Restaurant has limited menu items &amp; prices are quite high - hamburger, coke &amp; fries was $25.00.  There are no other restaurants or shopping areas near the hotel.More</t>
   </si>
   <si>
+    <t>Hy_Chapparrel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r373224878-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1704,6 +1896,9 @@
     <t>This is a nice looking property.  Seemed pretty new or at least in pretty good shape.  Was here for a business meeting in the area and you should be too if you are going to stay here.  Otherwise, this location will not likely be good for you, unless you are a loner.  This is out in the sticks nestled among some confusing endlessly looping roads, ramps, highways, and freeways.  Rooms were good and service was pleasant.  I'd skip the hotel restaurant and drive up or down the freeway to one of the many chain restaurants around the shopping malls.  Service was friendly and rooms were very niceMore</t>
   </si>
   <si>
+    <t>Mlarsen880</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r368941128-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1731,6 +1926,9 @@
     <t>This is more of a business review than an actual hotel stay. I attended an conference recently at the Sheraton, and found the experience quite nice. The set up was very professional and the food was very good. The meeting facilities are extremely nice and well designed.More</t>
   </si>
   <si>
+    <t>Michael G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r365452384-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1755,6 +1953,9 @@
     <t>In early April we stayed at the Sheraton for our anniversary. This is the second time we have stayed at this hotel. We stayed on the club floor this time. We first stayed at this exceptional facility last year and it quickly became our go to hotel in the Metroplex. We loved it so much that our daughter and her friends stayed there on a girls trip a few weeks later. The hotel is clean, comfortable, stunning, convenient, and great for business and relaxation.The best part of this hotel is the staff and its customer service! Everyone from the first person you see at check in to those running the Club Room were fabulous, professional, and friendly. We look forward to our next stay!More</t>
   </si>
   <si>
+    <t>RafaelLabra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r364739331-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1779,6 +1980,9 @@
     <t>Hotel is new, everything looks nice well kept, clean, nice design, nice rooms. But apart of the building itself, the personnel is just wonderful. Everyone, absolutely everyone is helpful, polite. I found absolutely everything very easy, and everything I asked was done with a smile. Special mention to Luis in the bar, Miles in the reception or Jessica also in the bar. Very valuable people, certainly. More</t>
   </si>
   <si>
+    <t>comerharris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r364247354-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1797,6 +2001,9 @@
     <t>I was here to do business with Collin College that was literally next door and I am so glad this was the closest hotel. Beautiful place that was spotlessly clean. High-ceiling rooms with a safe, long mirror, ironing board,etc. - all the things I hope to find when I enter a hotel room.  I am a light sleeper and the hotel had plenty of guests but I never heard anyone once I was in my room for the night.  Love this place.More</t>
   </si>
   <si>
+    <t>Dustin O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r355597568-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1821,6 +2028,9 @@
     <t>My wife and I stayed while celebrating our 10th wedding anniversary. The staff went above and beyond to help us celebrate. They put us in a suite removed from other guests, so we had a nice quiet, private area to focus on us. They even surprised us with wine and chocolate covered strawberries! We stayed in the junior suite, and it was very clean. The king size bed was comfortable. The only down side was there was no fridge. Thank you so much Quelea for a wonderful stay!More</t>
   </si>
   <si>
+    <t>TCJtown</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r354567411-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1848,6 +2058,9 @@
     <t>We stayed here while playing a baseball tournament nearby. The hotel is gorgeous. It has a very Hollywood Glam style with crystals, mirrors and shiny brass décor. Every time we encountered a staff member they were extremely friendly and polite. The workout room is quite nice as well. The treadmills are brand new and top of the line. A full set of dumbbells are available as well as a nice stretching mat, exercise balls, bands, etc. I would stay here again and I would recommend it to everyone.More</t>
   </si>
   <si>
+    <t>tdboston3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r350865506-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1872,6 +2085,9 @@
     <t>Very nice hotel, clean and trendy. Would definitely stay again. Beds were comfortable and staff was friendly and accommodating. One note: The young lady that was running breakfast at the Club Level needed more help. She was attempting to help the guest but they were not very nice or understanding that she was working alone. I don't remember her name, but she did the best that she could. More</t>
   </si>
   <si>
+    <t>Gregory P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r344144576-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1899,6 +2115,9 @@
     <t>Well worth the price!  My husband and I stayed there for 1 night.  Hotel was fabulous.  Very well kept!   Everything is close by... shopping, eating, I75.  And they are pwt friendly.  We will definitely stay there when we return to McKinney.More</t>
   </si>
   <si>
+    <t>trvlsmart</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r332153492-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1926,6 +2145,9 @@
     <t>Received in late for two rooms (right off the highway so easy to find) .. the front desk rep was more than gracious.  WE stayed on the club floor and that allowed us a nice continental breakfast the next morning.  Nothing better than the beds.. oooo... did not want to get up and Starbucks in the spacious comfortable room.. yesss.. wish I had more than a one night stay.More</t>
   </si>
   <si>
+    <t>caitmccay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r330351732-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1950,6 +2172,9 @@
     <t>Stayed here in a wedding block in November - Cute hotel with fun decor. Nice bar area! We were only here for one night but really enjoyed the spacious room and bathroom. Bed was super comfortable. Would definitely stay here again when in town.More</t>
   </si>
   <si>
+    <t>Dana C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r328008413-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -1977,6 +2202,9 @@
     <t>Stayed at this new hotel for a business trip and the atmosphere was excellent! Clean, modern, open and airy. I travel to the north Dallas area weekly for work, and stay either here or the Sheraton by the Galleria. The Sheraton McKinney is nicer, just a further drive depending on where you're going.Pros- friendly staff with frequent easy communication via texting- very posh room, I even sent photos to my husband I was so impressed!- Club room is large with good food selection (thank you for the drink coupons!)Cons- no automatic/sliding front door. It is difficult to hold a door open and roll luggage through- should have fridges in guest rooms- missed my "Make a Green Choice" points and had to call staff twice about applying them (this is now settled)More</t>
   </si>
   <si>
+    <t>kevcon2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r324947214-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2001,6 +2229,9 @@
     <t>Brand new hotel right off I-75. We made a last minute trip to McKinney, Tx and our stay at the Sheraton was outstanding. Ashley and Quelea at the front desk could not have been more friendly and professional. Even when we unexpectedly had to extend our stay they took care of everything. Loved the club level and the workout room! Lobby design is "first class".More</t>
   </si>
   <si>
+    <t>Cloakofstars</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r323850498-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2025,6 +2256,9 @@
     <t>We stayed the night after celebrating our wedding at a nearby venue. I was very impressed by how the hotel looked as soon as we walked in. The desk clerks were very friendly and helpful. Our room was a wonderful treat after a long day. The bed was very comfortable including the comforter. And the room itself was very clean and hospitable. The only flaw that j could find was the parking was all outside and it was a bit of a walk to the door from the lot. There is not a drop off by the entrance.Other than that, it was definitely a great choice for us and we would recommend it to anyone for a long or short stay. More</t>
   </si>
   <si>
+    <t>LVMom3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r316309809-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2049,6 +2283,9 @@
     <t>Very, very happy with this hotel. Checked in a little bit early of 3 o'clock with no problem at all. The room was spotless clean. The staff is fantastic, all of them are very very friendly. I was here by myself and I felt very safe going through the parking lot and walking into the hotel and to my room.More</t>
   </si>
   <si>
+    <t>katietris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r314818740-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2076,6 +2313,9 @@
     <t>New hotel with nice amenities including a nice pool &amp; fitness room. Rooms were spacious and clean. Courteous &amp; accommodating staff. Convenient location right off of a major highway, with easy access to restaurants, stores, etc (assuming you have transportation).More</t>
   </si>
   <si>
+    <t>Scott R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r312992774-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2100,6 +2340,9 @@
     <t>Booked this last hotel minute, and not a "Starwood" traveller. But I was very impressed and will stay here again when in Mckinney! Easy access from DFW &amp; close to good restaurants. Close to McKinney Golf Course as well.More</t>
   </si>
   <si>
+    <t>Carol H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r305548183-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2125,6 +2368,9 @@
   </si>
   <si>
     <t>Very nice hotel. I stayed one night with my 5 year old granddaughter. The front desk staff was super friendly and very, very helpful. I agree with the reviewer that said the bathroom was large, modern, and had a very good shower.  I hate wimpy low pressure showers but this one was great.More</t>
+  </si>
+  <si>
+    <t>Berry316</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r301117821-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
@@ -2187,6 +2433,9 @@
 The night of the wedding in the banquet hall,...So we were one of many families staying for a wedding. We stayed only 2 nights while others stayed more. Appearance of the hotel is very nice, new and modern looking. Right off the highway, 5 mins from the outlet mall. Rooms were decent, comfy beds. The front desk staff is amazing. Nice, friendly and charming. Kid friendly as well. Now to the service. We were on the club floor where breakfast is served and it was horrible. The attendant was just standing there, the baked goods were all gone except for some small muffins that no one wanted. Half a bagel and 1 English muffin remained on the serving plate. Egg, potatoes and bacon were being served along with fruit. Asked for ketchup but he said they didn't have any. Had to ask the attendant repeatedly for plates, the eating utensils, followed by sugar. He just simply stood there and only moved if you asked him to. Later when we went there to get some coffee, there were no cups. Looking in drawers we found small ketchup bottles lined up even though a few hrs earlier the guy told me they didn't have any. The same thing happened that evening for snack and following breakfast. Our large party also had terrible service at restaurant. Slow service, food was horrible. My portabella sandwich was half burnt. Atleast the lemonade was good. The night of the wedding in the banquet hall, the drink table was not put out until the middle of dinner. Glasses ran out very quickly, and guests had to take the bottles and cans to the tables. Odd. Never attended a wedding where that happened. So like I said a beautiful but service needs improvement. More</t>
   </si>
   <si>
+    <t>David B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r299011423-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2214,6 +2463,9 @@
     <t>Typical first class hotel that one would expect from Sheraton. Likely the best in McKinney, with a good concierge lounge and breakfast, and comfortable room. But, I would suggest avoiding the top floor until they get the sound fixed.Let me explain. My room was on the top floor. There were air conditioning towers on the roof. I think the sound of the air conditioners was transmitted very simply to the room right below. Sounded like a propeller engine, as one might encounter at an airport, running all the time. Very noisy.If you stay here, and it is a nice hotel, avoid the top floor, or maybe right under the air conditioner towers.More</t>
   </si>
   <si>
+    <t>beetlebug6202</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r292392461-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2238,6 +2490,9 @@
     <t>Stopped here for a night on our way through to Oklahoma.  The bed was so comfortable slept like a rock.  Room was clean!  No complaints at all, best room I've had in a while, would definitely stay again!!!  The breakfast was a little pricey $42 for two people but it was good and the customer service was great. More</t>
   </si>
   <si>
+    <t>travelorfromtx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r292182486-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2256,6 +2511,9 @@
     <t>Why, oh why, would a beautiful brand spanking new hotel put in 2 double beds instead of 2 queens??? The small beds pretty much overshadowed everything else that was great with this hotel! We were able to get a great deal on hotwire since it is new and has a low occupancy. The lobby was modern and spectacular. The outdoor bar seating was inviting. More</t>
   </si>
   <si>
+    <t>mombatDallas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r288633254-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2280,6 +2538,9 @@
     <t>I am visiting my family in Texas, having  moved to Switzerland last year. We stay in 4 to 5 star hotels quite  often. I've never  had better service anywhere! I stayed in a King room on the Club floor, where snacks and  soft drinks  are available  all day, and breakfast  in the morning. The bed is  THE MOST  COMFORTABLE  I've  slept in. Sheraton bedding is my favorite anyway but this is plush and brand new.What I like most about  my stay is the service, and the way I've  been made to feel like my comfort level matters.  I left my car keys  at the front desk. Receptionist phoned to tell me, and added "I'll  have them sent up to you". I was exhausted  from traveling  and driving all over trying to visit everyone. What a nice surprise  when  a well dressed gentleman  brought the keys up, with the coffee I requested. I in felt like a special guest. I'll   stay here from now on when I come visit  my family in Collin County.More</t>
   </si>
   <si>
+    <t>GOmandm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r286204033-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2304,6 +2565,9 @@
     <t>We stopped in here for one night while shopping in the area. Couldn't have been more pleasantly surprised!  It is a brand new hotel and is just beautiful!  Very modern, clean, quiet. We didn't utilize any of the amenities, but they all looked quite nice. The snack area had chilled bottles of wine, healthy snack choices, and beverages. The room was very nice and spacious. There wasn't a mini frig, but there was a coffee/tea maker. We will definitely stay here again if we're in the area. More</t>
   </si>
   <si>
+    <t>Texanha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r285152940-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2326,6 +2590,9 @@
   </si>
   <si>
     <t>I travel quite frequently and have to say this is the best hotel I have ever stayed in. I  don't say that lightly. The room was fabulous, new, modern, luxurious. I stayed in a junior suite and it had 2 beautiful, separated counters and sinks. The shower was a really nice glass surround with amazing water head. The bed was the most comfortable I have ever experienced in a hotel.I thought to myself, "they have thought of everything." The room had a coffee maker with Starbucks coffee and 2 free water bottles. The hotel staff was superb, helpful, accommodating. Everything about this stay was PERFECT. I work for a major soft drink and snack company and am so very pleased to have this new hotel close to our offices. Great job, Sheraton! You should be so proud.More</t>
+  </si>
+  <si>
+    <t>Hammercollector</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r278733307-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
@@ -2363,6 +2630,9 @@
 One caveat: the entrance is somewhat confusing. There is a covered entrance on the north side (where you enter the property)  that didn't look like an entrance to me but it is. You could park your car there and go inside and check in but there isn't any other parking there. All the parking is on the south side and there is a little bit of a hike with your luggage because you have to walk through the pool and courtyard area to get inside the hotel. Not a big deal...This hotel had only been opened three months when we stayed there. It was beautifully decorated. But beauty is in the eye of the beholder and it may not appeal to everyone. The colors are done in grays with emerald green doors to each room. The furniture in the rooms is very cool. There are two upholstered chairs with pull-out stools and an armoire for a closet. The beds are the usual comfortable Heavenly beds with thick comforters. The bar was warm and inviting with a large selection of whiskies including Texas whiskies. Who knew Texas had whiskies? I didn't eat at the restaurant or the club room. The front desk personnel were very professional and helpful. They moved our room closer to our elderly mother's accessible room without us asking. There was a small outdoor pool next to a large courtyard with what looked like comfortable outdoor seating. One caveat: the entrance is somewhat confusing. There is a covered entrance on the north side (where you enter the property)  that didn't look like an entrance to me but it is. You could park your car there and go inside and check in but there isn't any other parking there. All the parking is on the south side and there is a little bit of a hike with your luggage because you have to walk through the pool and courtyard area to get inside the hotel. Not a big deal but there is not valet parking or help with luggage so be prepared if you have a lot of luggage or kids. This will be my go-to hotel in the north Dallas area because it is on Highway 75 and the Sam Rayburn Highway/Toll Road.More</t>
   </si>
   <si>
+    <t>Josh M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r278621615-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2384,6 +2654,9 @@
     <t>I have stayed here for a week at a time on two different occasions, and I really like it.  The rooms are nice, big and for the most part very comfortable.  The only thing I can say is the rooms are so well insulated and the A/C work so well it doesn't need to run very long or very often to keep the humidity in the room down.  But that being said, the beds are very comfy, nice big open showers, I love the fact that they have standard TV's with standard hook ups so I can watch my own movies.  The fitness center is top notch, its nice to be able to get a near full workout in at a hotel.  It has stationary bikes, ellipticals, treadmills, cable machine and a full set of dumbbells.  The staff is very friendly and do a great job to make sure your stay is nice.More</t>
   </si>
   <si>
+    <t>Sandy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r276329514-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2402,6 +2675,9 @@
     <t>The hotel is new and beautiful.  The beds are so comfortable.  The staff are all so nice and friendly.  The only drawback that I saw was it is hard to find the entrance to the hotel.  I think they need to have more signs other than the sign on the building.  It was also hard to tell which entrance was the main entrance.  Once inside, a wonderful stay.More</t>
   </si>
   <si>
+    <t>PamFan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r273400809-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2426,6 +2702,9 @@
     <t>The staff are eager to help in this beautiful new Sheraton.  What seems like should be the front entrance, with the parking lot, is really the rear entrance. It has beautiful, tall glass doors which were too heavy to be handicapped accessible.  However, if you come in the north side, which is really the front entrance, you can drive up and it is more handicap accessible. The doors were also too heavy to open in the handicap junior suite where we stayed. (I have back and muscle problems.)  However, once inside the room, you are impressed with its beauty and the HUGE bathroom that well accommodates a wheelchair.  There were no towel bars on the outside of the shower though.  It was very inconvenient to come out wet and you couldn't reach for a dry towel.  The swimming pool was nice.  The parking lot is well lit, but does not have security cameras.  Overall, a pretty place to stay, but if you are handicapped, bring a buddy to help you.More</t>
   </si>
   <si>
+    <t>SomeDudeFromHouston</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r269898539-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2450,6 +2729,9 @@
     <t>Found out about it by accident. I should have used my points, but the deal I had was good too. Everything there was new. Very friendly and knowledgeable staff and I will defiantly return to stay there.More</t>
   </si>
   <si>
+    <t>Loretta A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r269710230-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2471,6 +2753,9 @@
     <t>Hotel is brand new! Couldn't ask for a better, more friendly staff. It was raining out and they gave me an umbrella to use! I thought that was so nice, I would have been soaked if they wouldn't have done that for me. Beds are extremely comfortable, don't wake up with a sore back. Very clean!More</t>
   </si>
   <si>
+    <t>BeverlyArkansas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r267310110-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2495,6 +2780,9 @@
     <t>This hotel is beautiful. The rooms are well appointed, very stylish, very high ceilings, large walk-in shower in a good sized bathroom, adjustable shower head, comfortable bed and pillows, and two chairs with pull out ottomans. There is a restaurant on site however we did not take advantage of it, a bar that served good drinks and outdoor seating which is always nice in good weather, pool and fitness center.Shower needed to be sealed properly. It had fantastic glass wall &amp; door, but water ran out onto the bathroom floor. I'm assuming it was a miss in the final walk through, there was even blue painters tape still on the bathroom wall for a couple of touch ups. We found an ice machine near our room but no ice bucket was provide. Lastly, we aren't fans of the duvet comforters most hotels are going with. With nothing but the comfortor and a sheet underneath, you are too hot with it and too cold without.More</t>
   </si>
   <si>
+    <t>MDKlein43</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r266169441-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2522,6 +2810,9 @@
     <t>Best Sheraton I have stayed at in a long time!  Was there for business, and while a little off the beaten path, well worth the drive. This brand new build is spotless and beautiful. Rooms are large and well appointed.  The on site restaurant and to go items are delicious.  Pool is very small, and fitness center is average sized.  Great outdoor seating and friendly staff.  Modern lobby with lots of places to plug in and work.  Close to the outlets - and close to gas stations and chain food options.  Close to the medical center as well.  Comp. self parking and 24 hour security.  Will stay again!More</t>
   </si>
   <si>
+    <t>Mshockeypr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r264282274-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2546,6 +2837,9 @@
     <t>I was given a weekend, to enjoy my own personal Passover Holiday at the brand new Sheraton in McKinney. It was truly an experience, that made me feel like royalty. The staff and management were incredible, and took excellent care of me. I have already sent emails, and text for letting people know to make their own getaway to this hotel, even if it is only a few miles away from their homes. My room was so impeccable, that it was really hard not to extend my stay. Thank you Steven, Latoya, Ashley and all the others that made me feel welcome!SherrieMore</t>
   </si>
   <si>
+    <t>usb_phx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r262359223-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
   </si>
   <si>
@@ -2568,6 +2862,9 @@
   </si>
   <si>
     <t>Thanks to hotwire again got a chance to stay here. Great place, brand new - in fact you can smell the new paint smell. I love such surprise deals.Google map had a tough time finding the hotel, thankfully you can see it from the road so you can override the app. This is luxury living, the rooms were awesome, the staff were friendly and the bar had reasonably priced drinks and food. There are the outlet malls close by &amp; other bars/restaurants to hang out. You can't go wrong with this hotel. The only problem is that if  you are looking for a fridge and micro they don't provide those. I guess they probably were horrified at that somebody would even be asking for such things - it's a Sheraton, come on!More</t>
+  </si>
+  <si>
+    <t>D T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r260875173-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
@@ -2596,6 +2893,9 @@
     <t>I've stayed at the Sheraton McKinney twice this month and have been pleased both times.  They've done a great job with the fit, finish, and furniture here.  Like the previous poster, I am a McKinney resident.  I'm excited to finally have a hotel and conference center of this caliber in our city.  
 I stayed in a King room on the second floor during my first stay which was the first week the hotel was open. The room was spacious and was outfitted well.  I always appreciate new hotels like this one who include USB plugs along with traditional Edison plugs near the desk and bed.  The bed was very comfortable and I slept well on it both times.  There are two comfortable sitting chairs with ottomans.  The desk is spacious and has plenty of power and a lamp to light the space.  I had no issues with the TV, which had a great variety of channels.  There is adequate drawer space for those on longer stays.  One very minor annoyance was the bright light that flashes on the smoke detector.  It's quite bright when the room is dark and disrupted my sleep a little.   The wi-fi here is free and is lightning fast! I literally had 85.13 mbps down and 86.22 up! Unheard of for hotel internet. 
 The bathroom is spacious and well-appointed with the necessary essentials.  I like the big walk-in shower, too.  I had an issue with the...I've stayed at the Sheraton McKinney twice this month and have been pleased both times.  They've done a great job with the fit, finish, and furniture here.  Like the previous poster, I am a McKinney resident.  I'm excited to finally have a hotel and conference center of this caliber in our city.  I stayed in a King room on the second floor during my first stay which was the first week the hotel was open. The room was spacious and was outfitted well.  I always appreciate new hotels like this one who include USB plugs along with traditional Edison plugs near the desk and bed.  The bed was very comfortable and I slept well on it both times.  There are two comfortable sitting chairs with ottomans.  The desk is spacious and has plenty of power and a lamp to light the space.  I had no issues with the TV, which had a great variety of channels.  There is adequate drawer space for those on longer stays.  One very minor annoyance was the bright light that flashes on the smoke detector.  It's quite bright when the room is dark and disrupted my sleep a little.   The wi-fi here is free and is lightning fast! I literally had 85.13 mbps down and 86.22 up! Unheard of for hotel internet. The bathroom is spacious and well-appointed with the necessary essentials.  I like the big walk-in shower, too.  I had an issue with the commode not flushing on my first stay and the maintenance staff was quick to respond and get it fixed.  The staff member at the front desk I mentioned it to even came up to the room to make sure it was taken care of.  That's quality service.  The rooms are very quiet, even the first room I had that faced the highway.  My second stay was on the Club level.  I'm usually a Hilton guy, so I don't know what is standard for Sheratons, but differences that I could see on this level were more items in the bathroom, both consumables like cotton balls &amp; q-tips, and an electronic scale.  The bed may have a heavier duvet than the regular rooms, too.  Visiting the Club lounge was enjoyable in the evening with chicken wings, meatballs, and other bite-size food.  In addition, there was a cheese plate and other items.  Beer &amp; wine were available for a charge, along with complimentary water &amp; sodas.  I didn't catch her name, but the woman attending the lounge in the evening was pleasant and great to talk to.  The morning breakfast had one hot item,  an cheesy egg dish.  There were multiple breads/pastries, cereal, and juices as well.  I was a little surprised the juices weren't keep in a chilled container.  Same with the yogurt parfait- I came at the end of the breakfast cycle and it was getting a bit warm.  This Sheraton is in a great location with easy access to both I75 and the Sam Rayburn Tollway (121).  It is next door to the Collin College Higher Education Center, and just a 1-2 minute drive to the McKinney Hospital.  There are a multitude of dining and shopping options in the area as well.  Overall, the McKinney team and Sheraton have done a great job with this hotel, and I look forward to many more stays here!More</t>
+  </si>
+  <si>
+    <t>Keith M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56260-d7263060-r259761853-Sheraton_McKinney_Hotel-McKinney_Texas.html</t>
@@ -3124,43 +3424,47 @@
       <c r="A2" t="n">
         <v>63529</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>2644</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3172,56 +3476,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>63529</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>3734</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3233,56 +3541,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>63529</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>73645</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3298,56 +3610,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>63529</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>177314</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" t="s">
         <v>76</v>
-      </c>
-      <c r="J5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" t="s">
-        <v>73</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -3363,56 +3679,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>63529</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>21208</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>80</v>
-      </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3426,50 +3746,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>63529</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>41297</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3481,56 +3805,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>63529</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>177315</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>100</v>
       </c>
-      <c r="K8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>94</v>
-      </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3542,56 +3870,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>63529</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>7885</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J9" t="s">
         <v>107</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>100</v>
       </c>
-      <c r="K9" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>94</v>
-      </c>
       <c r="O9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3603,56 +3935,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="X9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>63529</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>177316</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3664,56 +4000,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="X10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>63529</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>177317</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3731,50 +4071,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>63529</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>177318</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3786,56 +4130,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="X12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>63529</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>177319</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O13" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3847,47 +4195,51 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="X13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>63529</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>177320</v>
+      </c>
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
@@ -3904,56 +4256,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="X14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="Y14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>63529</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>177321</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>152</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>153</v>
-      </c>
-      <c r="J15" t="s">
-        <v>146</v>
-      </c>
-      <c r="K15" t="s">
-        <v>154</v>
-      </c>
-      <c r="L15" t="s">
-        <v>155</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>140</v>
-      </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3965,56 +4321,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>63529</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>177322</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4026,56 +4386,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="X16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>63529</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>177323</v>
+      </c>
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4087,56 +4451,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="X17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>63529</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>64030</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="J18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -4154,56 +4522,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>63529</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>139559</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s">
+        <v>204</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>186</v>
       </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>170</v>
-      </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -4221,56 +4593,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="X19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>63529</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>9229</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4282,56 +4658,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="X20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>63529</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>177324</v>
+      </c>
+      <c r="C21" t="s">
+        <v>218</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4343,56 +4723,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="X21" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="Y21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>63529</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>177325</v>
+      </c>
+      <c r="C22" t="s">
+        <v>225</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -4408,56 +4792,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="X22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="Y22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>63529</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>177326</v>
+      </c>
+      <c r="C23" t="s">
+        <v>234</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
+        <v>236</v>
+      </c>
+      <c r="J23" t="s">
+        <v>237</v>
+      </c>
+      <c r="K23" t="s">
+        <v>238</v>
+      </c>
+      <c r="L23" t="s">
+        <v>239</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>214</v>
       </c>
-      <c r="J23" t="s">
-        <v>215</v>
-      </c>
-      <c r="K23" t="s">
-        <v>216</v>
-      </c>
-      <c r="L23" t="s">
-        <v>217</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>195</v>
-      </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4475,56 +4863,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="X23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="Y23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>63529</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>177327</v>
+      </c>
+      <c r="C24" t="s">
+        <v>243</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="J24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="K24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="L24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4536,56 +4928,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="X24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="Y24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>63529</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>3756</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="J25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="K25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4597,56 +4993,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="X25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>63529</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>14903</v>
+      </c>
+      <c r="C26" t="s">
+        <v>263</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4658,56 +5058,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="X26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="Y26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>63529</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>36692</v>
+      </c>
+      <c r="C27" t="s">
+        <v>273</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="J27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="K27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="L27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -4723,56 +5127,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="X27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="Y27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>63529</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>61846</v>
+      </c>
+      <c r="C28" t="s">
+        <v>282</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="J28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="K28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="O28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4790,56 +5198,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="X28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="Y28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>63529</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>177328</v>
+      </c>
+      <c r="C29" t="s">
+        <v>292</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="J29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="L29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="O29" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4851,56 +5263,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="X29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="Y29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>63529</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>177329</v>
+      </c>
+      <c r="C30" t="s">
+        <v>302</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="J30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="K30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="O30" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4916,56 +5332,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="X30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="Y30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>63529</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>123385</v>
+      </c>
+      <c r="C31" t="s">
+        <v>311</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="J31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="K31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="L31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="O31" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4983,56 +5403,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="X31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="Y31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>63529</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>177330</v>
+      </c>
+      <c r="C32" t="s">
+        <v>320</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="J32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="K32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="L32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="O32" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5048,56 +5472,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="X32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="Y32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>63529</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>177331</v>
+      </c>
+      <c r="C33" t="s">
+        <v>329</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
+        <v>330</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>331</v>
+      </c>
+      <c r="J33" t="s">
+        <v>323</v>
+      </c>
+      <c r="K33" t="s">
+        <v>332</v>
+      </c>
+      <c r="L33" t="s">
+        <v>333</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>298</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>299</v>
-      </c>
-      <c r="J33" t="s">
-        <v>292</v>
-      </c>
-      <c r="K33" t="s">
-        <v>300</v>
-      </c>
-      <c r="L33" t="s">
-        <v>301</v>
-      </c>
-      <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>270</v>
-      </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5109,56 +5537,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="X33" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="Y33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>63529</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>177332</v>
+      </c>
+      <c r="C34" t="s">
+        <v>335</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="J34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="K34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="L34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="O34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5170,56 +5602,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="X34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="Y34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>63529</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>8308</v>
+      </c>
+      <c r="C35" t="s">
+        <v>344</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="J35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="K35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="L35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="O35" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5231,56 +5667,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="X35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="Y35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>63529</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>1837</v>
+      </c>
+      <c r="C36" t="s">
+        <v>353</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="J36" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="K36" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="L36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="O36" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5292,56 +5732,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="X36" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="Y36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>63529</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>113025</v>
+      </c>
+      <c r="C37" t="s">
+        <v>360</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="J37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="K37" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="L37" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="O37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5353,56 +5797,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="X37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="Y37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>63529</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>177333</v>
+      </c>
+      <c r="C38" t="s">
+        <v>369</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="J38" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="K38" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="L38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5414,56 +5862,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="X38" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="Y38" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>63529</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>177334</v>
+      </c>
+      <c r="C39" t="s">
+        <v>379</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="J39" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="K39" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="L39" t="s">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="O39" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5475,56 +5927,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="X39" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="Y39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>63529</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>23651</v>
+      </c>
+      <c r="C40" t="s">
+        <v>385</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="J40" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="K40" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="L40" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="O40" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5536,56 +5992,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="X40" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="Y40" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>63529</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>7363</v>
+      </c>
+      <c r="C41" t="s">
+        <v>395</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="J41" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="K41" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
       <c r="L41" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5597,56 +6057,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="X41" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="Y41" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>63529</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>177335</v>
+      </c>
+      <c r="C42" t="s">
+        <v>405</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="J42" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="K42" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="L42" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5658,56 +6122,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
       <c r="X42" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="Y42" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>63529</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>177336</v>
+      </c>
+      <c r="C43" t="s">
+        <v>412</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="J43" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="K43" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="L43" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="O43" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5719,56 +6187,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="X43" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="Y43" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>63529</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>177337</v>
+      </c>
+      <c r="C44" t="s">
+        <v>422</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="J44" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="K44" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="L44" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="O44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5784,56 +6256,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="X44" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="Y44" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>63529</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>177338</v>
+      </c>
+      <c r="C45" t="s">
+        <v>431</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="J45" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="K45" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="L45" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="O45" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5845,56 +6321,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="X45" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="Y45" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>63529</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>43970</v>
+      </c>
+      <c r="C46" t="s">
+        <v>437</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="J46" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="K46" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="L46" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5912,56 +6392,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="X46" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="Y46" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>63529</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>446</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="J47" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="K47" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="L47" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5973,56 +6457,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="X47" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="Y47" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>63529</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>175332</v>
+      </c>
+      <c r="C48" t="s">
+        <v>455</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="J48" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="K48" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="L48" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="O48" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -6040,56 +6528,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="X48" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="Y48" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>63529</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>104333</v>
+      </c>
+      <c r="C49" t="s">
+        <v>464</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
+        <v>466</v>
+      </c>
+      <c r="J49" t="s">
+        <v>467</v>
+      </c>
+      <c r="K49" t="s">
+        <v>468</v>
+      </c>
+      <c r="L49" t="s">
+        <v>469</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
         <v>418</v>
       </c>
-      <c r="J49" t="s">
-        <v>419</v>
-      </c>
-      <c r="K49" t="s">
-        <v>420</v>
-      </c>
-      <c r="L49" t="s">
-        <v>421</v>
-      </c>
-      <c r="M49" t="n">
-        <v>5</v>
-      </c>
-      <c r="N49" t="s">
-        <v>376</v>
-      </c>
       <c r="O49" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6101,56 +6593,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="X49" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="Y49" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>63529</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>61811</v>
+      </c>
+      <c r="C50" t="s">
+        <v>473</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="J50" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="K50" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="L50" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="O50" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6168,56 +6664,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="X50" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
       <c r="Y50" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>63529</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>177339</v>
+      </c>
+      <c r="C51" t="s">
+        <v>483</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="J51" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="K51" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="L51" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
       <c r="O51" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6229,56 +6729,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="X51" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="Y51" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>63529</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>177340</v>
+      </c>
+      <c r="C52" t="s">
+        <v>492</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="J52" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="K52" t="s">
-        <v>445</v>
+        <v>496</v>
       </c>
       <c r="L52" t="s">
-        <v>446</v>
+        <v>497</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="O52" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6292,56 +6796,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>448</v>
+        <v>499</v>
       </c>
       <c r="X52" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="Y52" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>63529</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>177341</v>
+      </c>
+      <c r="C53" t="s">
+        <v>502</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="J53" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="K53" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="L53" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="O53" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6359,56 +6867,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="X53" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="Y53" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>63529</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>177342</v>
+      </c>
+      <c r="C54" t="s">
+        <v>511</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="J54" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
       <c r="K54" t="s">
-        <v>462</v>
+        <v>515</v>
       </c>
       <c r="L54" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="O54" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6424,56 +6936,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="X54" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="Y54" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>63529</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>177343</v>
+      </c>
+      <c r="C55" t="s">
+        <v>520</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="J55" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
       <c r="K55" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="L55" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="O55" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6491,56 +7007,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="X55" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="Y55" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>63529</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>177344</v>
+      </c>
+      <c r="C56" t="s">
+        <v>527</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="J56" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="K56" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="L56" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="O56" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6552,56 +7072,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="X56" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="Y56" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>63529</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>177318</v>
+      </c>
+      <c r="C57" t="s">
+        <v>146</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="J57" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="K57" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="L57" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>447</v>
+        <v>498</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6619,47 +7143,51 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="X57" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="Y57" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>63529</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>177345</v>
+      </c>
+      <c r="C58" t="s">
+        <v>541</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="J58" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="K58" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="L58" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
@@ -6676,56 +7204,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="X58" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="Y58" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>63529</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>177346</v>
+      </c>
+      <c r="C59" t="s">
+        <v>550</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="J59" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="K59" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="L59" t="s">
+        <v>555</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
         <v>498</v>
       </c>
-      <c r="M59" t="n">
-        <v>5</v>
-      </c>
-      <c r="N59" t="s">
-        <v>447</v>
-      </c>
       <c r="O59" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6743,56 +7275,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="X59" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="Y59" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>63529</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>24241</v>
+      </c>
+      <c r="C60" t="s">
+        <v>557</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="J60" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="K60" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="L60" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="O60" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6804,56 +7340,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>464</v>
+        <v>517</v>
       </c>
       <c r="X60" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="Y60" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>63529</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>36717</v>
+      </c>
+      <c r="C61" t="s">
+        <v>565</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="J61" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="K61" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="L61" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="O61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -6871,56 +7411,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="X61" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="Y61" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>63529</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>45030</v>
+      </c>
+      <c r="C62" t="s">
+        <v>573</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="J62" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="K62" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
       <c r="L62" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="O62" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6938,56 +7482,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>519</v>
+        <v>579</v>
       </c>
       <c r="X62" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="Y62" t="s">
-        <v>521</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>63529</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>177347</v>
+      </c>
+      <c r="C63" t="s">
+        <v>582</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="J63" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="K63" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="L63" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="O63" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6999,56 +7547,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>519</v>
+        <v>579</v>
       </c>
       <c r="X63" t="s">
-        <v>520</v>
+        <v>580</v>
       </c>
       <c r="Y63" t="s">
-        <v>527</v>
+        <v>588</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>63529</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>177348</v>
+      </c>
+      <c r="C64" t="s">
+        <v>589</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="J64" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="K64" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="L64" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="O64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -7060,56 +7612,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
       <c r="X64" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="Y64" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>63529</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>177349</v>
+      </c>
+      <c r="C65" t="s">
+        <v>598</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>536</v>
+        <v>599</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="J65" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="K65" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="L65" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="O65" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="n">
@@ -7125,47 +7681,51 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="X65" t="s">
-        <v>542</v>
+        <v>605</v>
       </c>
       <c r="Y65" t="s">
-        <v>543</v>
+        <v>606</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>63529</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>177350</v>
+      </c>
+      <c r="C66" t="s">
+        <v>607</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="J66" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="K66" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
       <c r="L66" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
@@ -7182,56 +7742,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="X66" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="Y66" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>63529</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>58584</v>
+      </c>
+      <c r="C67" t="s">
+        <v>616</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>552</v>
+        <v>617</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="J67" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="K67" t="s">
-        <v>555</v>
+        <v>620</v>
       </c>
       <c r="L67" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="O67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -7243,56 +7807,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="X67" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="Y67" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>63529</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>321</v>
+      </c>
+      <c r="C68" t="s">
+        <v>626</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>561</v>
+        <v>627</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>562</v>
+        <v>628</v>
       </c>
       <c r="J68" t="s">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="K68" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
       <c r="L68" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="O68" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -7308,56 +7876,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="X68" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="Y68" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>63529</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>177351</v>
+      </c>
+      <c r="C69" t="s">
+        <v>635</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>569</v>
+        <v>636</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="J69" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="K69" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
       <c r="L69" t="s">
-        <v>573</v>
+        <v>640</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="O69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7369,56 +7941,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>574</v>
+        <v>641</v>
       </c>
       <c r="X69" t="s">
-        <v>575</v>
+        <v>642</v>
       </c>
       <c r="Y69" t="s">
-        <v>576</v>
+        <v>643</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>63529</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>34250</v>
+      </c>
+      <c r="C70" t="s">
+        <v>644</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="J70" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="K70" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="L70" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
       <c r="O70" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="n">
@@ -7434,56 +8010,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>574</v>
+        <v>641</v>
       </c>
       <c r="X70" t="s">
-        <v>575</v>
+        <v>642</v>
       </c>
       <c r="Y70" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>63529</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>177352</v>
+      </c>
+      <c r="C71" t="s">
+        <v>651</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>583</v>
+        <v>652</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
       <c r="J71" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="K71" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
       <c r="L71" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="O71" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7495,56 +8075,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="X71" t="s">
-        <v>589</v>
+        <v>658</v>
       </c>
       <c r="Y71" t="s">
-        <v>590</v>
+        <v>659</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>63529</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>177353</v>
+      </c>
+      <c r="C72" t="s">
+        <v>660</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="J72" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="K72" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="L72" t="s">
-        <v>595</v>
+        <v>665</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>596</v>
+        <v>666</v>
       </c>
       <c r="O72" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7562,47 +8146,51 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>597</v>
+        <v>667</v>
       </c>
       <c r="X72" t="s">
-        <v>598</v>
+        <v>668</v>
       </c>
       <c r="Y72" t="s">
-        <v>599</v>
+        <v>669</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>63529</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>177354</v>
+      </c>
+      <c r="C73" t="s">
+        <v>670</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>600</v>
+        <v>671</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>601</v>
+        <v>672</v>
       </c>
       <c r="J73" t="s">
-        <v>602</v>
+        <v>673</v>
       </c>
       <c r="K73" t="s">
-        <v>603</v>
+        <v>674</v>
       </c>
       <c r="L73" t="s">
-        <v>604</v>
+        <v>675</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
@@ -7619,56 +8207,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>605</v>
+        <v>676</v>
       </c>
       <c r="X73" t="s">
-        <v>606</v>
+        <v>677</v>
       </c>
       <c r="Y73" t="s">
-        <v>607</v>
+        <v>678</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>63529</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>28443</v>
+      </c>
+      <c r="C74" t="s">
+        <v>679</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>608</v>
+        <v>680</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>609</v>
+        <v>681</v>
       </c>
       <c r="J74" t="s">
-        <v>610</v>
+        <v>682</v>
       </c>
       <c r="K74" t="s">
-        <v>611</v>
+        <v>683</v>
       </c>
       <c r="L74" t="s">
-        <v>612</v>
+        <v>684</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>613</v>
+        <v>685</v>
       </c>
       <c r="O74" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7680,56 +8272,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>614</v>
+        <v>686</v>
       </c>
       <c r="X74" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
       <c r="Y74" t="s">
-        <v>616</v>
+        <v>688</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>63529</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>177355</v>
+      </c>
+      <c r="C75" t="s">
+        <v>689</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>617</v>
+        <v>690</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>618</v>
+        <v>691</v>
       </c>
       <c r="J75" t="s">
-        <v>619</v>
+        <v>692</v>
       </c>
       <c r="K75" t="s">
-        <v>620</v>
+        <v>693</v>
       </c>
       <c r="L75" t="s">
-        <v>621</v>
+        <v>694</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>622</v>
+        <v>695</v>
       </c>
       <c r="O75" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7747,56 +8343,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>623</v>
+        <v>696</v>
       </c>
       <c r="X75" t="s">
-        <v>624</v>
+        <v>697</v>
       </c>
       <c r="Y75" t="s">
-        <v>625</v>
+        <v>698</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>63529</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>177356</v>
+      </c>
+      <c r="C76" t="s">
+        <v>699</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>627</v>
+        <v>701</v>
       </c>
       <c r="J76" t="s">
-        <v>628</v>
+        <v>702</v>
       </c>
       <c r="K76" t="s">
-        <v>629</v>
+        <v>703</v>
       </c>
       <c r="L76" t="s">
-        <v>630</v>
+        <v>704</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>622</v>
+        <v>695</v>
       </c>
       <c r="O76" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7814,56 +8414,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>631</v>
+        <v>705</v>
       </c>
       <c r="X76" t="s">
-        <v>632</v>
+        <v>706</v>
       </c>
       <c r="Y76" t="s">
-        <v>633</v>
+        <v>707</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>63529</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>44821</v>
+      </c>
+      <c r="C77" t="s">
+        <v>708</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>634</v>
+        <v>709</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="J77" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="K77" t="s">
-        <v>637</v>
+        <v>712</v>
       </c>
       <c r="L77" t="s">
-        <v>638</v>
+        <v>713</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>639</v>
+        <v>714</v>
       </c>
       <c r="O77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7881,56 +8485,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>640</v>
+        <v>715</v>
       </c>
       <c r="X77" t="s">
-        <v>641</v>
+        <v>716</v>
       </c>
       <c r="Y77" t="s">
-        <v>642</v>
+        <v>717</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>63529</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>177357</v>
+      </c>
+      <c r="C78" t="s">
+        <v>718</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>643</v>
+        <v>719</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>644</v>
+        <v>720</v>
       </c>
       <c r="J78" t="s">
-        <v>645</v>
+        <v>721</v>
       </c>
       <c r="K78" t="s">
-        <v>646</v>
+        <v>722</v>
       </c>
       <c r="L78" t="s">
-        <v>647</v>
+        <v>723</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>622</v>
+        <v>695</v>
       </c>
       <c r="O78" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -7946,56 +8554,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>648</v>
+        <v>724</v>
       </c>
       <c r="X78" t="s">
-        <v>649</v>
+        <v>725</v>
       </c>
       <c r="Y78" t="s">
-        <v>650</v>
+        <v>726</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>63529</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>177358</v>
+      </c>
+      <c r="C79" t="s">
+        <v>727</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>651</v>
+        <v>728</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>652</v>
+        <v>729</v>
       </c>
       <c r="J79" t="s">
-        <v>653</v>
+        <v>730</v>
       </c>
       <c r="K79" t="s">
-        <v>654</v>
+        <v>731</v>
       </c>
       <c r="L79" t="s">
-        <v>655</v>
+        <v>732</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>639</v>
+        <v>714</v>
       </c>
       <c r="O79" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="s"/>
@@ -8007,56 +8619,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>656</v>
+        <v>733</v>
       </c>
       <c r="X79" t="s">
-        <v>657</v>
+        <v>734</v>
       </c>
       <c r="Y79" t="s">
-        <v>658</v>
+        <v>735</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>63529</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>177359</v>
+      </c>
+      <c r="C80" t="s">
+        <v>736</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>659</v>
+        <v>737</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>660</v>
+        <v>738</v>
       </c>
       <c r="J80" t="s">
-        <v>661</v>
+        <v>739</v>
       </c>
       <c r="K80" t="s">
-        <v>662</v>
+        <v>740</v>
       </c>
       <c r="L80" t="s">
-        <v>663</v>
+        <v>741</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>639</v>
+        <v>714</v>
       </c>
       <c r="O80" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P80" t="s"/>
       <c r="Q80" t="s"/>
@@ -8068,56 +8684,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>664</v>
+        <v>742</v>
       </c>
       <c r="X80" t="s">
-        <v>665</v>
+        <v>743</v>
       </c>
       <c r="Y80" t="s">
-        <v>666</v>
+        <v>744</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>63529</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>83350</v>
+      </c>
+      <c r="C81" t="s">
+        <v>745</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>667</v>
+        <v>746</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>668</v>
+        <v>747</v>
       </c>
       <c r="J81" t="s">
-        <v>669</v>
+        <v>748</v>
       </c>
       <c r="K81" t="s">
-        <v>670</v>
+        <v>749</v>
       </c>
       <c r="L81" t="s">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>672</v>
+        <v>751</v>
       </c>
       <c r="O81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -8129,56 +8749,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>673</v>
+        <v>752</v>
       </c>
       <c r="X81" t="s">
-        <v>674</v>
+        <v>753</v>
       </c>
       <c r="Y81" t="s">
-        <v>675</v>
+        <v>754</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>63529</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>43820</v>
+      </c>
+      <c r="C82" t="s">
+        <v>755</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>676</v>
+        <v>756</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>677</v>
+        <v>757</v>
       </c>
       <c r="J82" t="s">
-        <v>678</v>
+        <v>758</v>
       </c>
       <c r="K82" t="s">
-        <v>679</v>
+        <v>759</v>
       </c>
       <c r="L82" t="s">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>672</v>
+        <v>751</v>
       </c>
       <c r="O82" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -8196,56 +8820,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>681</v>
+        <v>761</v>
       </c>
       <c r="X82" t="s">
-        <v>682</v>
+        <v>762</v>
       </c>
       <c r="Y82" t="s">
-        <v>683</v>
+        <v>763</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>63529</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>24231</v>
+      </c>
+      <c r="C83" t="s">
+        <v>764</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>684</v>
+        <v>765</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>685</v>
+        <v>766</v>
       </c>
       <c r="J83" t="s">
-        <v>686</v>
+        <v>767</v>
       </c>
       <c r="K83" t="s">
-        <v>687</v>
+        <v>768</v>
       </c>
       <c r="L83" t="s">
-        <v>688</v>
+        <v>769</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>689</v>
+        <v>770</v>
       </c>
       <c r="O83" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="n">
@@ -8261,56 +8889,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>690</v>
+        <v>771</v>
       </c>
       <c r="X83" t="s">
-        <v>691</v>
+        <v>772</v>
       </c>
       <c r="Y83" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>63529</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>177360</v>
+      </c>
+      <c r="C84" t="s">
+        <v>774</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>693</v>
+        <v>775</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>694</v>
+        <v>776</v>
       </c>
       <c r="J84" t="s">
-        <v>695</v>
+        <v>777</v>
       </c>
       <c r="K84" t="s">
-        <v>696</v>
+        <v>778</v>
       </c>
       <c r="L84" t="s">
-        <v>697</v>
+        <v>779</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>689</v>
+        <v>770</v>
       </c>
       <c r="O84" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="s"/>
@@ -8322,56 +8954,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>698</v>
+        <v>780</v>
       </c>
       <c r="X84" t="s">
-        <v>699</v>
+        <v>781</v>
       </c>
       <c r="Y84" t="s">
-        <v>700</v>
+        <v>782</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>63529</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>446</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>701</v>
+        <v>783</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>702</v>
+        <v>784</v>
       </c>
       <c r="J85" t="s">
-        <v>703</v>
+        <v>785</v>
       </c>
       <c r="K85" t="s">
-        <v>704</v>
+        <v>786</v>
       </c>
       <c r="L85" t="s">
-        <v>705</v>
+        <v>787</v>
       </c>
       <c r="M85" t="n">
         <v>2</v>
       </c>
       <c r="N85" t="s">
-        <v>689</v>
+        <v>770</v>
       </c>
       <c r="O85" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P85" t="s"/>
       <c r="Q85" t="s"/>
@@ -8383,56 +9019,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>706</v>
+        <v>788</v>
       </c>
       <c r="X85" t="s">
-        <v>707</v>
+        <v>789</v>
       </c>
       <c r="Y85" t="s">
-        <v>708</v>
+        <v>790</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>63529</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>304</v>
+      </c>
+      <c r="C86" t="s">
+        <v>791</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>709</v>
+        <v>792</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>710</v>
+        <v>793</v>
       </c>
       <c r="J86" t="s">
-        <v>711</v>
+        <v>794</v>
       </c>
       <c r="K86" t="s">
-        <v>712</v>
+        <v>795</v>
       </c>
       <c r="L86" t="s">
-        <v>713</v>
+        <v>796</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>714</v>
+        <v>797</v>
       </c>
       <c r="O86" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -8450,56 +9090,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>715</v>
+        <v>798</v>
       </c>
       <c r="X86" t="s">
-        <v>716</v>
+        <v>799</v>
       </c>
       <c r="Y86" t="s">
-        <v>717</v>
+        <v>800</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>63529</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>177361</v>
+      </c>
+      <c r="C87" t="s">
+        <v>801</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>718</v>
+        <v>802</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>719</v>
+        <v>803</v>
       </c>
       <c r="J87" t="s">
-        <v>720</v>
+        <v>804</v>
       </c>
       <c r="K87" t="s">
-        <v>721</v>
+        <v>805</v>
       </c>
       <c r="L87" t="s">
-        <v>722</v>
+        <v>806</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>714</v>
+        <v>797</v>
       </c>
       <c r="O87" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P87" t="s"/>
       <c r="Q87" t="s"/>
@@ -8511,56 +9155,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>723</v>
+        <v>807</v>
       </c>
       <c r="X87" t="s">
-        <v>724</v>
+        <v>808</v>
       </c>
       <c r="Y87" t="s">
-        <v>725</v>
+        <v>809</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>63529</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>135149</v>
+      </c>
+      <c r="C88" t="s">
+        <v>810</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>726</v>
+        <v>811</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>727</v>
+        <v>812</v>
       </c>
       <c r="J88" t="s">
-        <v>728</v>
+        <v>813</v>
       </c>
       <c r="K88" t="s">
-        <v>729</v>
+        <v>814</v>
       </c>
       <c r="L88" t="s">
-        <v>730</v>
+        <v>815</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>714</v>
+        <v>797</v>
       </c>
       <c r="O88" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="s"/>
@@ -8572,56 +9220,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>723</v>
+        <v>807</v>
       </c>
       <c r="X88" t="s">
-        <v>724</v>
+        <v>808</v>
       </c>
       <c r="Y88" t="s">
-        <v>731</v>
+        <v>816</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>63529</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>177362</v>
+      </c>
+      <c r="C89" t="s">
+        <v>817</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>732</v>
+        <v>818</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>733</v>
+        <v>819</v>
       </c>
       <c r="J89" t="s">
-        <v>734</v>
+        <v>820</v>
       </c>
       <c r="K89" t="s">
-        <v>735</v>
+        <v>821</v>
       </c>
       <c r="L89" t="s">
-        <v>736</v>
+        <v>822</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>714</v>
+        <v>797</v>
       </c>
       <c r="O89" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P89" t="s"/>
       <c r="Q89" t="n">
@@ -8639,56 +9291,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>737</v>
+        <v>823</v>
       </c>
       <c r="X89" t="s">
-        <v>738</v>
+        <v>824</v>
       </c>
       <c r="Y89" t="s">
-        <v>739</v>
+        <v>825</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>63529</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>177363</v>
+      </c>
+      <c r="C90" t="s">
+        <v>826</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>740</v>
+        <v>827</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>741</v>
+        <v>828</v>
       </c>
       <c r="J90" t="s">
-        <v>742</v>
+        <v>829</v>
       </c>
       <c r="K90" t="s">
-        <v>743</v>
+        <v>830</v>
       </c>
       <c r="L90" t="s">
-        <v>744</v>
+        <v>831</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>714</v>
+        <v>797</v>
       </c>
       <c r="O90" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P90" t="s"/>
       <c r="Q90" t="s"/>
@@ -8700,56 +9356,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>745</v>
+        <v>832</v>
       </c>
       <c r="X90" t="s">
-        <v>746</v>
+        <v>833</v>
       </c>
       <c r="Y90" t="s">
-        <v>747</v>
+        <v>834</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>63529</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>177364</v>
+      </c>
+      <c r="C91" t="s">
+        <v>835</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>748</v>
+        <v>836</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>749</v>
+        <v>837</v>
       </c>
       <c r="J91" t="s">
-        <v>750</v>
+        <v>838</v>
       </c>
       <c r="K91" t="s">
-        <v>751</v>
+        <v>839</v>
       </c>
       <c r="L91" t="s">
-        <v>752</v>
+        <v>840</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>714</v>
+        <v>797</v>
       </c>
       <c r="O91" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8765,56 +9425,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>753</v>
+        <v>841</v>
       </c>
       <c r="X91" t="s">
-        <v>754</v>
+        <v>842</v>
       </c>
       <c r="Y91" t="s">
-        <v>755</v>
+        <v>843</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>63529</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>177365</v>
+      </c>
+      <c r="C92" t="s">
+        <v>844</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>756</v>
+        <v>845</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>757</v>
+        <v>846</v>
       </c>
       <c r="J92" t="s">
-        <v>758</v>
+        <v>847</v>
       </c>
       <c r="K92" t="s">
-        <v>759</v>
+        <v>848</v>
       </c>
       <c r="L92" t="s">
-        <v>760</v>
+        <v>849</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>761</v>
+        <v>850</v>
       </c>
       <c r="O92" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8832,56 +9496,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>762</v>
+        <v>851</v>
       </c>
       <c r="X92" t="s">
-        <v>763</v>
+        <v>852</v>
       </c>
       <c r="Y92" t="s">
-        <v>764</v>
+        <v>853</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>63529</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>3640</v>
+      </c>
+      <c r="C93" t="s">
+        <v>854</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>765</v>
+        <v>855</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>766</v>
+        <v>856</v>
       </c>
       <c r="J93" t="s">
-        <v>767</v>
+        <v>857</v>
       </c>
       <c r="K93" t="s">
-        <v>768</v>
+        <v>858</v>
       </c>
       <c r="L93" t="s">
-        <v>769</v>
+        <v>859</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>770</v>
+        <v>860</v>
       </c>
       <c r="O93" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="n">
@@ -8899,56 +9567,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>762</v>
+        <v>851</v>
       </c>
       <c r="X93" t="s">
-        <v>763</v>
+        <v>852</v>
       </c>
       <c r="Y93" t="s">
-        <v>771</v>
+        <v>861</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>63529</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>13798</v>
+      </c>
+      <c r="C94" t="s">
+        <v>862</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>772</v>
+        <v>863</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>773</v>
+        <v>864</v>
       </c>
       <c r="J94" t="s">
-        <v>774</v>
+        <v>865</v>
       </c>
       <c r="K94" t="s">
-        <v>775</v>
+        <v>866</v>
       </c>
       <c r="L94" t="s">
-        <v>776</v>
+        <v>867</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>770</v>
+        <v>860</v>
       </c>
       <c r="O94" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P94" t="s"/>
       <c r="Q94" t="s"/>
@@ -8964,56 +9636,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>762</v>
+        <v>851</v>
       </c>
       <c r="X94" t="s">
-        <v>763</v>
+        <v>852</v>
       </c>
       <c r="Y94" t="s">
-        <v>777</v>
+        <v>868</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>63529</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>177366</v>
+      </c>
+      <c r="C95" t="s">
+        <v>869</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>778</v>
+        <v>870</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>779</v>
+        <v>871</v>
       </c>
       <c r="J95" t="s">
-        <v>780</v>
+        <v>872</v>
       </c>
       <c r="K95" t="s">
-        <v>781</v>
+        <v>873</v>
       </c>
       <c r="L95" t="s">
-        <v>782</v>
+        <v>874</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>770</v>
+        <v>860</v>
       </c>
       <c r="O95" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P95" t="n">
         <v>3</v>
@@ -9031,56 +9707,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>783</v>
+        <v>875</v>
       </c>
       <c r="X95" t="s">
-        <v>784</v>
+        <v>876</v>
       </c>
       <c r="Y95" t="s">
-        <v>785</v>
+        <v>877</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>63529</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>177367</v>
+      </c>
+      <c r="C96" t="s">
+        <v>878</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>786</v>
+        <v>879</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>787</v>
+        <v>880</v>
       </c>
       <c r="J96" t="s">
-        <v>788</v>
+        <v>881</v>
       </c>
       <c r="K96" t="s">
-        <v>789</v>
+        <v>882</v>
       </c>
       <c r="L96" t="s">
-        <v>790</v>
+        <v>883</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>770</v>
+        <v>860</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9098,56 +9778,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>791</v>
+        <v>884</v>
       </c>
       <c r="X96" t="s">
-        <v>792</v>
+        <v>885</v>
       </c>
       <c r="Y96" t="s">
-        <v>793</v>
+        <v>886</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>63529</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>177368</v>
+      </c>
+      <c r="C97" t="s">
+        <v>887</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>794</v>
+        <v>888</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>795</v>
+        <v>889</v>
       </c>
       <c r="J97" t="s">
-        <v>796</v>
+        <v>890</v>
       </c>
       <c r="K97" t="s">
-        <v>797</v>
+        <v>891</v>
       </c>
       <c r="L97" t="s">
-        <v>798</v>
+        <v>892</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>799</v>
+        <v>893</v>
       </c>
       <c r="O97" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9165,56 +9849,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>791</v>
+        <v>884</v>
       </c>
       <c r="X97" t="s">
-        <v>792</v>
+        <v>885</v>
       </c>
       <c r="Y97" t="s">
-        <v>800</v>
+        <v>894</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>63529</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>177369</v>
+      </c>
+      <c r="C98" t="s">
+        <v>895</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>801</v>
+        <v>896</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>802</v>
+        <v>897</v>
       </c>
       <c r="J98" t="s">
-        <v>803</v>
+        <v>898</v>
       </c>
       <c r="K98" t="s">
-        <v>804</v>
+        <v>899</v>
       </c>
       <c r="L98" t="s">
-        <v>805</v>
+        <v>900</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>799</v>
+        <v>893</v>
       </c>
       <c r="O98" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9230,56 +9918,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>806</v>
+        <v>901</v>
       </c>
       <c r="X98" t="s">
-        <v>807</v>
+        <v>902</v>
       </c>
       <c r="Y98" t="s">
-        <v>808</v>
+        <v>903</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>63529</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>177370</v>
+      </c>
+      <c r="C99" t="s">
+        <v>904</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>809</v>
+        <v>905</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>810</v>
+        <v>906</v>
       </c>
       <c r="J99" t="s">
-        <v>811</v>
+        <v>907</v>
       </c>
       <c r="K99" t="s">
-        <v>812</v>
+        <v>908</v>
       </c>
       <c r="L99" t="s">
-        <v>813</v>
+        <v>909</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="O99" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P99" t="s"/>
       <c r="Q99" t="s"/>
@@ -9297,56 +9989,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="X99" t="s">
-        <v>816</v>
+        <v>912</v>
       </c>
       <c r="Y99" t="s">
-        <v>817</v>
+        <v>913</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>63529</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>177371</v>
+      </c>
+      <c r="C100" t="s">
+        <v>914</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>818</v>
+        <v>915</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>819</v>
+        <v>916</v>
       </c>
       <c r="J100" t="s">
-        <v>820</v>
+        <v>917</v>
       </c>
       <c r="K100" t="s">
-        <v>821</v>
+        <v>918</v>
       </c>
       <c r="L100" t="s">
-        <v>822</v>
+        <v>919</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>799</v>
+        <v>893</v>
       </c>
       <c r="O100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P100" t="s"/>
       <c r="Q100" t="s"/>
@@ -9358,56 +10054,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>823</v>
+        <v>920</v>
       </c>
       <c r="X100" t="s">
-        <v>824</v>
+        <v>921</v>
       </c>
       <c r="Y100" t="s">
-        <v>825</v>
+        <v>922</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>63529</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>177372</v>
+      </c>
+      <c r="C101" t="s">
+        <v>923</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>826</v>
+        <v>924</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>827</v>
+        <v>925</v>
       </c>
       <c r="J101" t="s">
-        <v>828</v>
+        <v>926</v>
       </c>
       <c r="K101" t="s">
-        <v>829</v>
+        <v>927</v>
       </c>
       <c r="L101" t="s">
-        <v>830</v>
+        <v>928</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P101" t="s"/>
       <c r="Q101" t="n">
@@ -9425,56 +10125,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>831</v>
+        <v>929</v>
       </c>
       <c r="X101" t="s">
-        <v>832</v>
+        <v>930</v>
       </c>
       <c r="Y101" t="s">
-        <v>833</v>
+        <v>931</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>63529</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>25590</v>
+      </c>
+      <c r="C102" t="s">
+        <v>932</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>834</v>
+        <v>933</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>835</v>
+        <v>934</v>
       </c>
       <c r="J102" t="s">
-        <v>836</v>
+        <v>935</v>
       </c>
       <c r="K102" t="s">
-        <v>837</v>
+        <v>936</v>
       </c>
       <c r="L102" t="s">
-        <v>838</v>
+        <v>937</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9492,56 +10196,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>839</v>
+        <v>938</v>
       </c>
       <c r="X102" t="s">
-        <v>840</v>
+        <v>939</v>
       </c>
       <c r="Y102" t="s">
-        <v>841</v>
+        <v>940</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>63529</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>8479</v>
+      </c>
+      <c r="C103" t="s">
+        <v>941</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>842</v>
+        <v>942</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>843</v>
+        <v>943</v>
       </c>
       <c r="J103" t="s">
-        <v>844</v>
+        <v>944</v>
       </c>
       <c r="K103" t="s">
-        <v>845</v>
+        <v>945</v>
       </c>
       <c r="L103" t="s">
-        <v>846</v>
+        <v>946</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>814</v>
+        <v>910</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="s"/>
       <c r="Q103" t="n">
@@ -9559,13 +10267,13 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>847</v>
+        <v>947</v>
       </c>
       <c r="X103" t="s">
-        <v>848</v>
+        <v>948</v>
       </c>
       <c r="Y103" t="s">
-        <v>849</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
